--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3118245.527674543</v>
+        <v>3114582.293749675</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>817332.6097121679</v>
+        <v>817332.6097121678</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>87.7061602166668</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.545597814735</v>
+        <v>123.6003327477366</v>
       </c>
     </row>
     <row r="4">
@@ -828,22 +828,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>71.01467844038824</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>183.4693513325733</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>85.7724214674472</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>170.7495456997216</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>108.1960350243787</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>83.51289199636496</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>109.8883707013301</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>145.1806198985548</v>
       </c>
     </row>
     <row r="10">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.0555044138757</v>
+        <v>298.0555044138761</v>
       </c>
       <c r="C11" t="n">
         <v>280.5945545214026</v>
       </c>
       <c r="D11" t="n">
-        <v>270.0047043710812</v>
+        <v>270.004704371078</v>
       </c>
       <c r="E11" t="n">
         <v>297.2520328226569</v>
@@ -1387,10 +1387,10 @@
         <v>328.2970963075906</v>
       </c>
       <c r="H11" t="n">
-        <v>230.9619632069141</v>
+        <v>230.9619632069142</v>
       </c>
       <c r="I11" t="n">
-        <v>36.07416648233766</v>
+        <v>36.07416648233773</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.30829339509361</v>
+        <v>71.30829339509367</v>
       </c>
       <c r="T11" t="n">
         <v>128.2297392386462</v>
@@ -1469,7 +1469,7 @@
         <v>100.2092657015769</v>
       </c>
       <c r="I12" t="n">
-        <v>46.52401636680161</v>
+        <v>46.52401636680165</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.845126005358</v>
+        <v>22.84512600535805</v>
       </c>
       <c r="S12" t="n">
         <v>148.5538041213744</v>
@@ -1530,13 +1530,13 @@
         <v>95.1536429323324</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>82.56848384902294</v>
       </c>
       <c r="D13" t="n">
-        <v>52.00973251402911</v>
+        <v>31.19687406196919</v>
       </c>
       <c r="E13" t="n">
-        <v>61.75562539696428</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>60.74271077332635</v>
@@ -1548,7 +1548,7 @@
         <v>68.26718462459482</v>
       </c>
       <c r="I13" t="n">
-        <v>39.37776109814678</v>
+        <v>39.3777610981468</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.67533630342928</v>
+        <v>45.67533630342931</v>
       </c>
       <c r="S13" t="n">
         <v>121.1450866933788</v>
@@ -1627,7 +1627,7 @@
         <v>230.9619632069142</v>
       </c>
       <c r="I14" t="n">
-        <v>36.0741664823377</v>
+        <v>36.07416648233807</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.30829339509363</v>
+        <v>71.30829339509366</v>
       </c>
       <c r="T14" t="n">
         <v>128.2297392386462</v>
       </c>
       <c r="U14" t="n">
-        <v>166.4811313415969</v>
+        <v>166.4811313415964</v>
       </c>
       <c r="V14" t="n">
         <v>243.07392122053</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>52.00973251402821</v>
+        <v>52.00973251402826</v>
       </c>
       <c r="E16" t="n">
         <v>61.75562539696428</v>
@@ -1849,22 +1849,22 @@
         <v>280.5945545214026</v>
       </c>
       <c r="D17" t="n">
-        <v>270.0047043710781</v>
+        <v>270.004704371078</v>
       </c>
       <c r="E17" t="n">
         <v>297.2520328226569</v>
       </c>
       <c r="F17" t="n">
-        <v>322.1977084921066</v>
+        <v>322.1977084921065</v>
       </c>
       <c r="G17" t="n">
-        <v>328.2970963075907</v>
+        <v>328.2970963075906</v>
       </c>
       <c r="H17" t="n">
-        <v>230.9619632069143</v>
+        <v>230.9619632069142</v>
       </c>
       <c r="I17" t="n">
-        <v>36.07416648233774</v>
+        <v>36.0741664823379</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.30829339509408</v>
+        <v>71.30829339509366</v>
       </c>
       <c r="T17" t="n">
         <v>128.2297392386462</v>
       </c>
       <c r="U17" t="n">
-        <v>166.4811313415956</v>
+        <v>166.4811313415964</v>
       </c>
       <c r="V17" t="n">
         <v>243.07392122053</v>
       </c>
       <c r="W17" t="n">
-        <v>264.5626314678082</v>
+        <v>264.5626314678081</v>
       </c>
       <c r="X17" t="n">
-        <v>285.0527634288642</v>
+        <v>285.0527634288641</v>
       </c>
       <c r="Y17" t="n">
         <v>301.5596014064487</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.15364293233242</v>
+        <v>95.1536429323324</v>
       </c>
       <c r="C19" t="n">
-        <v>82.56848384902295</v>
+        <v>82.56848384902294</v>
       </c>
       <c r="D19" t="n">
-        <v>63.93713576860748</v>
+        <v>63.93713576860746</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>61.75562539696428</v>
       </c>
       <c r="F19" t="n">
-        <v>60.74271077332637</v>
+        <v>48.51551734334614</v>
       </c>
       <c r="G19" t="n">
-        <v>82.26869367362241</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>68.26718462459483</v>
+        <v>68.26718462459482</v>
       </c>
       <c r="I19" t="n">
-        <v>6.637499391507917</v>
+        <v>39.3777610981468</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>45.67533630342933</v>
+        <v>45.67533630342931</v>
       </c>
       <c r="S19" t="n">
         <v>121.1450866933788</v>
@@ -2067,7 +2067,7 @@
         <v>201.8446610869861</v>
       </c>
       <c r="X19" t="n">
-        <v>141.0313181394323</v>
+        <v>141.0313181394322</v>
       </c>
       <c r="Y19" t="n">
         <v>133.9063161024899</v>
@@ -2089,7 +2089,7 @@
         <v>270.004704371078</v>
       </c>
       <c r="E20" t="n">
-        <v>297.2520328226573</v>
+        <v>297.2520328226569</v>
       </c>
       <c r="F20" t="n">
         <v>322.1977084921065</v>
@@ -2140,7 +2140,7 @@
         <v>166.4811313415964</v>
       </c>
       <c r="V20" t="n">
-        <v>243.07392122053</v>
+        <v>243.0739212205304</v>
       </c>
       <c r="W20" t="n">
         <v>264.5626314678081</v>
@@ -2241,13 +2241,13 @@
         <v>95.1536429323324</v>
       </c>
       <c r="C22" t="n">
-        <v>82.56848384902294</v>
+        <v>49.82822214238455</v>
       </c>
       <c r="D22" t="n">
         <v>63.93713576860746</v>
       </c>
       <c r="E22" t="n">
-        <v>61.75562539696428</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>60.74271077332635</v>
@@ -2259,7 +2259,7 @@
         <v>68.26718462459482</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>39.3777610981468</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>45.67533630342931</v>
       </c>
       <c r="S22" t="n">
-        <v>111.702296991352</v>
+        <v>121.1450866933788</v>
       </c>
       <c r="T22" t="n">
         <v>138.8067452281421</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>71.30829339509363</v>
+        <v>71.30829339509367</v>
       </c>
       <c r="T23" t="n">
         <v>128.2297392386462</v>
@@ -2490,10 +2490,10 @@
         <v>60.74271077332635</v>
       </c>
       <c r="G25" t="n">
-        <v>82.26869367362239</v>
+        <v>56.03999119461464</v>
       </c>
       <c r="H25" t="n">
-        <v>68.26718462459482</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>39.3777610981468</v>
@@ -2529,7 +2529,7 @@
         <v>121.1450866933788</v>
       </c>
       <c r="T25" t="n">
-        <v>44.31085812453954</v>
+        <v>138.8067452281421</v>
       </c>
       <c r="U25" t="n">
         <v>201.5837494649643</v>
@@ -2566,16 +2566,16 @@
         <v>297.2520328226569</v>
       </c>
       <c r="F26" t="n">
-        <v>322.1977084921068</v>
+        <v>322.1977084921065</v>
       </c>
       <c r="G26" t="n">
         <v>328.2970963075906</v>
       </c>
       <c r="H26" t="n">
-        <v>230.9619632069142</v>
+        <v>230.9619632069141</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07416648233772</v>
+        <v>36.07416648233773</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.30829339509364</v>
+        <v>71.30829339509366</v>
       </c>
       <c r="T26" t="n">
         <v>128.2297392386462</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.15364293233239</v>
+        <v>95.1536429323324</v>
       </c>
       <c r="C28" t="n">
-        <v>82.56848384902293</v>
+        <v>52.00973251402776</v>
       </c>
       <c r="D28" t="n">
-        <v>63.93713576860745</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>61.75562539696426</v>
+        <v>61.75562539696428</v>
       </c>
       <c r="F28" t="n">
-        <v>60.74271077332634</v>
+        <v>60.74271077332635</v>
       </c>
       <c r="G28" t="n">
-        <v>82.26869367362238</v>
+        <v>82.26869367362239</v>
       </c>
       <c r="H28" t="n">
-        <v>68.2671846245948</v>
+        <v>68.26718462459482</v>
       </c>
       <c r="I28" t="n">
-        <v>39.37776109814678</v>
+        <v>39.3777610981468</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>45.6753363034293</v>
+        <v>45.67533630342931</v>
       </c>
       <c r="S28" t="n">
-        <v>26.64919958977599</v>
+        <v>121.1450866933788</v>
       </c>
       <c r="T28" t="n">
         <v>138.8067452281421</v>
@@ -2797,22 +2797,22 @@
         <v>280.5945545214026</v>
       </c>
       <c r="D29" t="n">
-        <v>270.004704371078</v>
+        <v>270.0047043710781</v>
       </c>
       <c r="E29" t="n">
         <v>297.2520328226569</v>
       </c>
       <c r="F29" t="n">
-        <v>322.1977084921068</v>
+        <v>322.1977084921066</v>
       </c>
       <c r="G29" t="n">
-        <v>328.2970963075906</v>
+        <v>328.2970963075907</v>
       </c>
       <c r="H29" t="n">
         <v>230.9619632069142</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07416648233772</v>
+        <v>36.07416648233774</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.30829339509364</v>
+        <v>71.30829339509319</v>
       </c>
       <c r="T29" t="n">
         <v>128.2297392386462</v>
       </c>
       <c r="U29" t="n">
-        <v>166.4811313415964</v>
+        <v>166.4811313415973</v>
       </c>
       <c r="V29" t="n">
         <v>243.07392122053</v>
       </c>
       <c r="W29" t="n">
-        <v>264.5626314678081</v>
+        <v>264.5626314678082</v>
       </c>
       <c r="X29" t="n">
-        <v>285.0527634288641</v>
+        <v>285.0527634288642</v>
       </c>
       <c r="Y29" t="n">
         <v>301.5596014064487</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.15364293233239</v>
+        <v>95.15364293233242</v>
       </c>
       <c r="C31" t="n">
-        <v>82.56848384902293</v>
+        <v>82.56848384902295</v>
       </c>
       <c r="D31" t="n">
-        <v>63.93713576860745</v>
+        <v>63.93713576860748</v>
       </c>
       <c r="E31" t="n">
-        <v>61.75562539696426</v>
+        <v>61.75562539696429</v>
       </c>
       <c r="F31" t="n">
-        <v>60.74271077332634</v>
+        <v>60.74271077332637</v>
       </c>
       <c r="G31" t="n">
-        <v>82.26869367362238</v>
+        <v>82.26869367362241</v>
       </c>
       <c r="H31" t="n">
-        <v>68.2671846245948</v>
+        <v>68.26718462459483</v>
       </c>
       <c r="I31" t="n">
-        <v>39.37776109814678</v>
+        <v>39.37776109814681</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>45.6753363034293</v>
+        <v>45.67533630342933</v>
       </c>
       <c r="S31" t="n">
         <v>121.1450866933788</v>
@@ -3009,16 +3009,16 @@
         <v>201.5837494649643</v>
       </c>
       <c r="V31" t="n">
-        <v>72.96341897062099</v>
+        <v>167.4593060742231</v>
       </c>
       <c r="W31" t="n">
         <v>201.8446610869861</v>
       </c>
       <c r="X31" t="n">
-        <v>141.0313181394322</v>
+        <v>141.0313181394323</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.9063161024899</v>
+        <v>39.41042899888683</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>322.1977084921065</v>
       </c>
       <c r="G32" t="n">
-        <v>328.2970963075906</v>
+        <v>328.2970963075909</v>
       </c>
       <c r="H32" t="n">
         <v>230.9619632069142</v>
       </c>
       <c r="I32" t="n">
-        <v>36.0741664823377</v>
+        <v>36.07416648233773</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>71.30829339509364</v>
+        <v>71.30829339509367</v>
       </c>
       <c r="T32" t="n">
         <v>128.2297392386462</v>
       </c>
       <c r="U32" t="n">
-        <v>166.4811313415969</v>
+        <v>166.4811313415964</v>
       </c>
       <c r="V32" t="n">
         <v>243.07392122053</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.15364293233237</v>
+        <v>95.1536429323324</v>
       </c>
       <c r="C34" t="n">
-        <v>82.56848384902291</v>
+        <v>82.56848384902294</v>
       </c>
       <c r="D34" t="n">
-        <v>63.93713576860743</v>
+        <v>63.93713576860746</v>
       </c>
       <c r="E34" t="n">
-        <v>61.75562539696425</v>
+        <v>61.75562539696428</v>
       </c>
       <c r="F34" t="n">
-        <v>60.74271077332632</v>
+        <v>60.74271077332635</v>
       </c>
       <c r="G34" t="n">
-        <v>82.26869367362237</v>
+        <v>82.26869367362239</v>
       </c>
       <c r="H34" t="n">
-        <v>68.26718462459479</v>
+        <v>68.26718462459482</v>
       </c>
       <c r="I34" t="n">
-        <v>39.37776109814677</v>
+        <v>39.3777610981468</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.67533630342928</v>
+        <v>45.67533630342931</v>
       </c>
       <c r="S34" t="n">
         <v>121.1450866933788</v>
@@ -3246,7 +3246,7 @@
         <v>201.5837494649643</v>
       </c>
       <c r="V34" t="n">
-        <v>72.96341897062166</v>
+        <v>167.4593060742231</v>
       </c>
       <c r="W34" t="n">
         <v>201.8446610869861</v>
@@ -3255,7 +3255,7 @@
         <v>141.0313181394322</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.9063161024899</v>
+        <v>39.41042899888739</v>
       </c>
     </row>
     <row r="35">
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-12</v>
       </c>
       <c r="S35" t="n">
-        <v>71.30829339509363</v>
+        <v>71.30829339509367</v>
       </c>
       <c r="T35" t="n">
         <v>128.2297392386462</v>
       </c>
       <c r="U35" t="n">
-        <v>166.4811313415956</v>
+        <v>166.4811313415964</v>
       </c>
       <c r="V35" t="n">
         <v>243.07392122053</v>
@@ -3432,10 +3432,10 @@
         <v>63.93713576860746</v>
       </c>
       <c r="E37" t="n">
-        <v>28.00244906668807</v>
+        <v>61.75562539696428</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>60.74271077332635</v>
       </c>
       <c r="G37" t="n">
         <v>82.26869367362239</v>
@@ -3492,7 +3492,7 @@
         <v>141.0313181394322</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.9063161024899</v>
+        <v>39.41042899888728</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>280.5945545214026</v>
       </c>
       <c r="D38" t="n">
-        <v>270.0047043710781</v>
+        <v>270.004704371078</v>
       </c>
       <c r="E38" t="n">
         <v>297.2520328226569</v>
       </c>
       <c r="F38" t="n">
-        <v>322.1977084921066</v>
+        <v>322.1977084921065</v>
       </c>
       <c r="G38" t="n">
-        <v>328.2970963075907</v>
+        <v>328.2970963075906</v>
       </c>
       <c r="H38" t="n">
         <v>230.9619632069142</v>
       </c>
       <c r="I38" t="n">
-        <v>36.07416648233774</v>
+        <v>36.07416648233773</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>71.30829339509367</v>
+        <v>71.30829339509366</v>
       </c>
       <c r="T38" t="n">
-        <v>128.229739238646</v>
+        <v>128.2297392386462</v>
       </c>
       <c r="U38" t="n">
         <v>166.4811313415969</v>
@@ -3565,10 +3565,10 @@
         <v>243.07392122053</v>
       </c>
       <c r="W38" t="n">
-        <v>264.5626314678082</v>
+        <v>264.5626314678081</v>
       </c>
       <c r="X38" t="n">
-        <v>285.0527634288642</v>
+        <v>285.0527634288641</v>
       </c>
       <c r="Y38" t="n">
         <v>301.5596014064487</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.15364293233242</v>
+        <v>95.1536429323324</v>
       </c>
       <c r="C40" t="n">
-        <v>82.56848384902295</v>
+        <v>82.56848384902294</v>
       </c>
       <c r="D40" t="n">
-        <v>63.93713576860748</v>
+        <v>63.93713576860746</v>
       </c>
       <c r="E40" t="n">
-        <v>61.75562539696429</v>
+        <v>61.75562539696428</v>
       </c>
       <c r="F40" t="n">
-        <v>60.74271077332637</v>
+        <v>60.74271077332635</v>
       </c>
       <c r="G40" t="n">
-        <v>82.26869367362241</v>
+        <v>82.26869367362239</v>
       </c>
       <c r="H40" t="n">
-        <v>68.26718462459483</v>
+        <v>68.26718462459482</v>
       </c>
       <c r="I40" t="n">
-        <v>39.37776109814681</v>
+        <v>39.3777610981468</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>45.67533630342933</v>
+        <v>45.67533630342931</v>
       </c>
       <c r="S40" t="n">
         <v>121.1450866933788</v>
@@ -3717,7 +3717,7 @@
         <v>138.8067452281421</v>
       </c>
       <c r="U40" t="n">
-        <v>107.0878623613613</v>
+        <v>201.5837494649643</v>
       </c>
       <c r="V40" t="n">
         <v>167.4593060742231</v>
@@ -3726,10 +3726,10 @@
         <v>201.8446610869861</v>
       </c>
       <c r="X40" t="n">
-        <v>141.0313181394323</v>
+        <v>141.0313181394322</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.9063161024899</v>
+        <v>39.41042899888728</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>208.2499501119992</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.9754335571955</v>
       </c>
       <c r="H41" t="n">
         <v>315.6403004565191</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>120.7525037319426</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3.676610693231396</v>
       </c>
       <c r="S41" t="n">
-        <v>155.9866306446986</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.9080764882511</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1594685912013</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>186.9470551669311</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.5520257458074</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>194.0758128539197</v>
+        <v>205.8234239429837</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.7608382294219</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2620867145692</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.9754335571955</v>
       </c>
       <c r="H44" t="n">
-        <v>315.6403004565191</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.7525037319426</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>155.9866306446986</v>
       </c>
       <c r="T44" t="n">
-        <v>140.8382564221141</v>
+        <v>212.9080764882511</v>
       </c>
       <c r="U44" t="n">
         <v>251.1594685912013</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>231.7380368602598</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>161.448298975727</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>130.3536735530342</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.485082477747</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2620867145692</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>151.2125100311892</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.9389693285341</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C3" t="n">
-        <v>279.9389693285341</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D3" t="n">
-        <v>279.9389693285341</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>279.9389693285341</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>133.4044113554191</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>627.7355178317791</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>627.7355178317791</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X3" t="n">
-        <v>419.8840176262463</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y3" t="n">
-        <v>279.9389693285341</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="F5" t="n">
-        <v>315.6850394389064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>768.6429630387997</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>328.2071404297052</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C6" t="n">
-        <v>328.2071404297052</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D6" t="n">
-        <v>179.2727307684539</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
         <v>20.03527576299844</v>
@@ -4652,10 +4652,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
         <v>656.0584510084244</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>877.4183459475582</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>877.4183459475582</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>877.4183459475582</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="W6" t="n">
-        <v>500.6814290152826</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="X6" t="n">
-        <v>328.2071404297052</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="Y6" t="n">
-        <v>328.2071404297052</v>
+        <v>649.1947276839472</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
         <v>41.77557929797318</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>115.7075889192809</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1855.85312092594</v>
+        <v>1855.853120925937</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.424277975028</v>
+        <v>1572.424277975025</v>
       </c>
       <c r="D11" t="n">
         <v>1299.692253357774</v>
       </c>
       <c r="E11" t="n">
-        <v>999.4376747490301</v>
+        <v>999.4376747490302</v>
       </c>
       <c r="F11" t="n">
-        <v>673.9854439489225</v>
+        <v>673.9854439489226</v>
       </c>
       <c r="G11" t="n">
-        <v>342.3722153553966</v>
+        <v>342.3722153553967</v>
       </c>
       <c r="H11" t="n">
         <v>109.0773030251803</v>
       </c>
       <c r="I11" t="n">
-        <v>72.63875102281905</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="J11" t="n">
-        <v>256.3606987189205</v>
+        <v>256.3606987189201</v>
       </c>
       <c r="K11" t="n">
-        <v>652.4570775611951</v>
+        <v>652.457077561194</v>
       </c>
       <c r="L11" t="n">
-        <v>1196.126288294969</v>
+        <v>1196.126288294968</v>
       </c>
       <c r="M11" t="n">
-        <v>1817.669584551376</v>
+        <v>1817.669584551374</v>
       </c>
       <c r="N11" t="n">
-        <v>2434.638103598908</v>
+        <v>2434.638103598905</v>
       </c>
       <c r="O11" t="n">
-        <v>2972.036343137405</v>
+        <v>2972.036343137403</v>
       </c>
       <c r="P11" t="n">
-        <v>3393.01892452829</v>
+        <v>3393.018924528287</v>
       </c>
       <c r="Q11" t="n">
-        <v>3631.937551140953</v>
+        <v>3631.93755114095</v>
       </c>
       <c r="R11" t="n">
-        <v>3631.937551140953</v>
+        <v>3631.93755114095</v>
       </c>
       <c r="S11" t="n">
-        <v>3559.908971953989</v>
+        <v>3559.908971953987</v>
       </c>
       <c r="T11" t="n">
-        <v>3430.383982824043</v>
+        <v>3430.383982824041</v>
       </c>
       <c r="U11" t="n">
-        <v>3262.221223893138</v>
+        <v>3262.221223893135</v>
       </c>
       <c r="V11" t="n">
-        <v>3016.692010539067</v>
+        <v>3016.692010539065</v>
       </c>
       <c r="W11" t="n">
-        <v>2749.457029258453</v>
+        <v>2749.45702925845</v>
       </c>
       <c r="X11" t="n">
-        <v>2461.524944986873</v>
+        <v>2461.524944986871</v>
       </c>
       <c r="Y11" t="n">
-        <v>2156.919287000562</v>
+        <v>2156.919287000559</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>119.6327069488813</v>
       </c>
       <c r="I12" t="n">
-        <v>72.63875102281905</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="J12" t="n">
-        <v>72.63875102281905</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="K12" t="n">
-        <v>397.0608601128696</v>
+        <v>135.2402754704166</v>
       </c>
       <c r="L12" t="n">
-        <v>894.6908182461973</v>
+        <v>489.673909872495</v>
       </c>
       <c r="M12" t="n">
-        <v>1527.380729339333</v>
+        <v>1122.363820965631</v>
       </c>
       <c r="N12" t="n">
-        <v>2177.429860849234</v>
+        <v>1787.506164765271</v>
       </c>
       <c r="O12" t="n">
         <v>2329.565784986357</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>440.7414864578532</v>
+        <v>440.7414864578518</v>
       </c>
       <c r="C13" t="n">
-        <v>440.7414864578532</v>
+        <v>357.3389775194448</v>
       </c>
       <c r="D13" t="n">
-        <v>388.206403110349</v>
+        <v>325.8269835174557</v>
       </c>
       <c r="E13" t="n">
-        <v>325.8269835174558</v>
+        <v>325.8269835174557</v>
       </c>
       <c r="F13" t="n">
         <v>264.4707100090453</v>
@@ -5193,58 +5193,58 @@
         <v>181.3710194296287</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4142672835734</v>
+        <v>112.4142672835733</v>
       </c>
       <c r="I13" t="n">
-        <v>72.63875102281905</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="J13" t="n">
-        <v>137.1137994115786</v>
+        <v>137.1137994115785</v>
       </c>
       <c r="K13" t="n">
-        <v>318.9735054013879</v>
+        <v>318.9735054013877</v>
       </c>
       <c r="L13" t="n">
-        <v>583.77377867419</v>
+        <v>583.7737786741895</v>
       </c>
       <c r="M13" t="n">
-        <v>868.8005965617883</v>
+        <v>868.8005965617876</v>
       </c>
       <c r="N13" t="n">
-        <v>1154.478057186597</v>
+        <v>1154.478057186596</v>
       </c>
       <c r="O13" t="n">
-        <v>1408.730680137416</v>
+        <v>1408.730680137415</v>
       </c>
       <c r="P13" t="n">
-        <v>1614.866217527645</v>
+        <v>1614.866217527644</v>
       </c>
       <c r="Q13" t="n">
-        <v>1699.939629917831</v>
+        <v>1699.93962991783</v>
       </c>
       <c r="R13" t="n">
-        <v>1653.802926581034</v>
+        <v>1653.802926581033</v>
       </c>
       <c r="S13" t="n">
-        <v>1531.434152143278</v>
+        <v>1531.434152143276</v>
       </c>
       <c r="T13" t="n">
-        <v>1391.225318579498</v>
+        <v>1391.225318579496</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.605369624988</v>
+        <v>1187.605369624987</v>
       </c>
       <c r="V13" t="n">
-        <v>1018.454555408601</v>
+        <v>1018.4545554086</v>
       </c>
       <c r="W13" t="n">
-        <v>814.5710593611407</v>
+        <v>814.5710593611393</v>
       </c>
       <c r="X13" t="n">
-        <v>672.1151824526232</v>
+        <v>672.1151824526219</v>
       </c>
       <c r="Y13" t="n">
-        <v>536.856277298593</v>
+        <v>536.8562772985916</v>
       </c>
     </row>
     <row r="14">
@@ -5263,22 +5263,22 @@
         <v>1299.692253357775</v>
       </c>
       <c r="E14" t="n">
-        <v>999.4376747490303</v>
+        <v>999.4376747490305</v>
       </c>
       <c r="F14" t="n">
-        <v>673.9854439489226</v>
+        <v>673.9854439489229</v>
       </c>
       <c r="G14" t="n">
-        <v>342.3722153553967</v>
+        <v>342.372215355397</v>
       </c>
       <c r="H14" t="n">
-        <v>109.0773030251803</v>
+        <v>109.0773030251807</v>
       </c>
       <c r="I14" t="n">
-        <v>72.63875102281902</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J14" t="n">
-        <v>256.36069871892</v>
+        <v>256.3606987189203</v>
       </c>
       <c r="K14" t="n">
         <v>652.4570775611942</v>
@@ -5299,16 +5299,16 @@
         <v>3393.018924528288</v>
       </c>
       <c r="Q14" t="n">
-        <v>3631.937551140951</v>
+        <v>3631.93755114095</v>
       </c>
       <c r="R14" t="n">
-        <v>3631.937551140951</v>
+        <v>3631.93755114095</v>
       </c>
       <c r="S14" t="n">
         <v>3559.908971953987</v>
       </c>
       <c r="T14" t="n">
-        <v>3430.383982824042</v>
+        <v>3430.383982824041</v>
       </c>
       <c r="U14" t="n">
         <v>3262.221223893136</v>
@@ -5317,7 +5317,7 @@
         <v>3016.692010539065</v>
       </c>
       <c r="W14" t="n">
-        <v>2749.45702925845</v>
+        <v>2749.457029258451</v>
       </c>
       <c r="X14" t="n">
         <v>2461.524944986871</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1960.333052450218</v>
+        <v>987.4866694443768</v>
       </c>
       <c r="C15" t="n">
-        <v>1785.880023169091</v>
+        <v>813.0336401632499</v>
       </c>
       <c r="D15" t="n">
-        <v>1636.94561350784</v>
+        <v>664.0992305019986</v>
       </c>
       <c r="E15" t="n">
-        <v>1477.708158502385</v>
+        <v>504.861775496543</v>
       </c>
       <c r="F15" t="n">
-        <v>1331.17360052927</v>
+        <v>358.327217523428</v>
       </c>
       <c r="G15" t="n">
-        <v>1193.700570461366</v>
+        <v>220.8541874555246</v>
       </c>
       <c r="H15" t="n">
-        <v>1092.479089954723</v>
+        <v>119.6327069488813</v>
       </c>
       <c r="I15" t="n">
-        <v>1045.485134028661</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J15" t="n">
-        <v>1161.215287772112</v>
+        <v>188.3689047662705</v>
       </c>
       <c r="K15" t="n">
-        <v>1485.637396862163</v>
+        <v>512.791013856321</v>
       </c>
       <c r="L15" t="n">
-        <v>1621.791102524916</v>
+        <v>643.2890301392239</v>
       </c>
       <c r="M15" t="n">
-        <v>2254.481013618052</v>
+        <v>1275.97894123236</v>
       </c>
       <c r="N15" t="n">
-        <v>2445.074406817575</v>
+        <v>1941.121285032001</v>
       </c>
       <c r="O15" t="n">
-        <v>2987.134027038661</v>
+        <v>2093.257209169124</v>
       </c>
       <c r="P15" t="n">
-        <v>3405.181593408958</v>
+        <v>2511.304775539421</v>
       </c>
       <c r="Q15" t="n">
-        <v>3631.937551140951</v>
+        <v>2659.091168135109</v>
       </c>
       <c r="R15" t="n">
-        <v>3608.861666287054</v>
+        <v>2636.015283281212</v>
       </c>
       <c r="S15" t="n">
-        <v>3458.807318689706</v>
+        <v>2485.960935683864</v>
       </c>
       <c r="T15" t="n">
-        <v>3261.690521970283</v>
+        <v>2288.844138964442</v>
       </c>
       <c r="U15" t="n">
-        <v>3033.549653400717</v>
+        <v>2060.703270394876</v>
       </c>
       <c r="V15" t="n">
-        <v>2798.397545168975</v>
+        <v>1825.551162163133</v>
       </c>
       <c r="W15" t="n">
-        <v>2544.160188440773</v>
+        <v>1571.313805434932</v>
       </c>
       <c r="X15" t="n">
-        <v>2336.30868823524</v>
+        <v>1363.462305229399</v>
       </c>
       <c r="Y15" t="n">
-        <v>2128.548389470287</v>
+        <v>1155.702006464445</v>
       </c>
     </row>
     <row r="16">
@@ -5421,7 +5421,7 @@
         <v>388.206403110349</v>
       </c>
       <c r="E16" t="n">
-        <v>325.8269835174558</v>
+        <v>325.8269835174557</v>
       </c>
       <c r="F16" t="n">
         <v>264.4707100090453</v>
@@ -5430,10 +5430,10 @@
         <v>181.3710194296287</v>
       </c>
       <c r="H16" t="n">
-        <v>112.4142672835734</v>
+        <v>112.4142672835733</v>
       </c>
       <c r="I16" t="n">
-        <v>72.63875102281902</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J16" t="n">
         <v>137.1137994115786</v>
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.853120925938</v>
+        <v>1855.853120925937</v>
       </c>
       <c r="C17" t="n">
-        <v>1572.424277975026</v>
+        <v>1572.424277975025</v>
       </c>
       <c r="D17" t="n">
-        <v>1299.692253357775</v>
+        <v>1299.692253357774</v>
       </c>
       <c r="E17" t="n">
-        <v>999.437674749031</v>
+        <v>999.4376747490298</v>
       </c>
       <c r="F17" t="n">
-        <v>673.9854439489234</v>
+        <v>673.9854439489222</v>
       </c>
       <c r="G17" t="n">
         <v>342.3722153553969</v>
       </c>
       <c r="H17" t="n">
-        <v>109.0773030251804</v>
+        <v>109.0773030251805</v>
       </c>
       <c r="I17" t="n">
-        <v>72.63875102281902</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J17" t="n">
-        <v>256.3606987189205</v>
+        <v>256.36069871892</v>
       </c>
       <c r="K17" t="n">
-        <v>652.4570775611946</v>
+        <v>652.4570775611942</v>
       </c>
       <c r="L17" t="n">
         <v>1196.126288294968</v>
@@ -5536,10 +5536,10 @@
         <v>3393.018924528288</v>
       </c>
       <c r="Q17" t="n">
-        <v>3631.937551140951</v>
+        <v>3631.93755114095</v>
       </c>
       <c r="R17" t="n">
-        <v>3631.937551140951</v>
+        <v>3631.93755114095</v>
       </c>
       <c r="S17" t="n">
         <v>3559.908971953987</v>
@@ -5548,19 +5548,19 @@
         <v>3430.383982824041</v>
       </c>
       <c r="U17" t="n">
-        <v>3262.221223893137</v>
+        <v>3262.221223893136</v>
       </c>
       <c r="V17" t="n">
-        <v>3016.692010539066</v>
+        <v>3016.692010539065</v>
       </c>
       <c r="W17" t="n">
-        <v>2749.457029258452</v>
+        <v>2749.45702925845</v>
       </c>
       <c r="X17" t="n">
-        <v>2461.524944986872</v>
+        <v>2461.524944986871</v>
       </c>
       <c r="Y17" t="n">
-        <v>2156.91928700056</v>
+        <v>2156.919287000559</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>119.6327069488813</v>
       </c>
       <c r="I18" t="n">
-        <v>72.63875102281902</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J18" t="n">
         <v>188.3689047662705</v>
       </c>
       <c r="K18" t="n">
-        <v>512.791013856321</v>
+        <v>466.5929023392854</v>
       </c>
       <c r="L18" t="n">
-        <v>643.2890301392239</v>
+        <v>964.2228604726129</v>
       </c>
       <c r="M18" t="n">
-        <v>1015.062194870583</v>
+        <v>1596.912771565748</v>
       </c>
       <c r="N18" t="n">
-        <v>1680.204538670224</v>
+        <v>1787.506164765271</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.26415889131</v>
+        <v>2329.565784986357</v>
       </c>
       <c r="P18" t="n">
-        <v>2640.311725261607</v>
+        <v>2432.335210403116</v>
       </c>
       <c r="Q18" t="n">
         <v>2659.091168135109</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>440.7414864578514</v>
+        <v>440.7414864578518</v>
       </c>
       <c r="C19" t="n">
-        <v>357.3389775194443</v>
+        <v>357.3389775194448</v>
       </c>
       <c r="D19" t="n">
-        <v>292.7560120966085</v>
+        <v>292.756012096609</v>
       </c>
       <c r="E19" t="n">
-        <v>292.7560120966085</v>
+        <v>230.3765925037158</v>
       </c>
       <c r="F19" t="n">
-        <v>231.399738588198</v>
+        <v>181.3710194296287</v>
       </c>
       <c r="G19" t="n">
-        <v>148.3000480087814</v>
+        <v>181.3710194296287</v>
       </c>
       <c r="H19" t="n">
-        <v>79.34329586272601</v>
+        <v>112.4142672835734</v>
       </c>
       <c r="I19" t="n">
-        <v>72.63875102281902</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J19" t="n">
         <v>137.1137994115785</v>
@@ -5712,13 +5712,13 @@
         <v>1018.4545554086</v>
       </c>
       <c r="W19" t="n">
-        <v>814.5710593611389</v>
+        <v>814.5710593611393</v>
       </c>
       <c r="X19" t="n">
-        <v>672.1151824526214</v>
+        <v>672.1151824526219</v>
       </c>
       <c r="Y19" t="n">
-        <v>536.8562772985912</v>
+        <v>536.8562772985916</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1572.424277975025</v>
       </c>
       <c r="D20" t="n">
-        <v>1299.692253357775</v>
+        <v>1299.692253357774</v>
       </c>
       <c r="E20" t="n">
         <v>999.4376747490302</v>
@@ -5752,10 +5752,10 @@
         <v>72.63875102281901</v>
       </c>
       <c r="J20" t="n">
-        <v>256.36069871892</v>
+        <v>256.3606987189202</v>
       </c>
       <c r="K20" t="n">
-        <v>652.4570775611942</v>
+        <v>652.457077561194</v>
       </c>
       <c r="L20" t="n">
         <v>1196.126288294968</v>
@@ -5791,7 +5791,7 @@
         <v>3016.692010539065</v>
       </c>
       <c r="W20" t="n">
-        <v>2749.457029258451</v>
+        <v>2749.45702925845</v>
       </c>
       <c r="X20" t="n">
         <v>2461.524944986871</v>
@@ -5831,25 +5831,25 @@
         <v>72.63875102281901</v>
       </c>
       <c r="J21" t="n">
-        <v>72.63875102281901</v>
+        <v>188.3689047662705</v>
       </c>
       <c r="K21" t="n">
-        <v>397.0608601128695</v>
+        <v>466.5929023392854</v>
       </c>
       <c r="L21" t="n">
-        <v>894.6908182461968</v>
+        <v>964.2228604726129</v>
       </c>
       <c r="M21" t="n">
-        <v>1527.380729339332</v>
+        <v>1596.912771565748</v>
       </c>
       <c r="N21" t="n">
-        <v>1717.974122538855</v>
+        <v>1787.506164765271</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.26415889131</v>
+        <v>2329.565784986357</v>
       </c>
       <c r="P21" t="n">
-        <v>2640.311725261607</v>
+        <v>2432.335210403116</v>
       </c>
       <c r="Q21" t="n">
         <v>2659.091168135109</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2428.414282433958</v>
+        <v>440.7414864578518</v>
       </c>
       <c r="C22" t="n">
-        <v>2345.011773495551</v>
+        <v>390.4099489402917</v>
       </c>
       <c r="D22" t="n">
-        <v>2280.428808072715</v>
+        <v>325.8269835174558</v>
       </c>
       <c r="E22" t="n">
-        <v>2218.049388479822</v>
+        <v>325.8269835174558</v>
       </c>
       <c r="F22" t="n">
-        <v>2156.693114971411</v>
+        <v>264.4707100090453</v>
       </c>
       <c r="G22" t="n">
-        <v>2073.593424391995</v>
+        <v>181.3710194296287</v>
       </c>
       <c r="H22" t="n">
-        <v>2004.63667224594</v>
+        <v>112.4142672835734</v>
       </c>
       <c r="I22" t="n">
-        <v>2004.63667224594</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J22" t="n">
-        <v>2069.111720634699</v>
+        <v>137.1137994115785</v>
       </c>
       <c r="K22" t="n">
-        <v>2250.971426624508</v>
+        <v>318.9735054013877</v>
       </c>
       <c r="L22" t="n">
-        <v>2515.77169989731</v>
+        <v>583.7737786741895</v>
       </c>
       <c r="M22" t="n">
-        <v>2800.798517784908</v>
+        <v>868.8005965617876</v>
       </c>
       <c r="N22" t="n">
-        <v>3086.475978409716</v>
+        <v>1154.478057186596</v>
       </c>
       <c r="O22" t="n">
-        <v>3340.728601360535</v>
+        <v>1408.730680137415</v>
       </c>
       <c r="P22" t="n">
-        <v>3546.864138750765</v>
+        <v>1614.866217527644</v>
       </c>
       <c r="Q22" t="n">
-        <v>3631.93755114095</v>
+        <v>1699.93962991783</v>
       </c>
       <c r="R22" t="n">
-        <v>3631.93755114095</v>
+        <v>1653.802926581033</v>
       </c>
       <c r="S22" t="n">
-        <v>3519.106948119383</v>
+        <v>1531.434152143276</v>
       </c>
       <c r="T22" t="n">
-        <v>3378.898114555603</v>
+        <v>1391.225318579496</v>
       </c>
       <c r="U22" t="n">
-        <v>3175.278165601093</v>
+        <v>1187.605369624987</v>
       </c>
       <c r="V22" t="n">
-        <v>3006.127351384706</v>
+        <v>1018.4545554086</v>
       </c>
       <c r="W22" t="n">
-        <v>2802.243855337246</v>
+        <v>814.5710593611393</v>
       </c>
       <c r="X22" t="n">
-        <v>2659.787978428728</v>
+        <v>672.1151824526219</v>
       </c>
       <c r="Y22" t="n">
-        <v>2524.529073274698</v>
+        <v>536.8562772985916</v>
       </c>
     </row>
     <row r="23">
@@ -5974,31 +5974,31 @@
         <v>1299.692253357774</v>
       </c>
       <c r="E23" t="n">
-        <v>999.4376747490301</v>
+        <v>999.4376747490302</v>
       </c>
       <c r="F23" t="n">
-        <v>673.9854439489225</v>
+        <v>673.9854439489226</v>
       </c>
       <c r="G23" t="n">
-        <v>342.3722153553966</v>
+        <v>342.3722153553967</v>
       </c>
       <c r="H23" t="n">
-        <v>109.0773030251804</v>
+        <v>109.0773030251803</v>
       </c>
       <c r="I23" t="n">
-        <v>72.63875102281901</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="J23" t="n">
-        <v>256.36069871892</v>
+        <v>256.3606987189198</v>
       </c>
       <c r="K23" t="n">
-        <v>652.4570775611942</v>
+        <v>652.4570775611937</v>
       </c>
       <c r="L23" t="n">
-        <v>1196.126288294968</v>
+        <v>1196.126288294967</v>
       </c>
       <c r="M23" t="n">
-        <v>1817.669584551374</v>
+        <v>1817.669584551373</v>
       </c>
       <c r="N23" t="n">
         <v>2434.638103598906</v>
@@ -6007,7 +6007,7 @@
         <v>2972.036343137403</v>
       </c>
       <c r="P23" t="n">
-        <v>3393.018924528288</v>
+        <v>3393.018924528287</v>
       </c>
       <c r="Q23" t="n">
         <v>3631.93755114095</v>
@@ -6022,7 +6022,7 @@
         <v>3430.383982824041</v>
       </c>
       <c r="U23" t="n">
-        <v>3262.221223893136</v>
+        <v>3262.221223893135</v>
       </c>
       <c r="V23" t="n">
         <v>3016.692010539065</v>
@@ -6065,25 +6065,25 @@
         <v>119.6327069488813</v>
       </c>
       <c r="I24" t="n">
-        <v>72.63875102281901</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="J24" t="n">
-        <v>72.63875102281901</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="K24" t="n">
         <v>397.0608601128695</v>
       </c>
       <c r="L24" t="n">
-        <v>527.5588763957724</v>
+        <v>894.6908182461968</v>
       </c>
       <c r="M24" t="n">
-        <v>1122.363820965631</v>
+        <v>1527.380729339332</v>
       </c>
       <c r="N24" t="n">
-        <v>1787.506164765271</v>
+        <v>1717.974122538855</v>
       </c>
       <c r="O24" t="n">
-        <v>2329.565784986357</v>
+        <v>2260.033742759941</v>
       </c>
       <c r="P24" t="n">
         <v>2432.335210403116</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2468.189798694712</v>
+        <v>440.7414864578518</v>
       </c>
       <c r="C25" t="n">
-        <v>2384.787289756305</v>
+        <v>357.3389775194448</v>
       </c>
       <c r="D25" t="n">
-        <v>2320.204324333469</v>
+        <v>292.756012096609</v>
       </c>
       <c r="E25" t="n">
-        <v>2257.824904740576</v>
+        <v>230.3765925037158</v>
       </c>
       <c r="F25" t="n">
-        <v>2196.468631232166</v>
+        <v>169.0203189953053</v>
       </c>
       <c r="G25" t="n">
-        <v>2113.368940652749</v>
+        <v>112.4142672835733</v>
       </c>
       <c r="H25" t="n">
-        <v>2044.412188506694</v>
+        <v>112.4142672835733</v>
       </c>
       <c r="I25" t="n">
-        <v>2004.63667224594</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="J25" t="n">
-        <v>2069.111720634699</v>
+        <v>137.1137994115785</v>
       </c>
       <c r="K25" t="n">
-        <v>2250.971426624508</v>
+        <v>318.9735054013877</v>
       </c>
       <c r="L25" t="n">
-        <v>2515.77169989731</v>
+        <v>583.7737786741895</v>
       </c>
       <c r="M25" t="n">
-        <v>2800.798517784908</v>
+        <v>868.8005965617876</v>
       </c>
       <c r="N25" t="n">
-        <v>3086.475978409716</v>
+        <v>1154.478057186596</v>
       </c>
       <c r="O25" t="n">
-        <v>3340.728601360535</v>
+        <v>1408.730680137415</v>
       </c>
       <c r="P25" t="n">
-        <v>3546.864138750765</v>
+        <v>1614.866217527644</v>
       </c>
       <c r="Q25" t="n">
-        <v>3631.93755114095</v>
+        <v>1699.93962991783</v>
       </c>
       <c r="R25" t="n">
-        <v>3585.800847804153</v>
+        <v>1653.802926581033</v>
       </c>
       <c r="S25" t="n">
-        <v>3463.432073366397</v>
+        <v>1531.434152143276</v>
       </c>
       <c r="T25" t="n">
-        <v>3418.673630816357</v>
+        <v>1391.225318579496</v>
       </c>
       <c r="U25" t="n">
-        <v>3215.053681861848</v>
+        <v>1187.605369624987</v>
       </c>
       <c r="V25" t="n">
-        <v>3045.90286764546</v>
+        <v>1018.4545554086</v>
       </c>
       <c r="W25" t="n">
-        <v>2842.019371598</v>
+        <v>814.5710593611393</v>
       </c>
       <c r="X25" t="n">
-        <v>2699.563494689482</v>
+        <v>672.1151824526219</v>
       </c>
       <c r="Y25" t="n">
-        <v>2564.304589535452</v>
+        <v>536.8562772985916</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>1572.424277975025</v>
       </c>
       <c r="D26" t="n">
-        <v>1299.692253357775</v>
+        <v>1299.692253357774</v>
       </c>
       <c r="E26" t="n">
-        <v>999.4376747490305</v>
+        <v>999.4376747490301</v>
       </c>
       <c r="F26" t="n">
-        <v>673.9854439489226</v>
+        <v>673.9854439489225</v>
       </c>
       <c r="G26" t="n">
-        <v>342.3722153553967</v>
+        <v>342.3722153553966</v>
       </c>
       <c r="H26" t="n">
-        <v>109.0773030251803</v>
+        <v>109.0773030251804</v>
       </c>
       <c r="I26" t="n">
         <v>72.63875102281901</v>
@@ -6265,7 +6265,7 @@
         <v>3016.692010539065</v>
       </c>
       <c r="W26" t="n">
-        <v>2749.457029258451</v>
+        <v>2749.45702925845</v>
       </c>
       <c r="X26" t="n">
         <v>2461.524944986871</v>
@@ -6305,25 +6305,25 @@
         <v>72.63875102281901</v>
       </c>
       <c r="J27" t="n">
-        <v>72.63875102281901</v>
+        <v>188.3689047662705</v>
       </c>
       <c r="K27" t="n">
-        <v>135.2402754704167</v>
+        <v>512.791013856321</v>
       </c>
       <c r="L27" t="n">
-        <v>632.8702336037441</v>
+        <v>1010.420971989648</v>
       </c>
       <c r="M27" t="n">
-        <v>1265.56014469688</v>
+        <v>1281.634630612211</v>
       </c>
       <c r="N27" t="n">
-        <v>1680.204538670224</v>
+        <v>1472.228023811734</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.26415889131</v>
+        <v>2014.287644032819</v>
       </c>
       <c r="P27" t="n">
-        <v>2640.311725261607</v>
+        <v>2432.335210403116</v>
       </c>
       <c r="Q27" t="n">
         <v>2659.091168135109</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2468.189798694712</v>
+        <v>440.7414864578518</v>
       </c>
       <c r="C28" t="n">
-        <v>2384.787289756305</v>
+        <v>388.206403110349</v>
       </c>
       <c r="D28" t="n">
-        <v>2320.204324333469</v>
+        <v>388.206403110349</v>
       </c>
       <c r="E28" t="n">
-        <v>2257.824904740576</v>
+        <v>325.8269835174558</v>
       </c>
       <c r="F28" t="n">
-        <v>2196.468631232166</v>
+        <v>264.4707100090453</v>
       </c>
       <c r="G28" t="n">
-        <v>2113.368940652749</v>
+        <v>181.3710194296287</v>
       </c>
       <c r="H28" t="n">
-        <v>2044.412188506694</v>
+        <v>112.4142672835734</v>
       </c>
       <c r="I28" t="n">
-        <v>2004.63667224594</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J28" t="n">
-        <v>2069.111720634699</v>
+        <v>137.1137994115785</v>
       </c>
       <c r="K28" t="n">
-        <v>2250.971426624508</v>
+        <v>318.9735054013877</v>
       </c>
       <c r="L28" t="n">
-        <v>2515.77169989731</v>
+        <v>583.7737786741895</v>
       </c>
       <c r="M28" t="n">
-        <v>2800.798517784908</v>
+        <v>868.8005965617876</v>
       </c>
       <c r="N28" t="n">
-        <v>3086.475978409716</v>
+        <v>1154.478057186596</v>
       </c>
       <c r="O28" t="n">
-        <v>3340.728601360535</v>
+        <v>1408.730680137415</v>
       </c>
       <c r="P28" t="n">
-        <v>3546.864138750765</v>
+        <v>1614.866217527644</v>
       </c>
       <c r="Q28" t="n">
-        <v>3631.93755114095</v>
+        <v>1699.93962991783</v>
       </c>
       <c r="R28" t="n">
-        <v>3585.800847804153</v>
+        <v>1653.802926581033</v>
       </c>
       <c r="S28" t="n">
-        <v>3558.882464380137</v>
+        <v>1531.434152143276</v>
       </c>
       <c r="T28" t="n">
-        <v>3418.673630816357</v>
+        <v>1391.225318579496</v>
       </c>
       <c r="U28" t="n">
-        <v>3215.053681861848</v>
+        <v>1187.605369624987</v>
       </c>
       <c r="V28" t="n">
-        <v>3045.90286764546</v>
+        <v>1018.4545554086</v>
       </c>
       <c r="W28" t="n">
-        <v>2842.019371598</v>
+        <v>814.5710593611393</v>
       </c>
       <c r="X28" t="n">
-        <v>2699.563494689482</v>
+        <v>672.1151824526219</v>
       </c>
       <c r="Y28" t="n">
-        <v>2564.304589535452</v>
+        <v>536.8562772985916</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1572.424277975025</v>
       </c>
       <c r="D29" t="n">
-        <v>1299.692253357775</v>
+        <v>1299.692253357774</v>
       </c>
       <c r="E29" t="n">
-        <v>999.4376747490305</v>
+        <v>999.4376747490294</v>
       </c>
       <c r="F29" t="n">
-        <v>673.9854439489226</v>
+        <v>673.9854439489218</v>
       </c>
       <c r="G29" t="n">
-        <v>342.3722153553967</v>
+        <v>342.3722153553966</v>
       </c>
       <c r="H29" t="n">
-        <v>109.0773030251803</v>
+        <v>109.0773030251804</v>
       </c>
       <c r="I29" t="n">
         <v>72.63875102281901</v>
       </c>
       <c r="J29" t="n">
-        <v>256.36069871892</v>
+        <v>256.3606987189202</v>
       </c>
       <c r="K29" t="n">
-        <v>652.4570775611942</v>
+        <v>652.457077561194</v>
       </c>
       <c r="L29" t="n">
         <v>1196.126288294968</v>
@@ -6481,7 +6481,7 @@
         <v>2972.036343137403</v>
       </c>
       <c r="P29" t="n">
-        <v>3393.018924528288</v>
+        <v>3393.018924528287</v>
       </c>
       <c r="Q29" t="n">
         <v>3631.93755114095</v>
@@ -6493,16 +6493,16 @@
         <v>3559.908971953987</v>
       </c>
       <c r="T29" t="n">
-        <v>3430.383982824041</v>
+        <v>3430.383982824042</v>
       </c>
       <c r="U29" t="n">
-        <v>3262.221223893136</v>
+        <v>3262.221223893135</v>
       </c>
       <c r="V29" t="n">
         <v>3016.692010539065</v>
       </c>
       <c r="W29" t="n">
-        <v>2749.457029258451</v>
+        <v>2749.45702925845</v>
       </c>
       <c r="X29" t="n">
         <v>2461.524944986871</v>
@@ -6545,22 +6545,22 @@
         <v>188.3689047662705</v>
       </c>
       <c r="K30" t="n">
-        <v>512.791013856321</v>
+        <v>466.5929023392854</v>
       </c>
       <c r="L30" t="n">
-        <v>643.2890301392239</v>
+        <v>964.2228604726129</v>
       </c>
       <c r="M30" t="n">
-        <v>1275.978941232359</v>
+        <v>1596.912771565748</v>
       </c>
       <c r="N30" t="n">
-        <v>1941.121285032</v>
+        <v>1787.506164765271</v>
       </c>
       <c r="O30" t="n">
-        <v>2483.180905253086</v>
+        <v>2329.565784986357</v>
       </c>
       <c r="P30" t="n">
-        <v>2585.950330669845</v>
+        <v>2432.335210403116</v>
       </c>
       <c r="Q30" t="n">
         <v>2659.091168135109</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>536.1918774715916</v>
+        <v>536.1918774715919</v>
       </c>
       <c r="C31" t="n">
-        <v>452.7893685331846</v>
+        <v>452.7893685331849</v>
       </c>
       <c r="D31" t="n">
-        <v>388.2064031103488</v>
+        <v>388.206403110349</v>
       </c>
       <c r="E31" t="n">
-        <v>325.8269835174556</v>
+        <v>325.8269835174558</v>
       </c>
       <c r="F31" t="n">
-        <v>264.4707100090452</v>
+        <v>264.4707100090453</v>
       </c>
       <c r="G31" t="n">
         <v>181.3710194296287</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4142672835733</v>
+        <v>112.4142672835734</v>
       </c>
       <c r="I31" t="n">
         <v>72.63875102281901</v>
       </c>
       <c r="J31" t="n">
-        <v>137.1137994115786</v>
+        <v>137.1137994115785</v>
       </c>
       <c r="K31" t="n">
-        <v>318.9735054013878</v>
+        <v>318.9735054013877</v>
       </c>
       <c r="L31" t="n">
-        <v>583.7737786741898</v>
+        <v>583.7737786741895</v>
       </c>
       <c r="M31" t="n">
-        <v>868.8005965617879</v>
+        <v>868.8005965617876</v>
       </c>
       <c r="N31" t="n">
         <v>1154.478057186596</v>
@@ -6639,34 +6639,34 @@
         <v>1408.730680137415</v>
       </c>
       <c r="P31" t="n">
-        <v>1614.866217527645</v>
+        <v>1614.866217527644</v>
       </c>
       <c r="Q31" t="n">
-        <v>1699.939629917831</v>
+        <v>1699.93962991783</v>
       </c>
       <c r="R31" t="n">
         <v>1653.802926581033</v>
       </c>
       <c r="S31" t="n">
-        <v>1531.434152143277</v>
+        <v>1531.434152143276</v>
       </c>
       <c r="T31" t="n">
-        <v>1391.225318579497</v>
+        <v>1391.225318579496</v>
       </c>
       <c r="U31" t="n">
         <v>1187.605369624987</v>
       </c>
       <c r="V31" t="n">
-        <v>1113.90494642234</v>
+        <v>1018.4545554086</v>
       </c>
       <c r="W31" t="n">
-        <v>910.0214503748791</v>
+        <v>814.5710593611389</v>
       </c>
       <c r="X31" t="n">
-        <v>767.5655734663617</v>
+        <v>672.1151824526214</v>
       </c>
       <c r="Y31" t="n">
-        <v>632.3066683123315</v>
+        <v>632.3066683123317</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>1572.424277975025</v>
       </c>
       <c r="D32" t="n">
-        <v>1299.692253357774</v>
+        <v>1299.692253357775</v>
       </c>
       <c r="E32" t="n">
-        <v>999.4376747490301</v>
+        <v>999.4376747490305</v>
       </c>
       <c r="F32" t="n">
-        <v>673.9854439489227</v>
+        <v>673.9854439489229</v>
       </c>
       <c r="G32" t="n">
-        <v>342.3722153553966</v>
+        <v>342.3722153553967</v>
       </c>
       <c r="H32" t="n">
         <v>109.0773030251803</v>
       </c>
       <c r="I32" t="n">
-        <v>72.63875102281901</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="J32" t="n">
-        <v>256.3606987189202</v>
+        <v>256.36069871892</v>
       </c>
       <c r="K32" t="n">
         <v>652.457077561194</v>
@@ -6718,7 +6718,7 @@
         <v>2972.036343137403</v>
       </c>
       <c r="P32" t="n">
-        <v>3393.018924528288</v>
+        <v>3393.018924528287</v>
       </c>
       <c r="Q32" t="n">
         <v>3631.93755114095</v>
@@ -6730,10 +6730,10 @@
         <v>3559.908971953987</v>
       </c>
       <c r="T32" t="n">
-        <v>3430.383982824042</v>
+        <v>3430.383982824041</v>
       </c>
       <c r="U32" t="n">
-        <v>3262.221223893136</v>
+        <v>3262.221223893135</v>
       </c>
       <c r="V32" t="n">
         <v>3016.692010539065</v>
@@ -6776,19 +6776,19 @@
         <v>119.6327069488813</v>
       </c>
       <c r="I33" t="n">
-        <v>72.63875102281901</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="J33" t="n">
-        <v>72.63875102281901</v>
+        <v>188.3689047662705</v>
       </c>
       <c r="K33" t="n">
-        <v>151.3147613857481</v>
+        <v>512.791013856321</v>
       </c>
       <c r="L33" t="n">
-        <v>648.9447195190755</v>
+        <v>643.2890301392239</v>
       </c>
       <c r="M33" t="n">
-        <v>1281.634630612211</v>
+        <v>1275.978941232359</v>
       </c>
       <c r="N33" t="n">
         <v>1472.228023811734</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>536.1918774715916</v>
+        <v>536.1918774715917</v>
       </c>
       <c r="C34" t="n">
-        <v>452.7893685331846</v>
+        <v>452.7893685331848</v>
       </c>
       <c r="D34" t="n">
-        <v>388.2064031103488</v>
+        <v>388.206403110349</v>
       </c>
       <c r="E34" t="n">
-        <v>325.8269835174556</v>
+        <v>325.8269835174557</v>
       </c>
       <c r="F34" t="n">
-        <v>264.4707100090452</v>
+        <v>264.4707100090453</v>
       </c>
       <c r="G34" t="n">
         <v>181.3710194296287</v>
@@ -6855,19 +6855,19 @@
         <v>112.4142672835733</v>
       </c>
       <c r="I34" t="n">
-        <v>72.63875102281901</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="J34" t="n">
-        <v>137.1137994115786</v>
+        <v>137.1137994115785</v>
       </c>
       <c r="K34" t="n">
-        <v>318.9735054013878</v>
+        <v>318.9735054013877</v>
       </c>
       <c r="L34" t="n">
-        <v>583.7737786741898</v>
+        <v>583.7737786741895</v>
       </c>
       <c r="M34" t="n">
-        <v>868.8005965617879</v>
+        <v>868.8005965617876</v>
       </c>
       <c r="N34" t="n">
         <v>1154.478057186596</v>
@@ -6876,34 +6876,34 @@
         <v>1408.730680137415</v>
       </c>
       <c r="P34" t="n">
-        <v>1614.866217527645</v>
+        <v>1614.866217527644</v>
       </c>
       <c r="Q34" t="n">
-        <v>1699.939629917831</v>
+        <v>1699.93962991783</v>
       </c>
       <c r="R34" t="n">
         <v>1653.802926581033</v>
       </c>
       <c r="S34" t="n">
-        <v>1531.434152143277</v>
+        <v>1531.434152143276</v>
       </c>
       <c r="T34" t="n">
-        <v>1391.225318579497</v>
+        <v>1391.225318579496</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.605369624988</v>
+        <v>1187.605369624987</v>
       </c>
       <c r="V34" t="n">
-        <v>1113.90494642234</v>
+        <v>1018.4545554086</v>
       </c>
       <c r="W34" t="n">
-        <v>910.021450374879</v>
+        <v>814.5710593611393</v>
       </c>
       <c r="X34" t="n">
-        <v>767.5655734663616</v>
+        <v>672.1151824526219</v>
       </c>
       <c r="Y34" t="n">
-        <v>632.3066683123313</v>
+        <v>632.3066683123316</v>
       </c>
     </row>
     <row r="35">
@@ -6919,64 +6919,64 @@
         <v>1572.424277975025</v>
       </c>
       <c r="D35" t="n">
-        <v>1299.692253357774</v>
+        <v>1299.692253357775</v>
       </c>
       <c r="E35" t="n">
-        <v>999.4376747490301</v>
+        <v>999.4376747490303</v>
       </c>
       <c r="F35" t="n">
-        <v>673.9854439489225</v>
+        <v>673.9854439489227</v>
       </c>
       <c r="G35" t="n">
-        <v>342.3722153553966</v>
+        <v>342.3722153553967</v>
       </c>
       <c r="H35" t="n">
-        <v>109.0773030251803</v>
+        <v>109.0773030251804</v>
       </c>
       <c r="I35" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281905</v>
       </c>
       <c r="J35" t="n">
-        <v>256.3606987189201</v>
+        <v>256.3606987189225</v>
       </c>
       <c r="K35" t="n">
-        <v>652.4570775611936</v>
+        <v>652.4570775611963</v>
       </c>
       <c r="L35" t="n">
-        <v>1196.126288294967</v>
+        <v>1196.12628829497</v>
       </c>
       <c r="M35" t="n">
-        <v>1817.669584551373</v>
+        <v>1817.669584551376</v>
       </c>
       <c r="N35" t="n">
-        <v>2434.638103598905</v>
+        <v>2434.638103598908</v>
       </c>
       <c r="O35" t="n">
-        <v>2972.036343137403</v>
+        <v>2972.036343137405</v>
       </c>
       <c r="P35" t="n">
-        <v>3393.018924528287</v>
+        <v>3393.01892452829</v>
       </c>
       <c r="Q35" t="n">
-        <v>3631.937551140949</v>
+        <v>3631.937551140952</v>
       </c>
       <c r="R35" t="n">
-        <v>3631.937551140949</v>
+        <v>3631.93755114095</v>
       </c>
       <c r="S35" t="n">
-        <v>3559.908971953986</v>
+        <v>3559.908971953987</v>
       </c>
       <c r="T35" t="n">
-        <v>3430.38398282404</v>
+        <v>3430.383982824041</v>
       </c>
       <c r="U35" t="n">
-        <v>3262.221223893136</v>
+        <v>3262.221223893135</v>
       </c>
       <c r="V35" t="n">
         <v>3016.692010539065</v>
       </c>
       <c r="W35" t="n">
-        <v>2749.457029258451</v>
+        <v>2749.45702925845</v>
       </c>
       <c r="X35" t="n">
         <v>2461.524944986871</v>
@@ -7001,10 +7001,10 @@
         <v>664.0992305019986</v>
       </c>
       <c r="E36" t="n">
-        <v>504.861775496543</v>
+        <v>504.8617754965431</v>
       </c>
       <c r="F36" t="n">
-        <v>358.327217523428</v>
+        <v>358.3272175234281</v>
       </c>
       <c r="G36" t="n">
         <v>220.8541874555246</v>
@@ -7013,25 +7013,25 @@
         <v>119.6327069488813</v>
       </c>
       <c r="I36" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281905</v>
       </c>
       <c r="J36" t="n">
-        <v>72.63875102281899</v>
+        <v>188.3689047662706</v>
       </c>
       <c r="K36" t="n">
-        <v>397.0608601128695</v>
+        <v>466.5929023392854</v>
       </c>
       <c r="L36" t="n">
-        <v>894.6908182461968</v>
+        <v>964.2228604726129</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.332716226833</v>
+        <v>1596.912771565748</v>
       </c>
       <c r="N36" t="n">
-        <v>1472.228023811734</v>
+        <v>1787.506164765271</v>
       </c>
       <c r="O36" t="n">
-        <v>2014.287644032819</v>
+        <v>2329.565784986357</v>
       </c>
       <c r="P36" t="n">
         <v>2432.335210403116</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>440.7414864578518</v>
+        <v>536.1918774715919</v>
       </c>
       <c r="C37" t="n">
-        <v>357.3389775194448</v>
+        <v>452.7893685331849</v>
       </c>
       <c r="D37" t="n">
-        <v>292.756012096609</v>
+        <v>388.206403110349</v>
       </c>
       <c r="E37" t="n">
-        <v>264.4707100090453</v>
+        <v>325.8269835174558</v>
       </c>
       <c r="F37" t="n">
         <v>264.4707100090453</v>
       </c>
       <c r="G37" t="n">
-        <v>181.3710194296287</v>
+        <v>181.3710194296288</v>
       </c>
       <c r="H37" t="n">
-        <v>112.4142672835733</v>
+        <v>112.4142672835734</v>
       </c>
       <c r="I37" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281905</v>
       </c>
       <c r="J37" t="n">
-        <v>137.1137994115785</v>
+        <v>137.1137994115786</v>
       </c>
       <c r="K37" t="n">
         <v>318.9735054013877</v>
       </c>
       <c r="L37" t="n">
-        <v>583.7737786741895</v>
+        <v>583.7737786741897</v>
       </c>
       <c r="M37" t="n">
-        <v>868.8005965617876</v>
+        <v>868.8005965617879</v>
       </c>
       <c r="N37" t="n">
         <v>1154.478057186596</v>
@@ -7113,7 +7113,7 @@
         <v>1408.730680137415</v>
       </c>
       <c r="P37" t="n">
-        <v>1614.866217527644</v>
+        <v>1614.866217527645</v>
       </c>
       <c r="Q37" t="n">
         <v>1699.93962991783</v>
@@ -7140,7 +7140,7 @@
         <v>672.1151824526219</v>
       </c>
       <c r="Y37" t="n">
-        <v>536.8562772985916</v>
+        <v>632.3066683123317</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1855.853120925938</v>
+        <v>1855.853120925936</v>
       </c>
       <c r="C38" t="n">
-        <v>1572.424277975026</v>
+        <v>1572.424277975024</v>
       </c>
       <c r="D38" t="n">
-        <v>1299.692253357775</v>
+        <v>1299.692253357773</v>
       </c>
       <c r="E38" t="n">
-        <v>999.4376747490307</v>
+        <v>999.4376747490294</v>
       </c>
       <c r="F38" t="n">
-        <v>673.9854439489231</v>
+        <v>673.9854439489218</v>
       </c>
       <c r="G38" t="n">
-        <v>342.3722153553972</v>
+        <v>342.3722153553963</v>
       </c>
       <c r="H38" t="n">
         <v>109.0773030251804</v>
       </c>
       <c r="I38" t="n">
-        <v>72.63875102281902</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J38" t="n">
         <v>256.3606987189202</v>
@@ -7186,40 +7186,40 @@
         <v>1817.669584551374</v>
       </c>
       <c r="N38" t="n">
-        <v>2434.638103598907</v>
+        <v>2434.638103598906</v>
       </c>
       <c r="O38" t="n">
-        <v>2972.036343137404</v>
+        <v>2972.036343137403</v>
       </c>
       <c r="P38" t="n">
-        <v>3393.018924528289</v>
+        <v>3393.018924528287</v>
       </c>
       <c r="Q38" t="n">
-        <v>3631.937551140951</v>
+        <v>3631.93755114095</v>
       </c>
       <c r="R38" t="n">
-        <v>3631.937551140951</v>
+        <v>3631.93755114095</v>
       </c>
       <c r="S38" t="n">
-        <v>3559.908971953988</v>
+        <v>3559.908971953987</v>
       </c>
       <c r="T38" t="n">
-        <v>3430.383982824043</v>
+        <v>3430.383982824041</v>
       </c>
       <c r="U38" t="n">
-        <v>3262.221223893137</v>
+        <v>3262.221223893135</v>
       </c>
       <c r="V38" t="n">
-        <v>3016.692010539066</v>
+        <v>3016.692010539064</v>
       </c>
       <c r="W38" t="n">
-        <v>2749.457029258452</v>
+        <v>2749.457029258449</v>
       </c>
       <c r="X38" t="n">
-        <v>2461.524944986872</v>
+        <v>2461.52494498687</v>
       </c>
       <c r="Y38" t="n">
-        <v>2156.91928700056</v>
+        <v>2156.919287000558</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>119.6327069488813</v>
       </c>
       <c r="I39" t="n">
-        <v>72.63875102281902</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J39" t="n">
-        <v>72.63875102281902</v>
+        <v>188.3689047662705</v>
       </c>
       <c r="K39" t="n">
-        <v>397.0608601128695</v>
+        <v>466.5929023392854</v>
       </c>
       <c r="L39" t="n">
-        <v>772.2959798614104</v>
+        <v>964.2228604726129</v>
       </c>
       <c r="M39" t="n">
-        <v>1404.985890954546</v>
+        <v>1596.912771565748</v>
       </c>
       <c r="N39" t="n">
-        <v>2070.128234754187</v>
+        <v>1787.506164765271</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.26415889131</v>
+        <v>2329.565784986357</v>
       </c>
       <c r="P39" t="n">
-        <v>2640.311725261607</v>
+        <v>2432.335210403116</v>
       </c>
       <c r="Q39" t="n">
         <v>2659.091168135109</v>
@@ -7323,13 +7323,13 @@
         <v>264.4707100090453</v>
       </c>
       <c r="G40" t="n">
-        <v>181.3710194296288</v>
+        <v>181.3710194296287</v>
       </c>
       <c r="H40" t="n">
         <v>112.4142672835734</v>
       </c>
       <c r="I40" t="n">
-        <v>72.63875102281902</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J40" t="n">
         <v>137.1137994115785</v>
@@ -7365,16 +7365,16 @@
         <v>1391.225318579496</v>
       </c>
       <c r="U40" t="n">
-        <v>1283.055760638727</v>
+        <v>1187.605369624987</v>
       </c>
       <c r="V40" t="n">
-        <v>1113.90494642234</v>
+        <v>1018.4545554086</v>
       </c>
       <c r="W40" t="n">
-        <v>910.0214503748794</v>
+        <v>814.5710593611393</v>
       </c>
       <c r="X40" t="n">
-        <v>767.5655734663619</v>
+        <v>672.1151824526219</v>
       </c>
       <c r="Y40" t="n">
         <v>632.3066683123317</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1915.469710277549</v>
+        <v>1910.191554275396</v>
       </c>
       <c r="C41" t="n">
-        <v>1546.507193337138</v>
+        <v>1699.83806931378</v>
       </c>
       <c r="D41" t="n">
-        <v>1188.241494730387</v>
+        <v>1341.57237070703</v>
       </c>
       <c r="E41" t="n">
-        <v>802.4532421321428</v>
+        <v>1341.57237070703</v>
       </c>
       <c r="F41" t="n">
-        <v>391.4673373425352</v>
+        <v>930.5864659174224</v>
       </c>
       <c r="G41" t="n">
-        <v>391.4673373425352</v>
+        <v>513.4395633343966</v>
       </c>
       <c r="H41" t="n">
-        <v>72.63875102281899</v>
+        <v>194.6109770146803</v>
       </c>
       <c r="I41" t="n">
         <v>72.63875102281899</v>
@@ -7435,28 +7435,28 @@
         <v>3631.93755114095</v>
       </c>
       <c r="R41" t="n">
-        <v>3631.93755114095</v>
+        <v>3628.223802965969</v>
       </c>
       <c r="S41" t="n">
-        <v>3474.375297964486</v>
+        <v>3628.223802965969</v>
       </c>
       <c r="T41" t="n">
-        <v>3474.375297964486</v>
+        <v>3413.165139846523</v>
       </c>
       <c r="U41" t="n">
-        <v>3220.678865044081</v>
+        <v>3413.165139846523</v>
       </c>
       <c r="V41" t="n">
-        <v>3031.843455784555</v>
+        <v>3413.165139846523</v>
       </c>
       <c r="W41" t="n">
-        <v>2679.074800514441</v>
+        <v>3060.396484576409</v>
       </c>
       <c r="X41" t="n">
-        <v>2305.609042253361</v>
+        <v>2686.930726315329</v>
       </c>
       <c r="Y41" t="n">
-        <v>1915.469710277549</v>
+        <v>2296.791394339517</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>188.3689047662705</v>
       </c>
       <c r="K42" t="n">
-        <v>250.9704292138682</v>
+        <v>504.9457657485547</v>
       </c>
       <c r="L42" t="n">
-        <v>748.6003873471956</v>
+        <v>635.4437820314575</v>
       </c>
       <c r="M42" t="n">
-        <v>1381.290298440331</v>
+        <v>807.0856800120932</v>
       </c>
       <c r="N42" t="n">
-        <v>1995.482679623762</v>
+        <v>1472.228023811734</v>
       </c>
       <c r="O42" t="n">
-        <v>2537.542299844848</v>
+        <v>2014.287644032819</v>
       </c>
       <c r="P42" t="n">
-        <v>2640.311725261607</v>
+        <v>2432.335210403116</v>
       </c>
       <c r="Q42" t="n">
         <v>2659.091168135109</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2675.682118729821</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="C43" t="n">
-        <v>2675.682118729821</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="D43" t="n">
-        <v>2675.682118729821</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="E43" t="n">
-        <v>2675.682118729821</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="F43" t="n">
-        <v>2675.682118729821</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="G43" t="n">
-        <v>2675.682118729821</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="H43" t="n">
-        <v>2675.682118729821</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="I43" t="n">
-        <v>2675.682118729821</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="J43" t="n">
-        <v>2655.93259777446</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="K43" t="n">
-        <v>2753.960749887161</v>
+        <v>170.6669031355194</v>
       </c>
       <c r="L43" t="n">
-        <v>2934.929469282853</v>
+        <v>351.6356225312124</v>
       </c>
       <c r="M43" t="n">
-        <v>3136.124733293343</v>
+        <v>552.8308865417017</v>
       </c>
       <c r="N43" t="n">
-        <v>3337.970640041042</v>
+        <v>754.6767932894011</v>
       </c>
       <c r="O43" t="n">
-        <v>3508.391709114752</v>
+        <v>925.0978623631113</v>
       </c>
       <c r="P43" t="n">
-        <v>3630.695692627873</v>
+        <v>1047.401845876232</v>
       </c>
       <c r="Q43" t="n">
-        <v>3631.93755114095</v>
+        <v>1048.643704389309</v>
       </c>
       <c r="R43" t="n">
-        <v>3631.93755114095</v>
+        <v>1048.643704389309</v>
       </c>
       <c r="S43" t="n">
-        <v>3435.901376541031</v>
+        <v>840.7412559620523</v>
       </c>
       <c r="T43" t="n">
-        <v>3435.901376541031</v>
+        <v>616.7404092656665</v>
       </c>
       <c r="U43" t="n">
-        <v>3146.747753597022</v>
+        <v>616.7404092656665</v>
       </c>
       <c r="V43" t="n">
-        <v>3146.747753597022</v>
+        <v>362.0559210597796</v>
       </c>
       <c r="W43" t="n">
-        <v>2857.330583560061</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="X43" t="n">
-        <v>2857.330583560061</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="Y43" t="n">
-        <v>2857.330583560061</v>
+        <v>72.63875102281899</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1240.667778881559</v>
+        <v>1286.559810993697</v>
       </c>
       <c r="C44" t="n">
-        <v>871.705261941147</v>
+        <v>1286.559810993697</v>
       </c>
       <c r="D44" t="n">
-        <v>513.4395633343966</v>
+        <v>1286.559810993697</v>
       </c>
       <c r="E44" t="n">
-        <v>513.4395633343966</v>
+        <v>900.7715583954523</v>
       </c>
       <c r="F44" t="n">
-        <v>513.4395633343966</v>
+        <v>489.7856536058448</v>
       </c>
       <c r="G44" t="n">
-        <v>513.4395633343966</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="H44" t="n">
-        <v>194.6109770146803</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="I44" t="n">
         <v>72.63875102281899</v>
       </c>
       <c r="J44" t="n">
-        <v>256.36069871892</v>
+        <v>256.3606987189201</v>
       </c>
       <c r="K44" t="n">
         <v>652.457077561194</v>
@@ -7678,22 +7678,22 @@
         <v>3470.661549789505</v>
       </c>
       <c r="T44" t="n">
-        <v>3328.400684716663</v>
+        <v>3255.60288667006</v>
       </c>
       <c r="U44" t="n">
-        <v>3074.704251796257</v>
+        <v>3001.906453749654</v>
       </c>
       <c r="V44" t="n">
-        <v>2743.641364452687</v>
+        <v>2670.843566406083</v>
       </c>
       <c r="W44" t="n">
-        <v>2390.872709182572</v>
+        <v>2436.76474129471</v>
       </c>
       <c r="X44" t="n">
-        <v>2017.406950921492</v>
+        <v>2063.29898303363</v>
       </c>
       <c r="Y44" t="n">
-        <v>1627.26761894568</v>
+        <v>1673.159651057818</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>188.3689047662705</v>
       </c>
       <c r="K45" t="n">
-        <v>250.9704292138682</v>
+        <v>466.5929023392854</v>
       </c>
       <c r="L45" t="n">
-        <v>748.6003873471956</v>
+        <v>964.2228604726129</v>
       </c>
       <c r="M45" t="n">
-        <v>1381.290298440331</v>
+        <v>1596.912771565748</v>
       </c>
       <c r="N45" t="n">
-        <v>1571.883691639854</v>
+        <v>1787.506164765271</v>
       </c>
       <c r="O45" t="n">
-        <v>2113.94331186094</v>
+        <v>2329.565784986357</v>
       </c>
       <c r="P45" t="n">
-        <v>2531.990878231237</v>
+        <v>2432.335210403116</v>
       </c>
       <c r="Q45" t="n">
         <v>2659.091168135109</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.7475738920195</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="C46" t="n">
-        <v>370.6684840175478</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="D46" t="n">
-        <v>220.5518446052121</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="E46" t="n">
         <v>72.63875102281899</v>
@@ -7830,28 +7830,28 @@
         <v>1048.643704389309</v>
       </c>
       <c r="R46" t="n">
-        <v>1048.643704389309</v>
+        <v>916.9733270630114</v>
       </c>
       <c r="S46" t="n">
-        <v>1048.643704389309</v>
+        <v>916.9733270630114</v>
       </c>
       <c r="T46" t="n">
-        <v>822.9011968360288</v>
+        <v>916.9733270630114</v>
       </c>
       <c r="U46" t="n">
-        <v>533.7475738920195</v>
+        <v>627.8197041190022</v>
       </c>
       <c r="V46" t="n">
-        <v>533.7475738920195</v>
+        <v>627.8197041190022</v>
       </c>
       <c r="W46" t="n">
-        <v>533.7475738920195</v>
+        <v>475.0797949965888</v>
       </c>
       <c r="X46" t="n">
-        <v>533.7475738920195</v>
+        <v>475.0797949965888</v>
       </c>
       <c r="Y46" t="n">
-        <v>533.7475738920195</v>
+        <v>254.2872158530587</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8537,7 +8537,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>9.191890145003171</v>
+        <v>9.191890145003271</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>226.1975940597732</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>464.0967053640171</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>5.712817555404627</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3100502244299</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>217.8004779044619</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>202.1527946977008</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9418,7 +9418,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714836</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>9.191890145003271</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>217.8004779044619</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>355.7112244599306</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,19 +9722,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>427.4374207971945</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>70.23438608728932</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>9.191890145003271</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>100.5775360019464</v>
       </c>
       <c r="N27" t="n">
-        <v>226.3141421957795</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>217.8004779044619</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.91049958763809</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>9.191890145003271</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>16.23685445993077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>5.71281755540582</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720761</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711644</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10664,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>9.191890145003271</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>217.8004779044619</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>217.476681197352</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599054</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>9.191890145003271</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>217.8004779044619</v>
       </c>
       <c r="L39" t="n">
-        <v>247.2091954198364</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>256.5407439744308</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>427.8777656403109</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714827</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>217.8004779044619</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>109.4149970003739</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>82.56848384902294</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11.92740325457835</v>
+        <v>32.74026170663828</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.75562539696428</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>82.56848384902294</v>
       </c>
       <c r="D16" t="n">
-        <v>11.92740325457925</v>
+        <v>11.9274032545792</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>61.75562539696429</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>12.22719342998021</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>82.26869367362239</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>32.7402617066389</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>32.74026170663839</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>61.75562539696428</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>39.3777610981468</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>45.67533630342931</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>9.442789702026843</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>26.22870247900775</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>68.26718462459482</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>94.49588710360254</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>30.55875133499518</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>63.93713576860746</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>94.49588710360281</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>94.4958871036021</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>94.49588710360308</v>
       </c>
     </row>
     <row r="32">
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>94.49588710360143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>94.49588710360248</v>
       </c>
     </row>
     <row r="35">
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>33.7531763302762</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>60.74271077332635</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>94.4958871036026</v>
       </c>
     </row>
     <row r="38">
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>94.495887103603</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>94.4958871036026</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>157.0229416590084</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9754335571955</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.7525037319426</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>3.676610693231396</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>155.9866306446986</v>
       </c>
       <c r="T41" t="n">
-        <v>212.9080764882511</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1594685912013</v>
       </c>
       <c r="V41" t="n">
-        <v>140.8052033032038</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25809,7 +25809,7 @@
         <v>124.0560983477517</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>19.5520257458074</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>130.3536735530342</v>
       </c>
       <c r="S43" t="n">
-        <v>11.74761108906398</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>223.485082477747</v>
+        <v>1.724244248325078</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2620867145692</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>412.9754335571955</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.6403004565191</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>120.7525037319426</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>72.069820066137</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>117.5029318571532</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>5.798522122900835</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3536735530342</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>205.8234239429837</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.485082477747</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>135.3104883054018</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.504384641</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846408</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846411</v>
-      </c>
       <c r="E2" t="n">
+        <v>695957.7882877276</v>
+      </c>
+      <c r="F2" t="n">
+        <v>695957.7882877279</v>
+      </c>
+      <c r="G2" t="n">
         <v>695957.7882877283</v>
       </c>
-      <c r="F2" t="n">
-        <v>695957.7882877287</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>695957.7882877282</v>
       </c>
-      <c r="H2" t="n">
-        <v>695957.7882877277</v>
-      </c>
       <c r="I2" t="n">
+        <v>695957.7882877286</v>
+      </c>
+      <c r="J2" t="n">
         <v>695957.7882877283</v>
       </c>
-      <c r="J2" t="n">
-        <v>695957.7882877277</v>
-      </c>
       <c r="K2" t="n">
-        <v>695957.7882877277</v>
+        <v>695957.7882877281</v>
       </c>
       <c r="L2" t="n">
-        <v>695957.7882877283</v>
+        <v>695957.7882877276</v>
       </c>
       <c r="M2" t="n">
-        <v>695957.7882877282</v>
+        <v>695957.7882877281</v>
       </c>
       <c r="N2" t="n">
-        <v>695957.7882877283</v>
+        <v>695957.7882877281</v>
       </c>
       <c r="O2" t="n">
+        <v>568577.5412181395</v>
+      </c>
+      <c r="P2" t="n">
         <v>568577.5412181396</v>
-      </c>
-      <c r="P2" t="n">
-        <v>568577.5412181397</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>731988.8096942815</v>
+        <v>731988.809694281</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.1784679601628e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>130802.6123987901</v>
+        <v>130802.6123987902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26441,10 +26441,10 @@
         <v>110636.711695385</v>
       </c>
       <c r="J4" t="n">
+        <v>110636.7116953851</v>
+      </c>
+      <c r="K4" t="n">
         <v>110636.711695385</v>
-      </c>
-      <c r="K4" t="n">
-        <v>110636.7116953851</v>
       </c>
       <c r="L4" t="n">
         <v>110636.7116953851</v>
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>74944.66144949605</v>
+        <v>74944.66144949599</v>
       </c>
       <c r="F5" t="n">
-        <v>74944.66144949601</v>
+        <v>74944.66144949599</v>
       </c>
       <c r="G5" t="n">
         <v>74944.66144949599</v>
@@ -26502,10 +26502,10 @@
         <v>74944.66144949599</v>
       </c>
       <c r="M5" t="n">
-        <v>74944.66144949598</v>
+        <v>74944.66144949602</v>
       </c>
       <c r="N5" t="n">
-        <v>74944.66144949601</v>
+        <v>74944.66144949599</v>
       </c>
       <c r="O5" t="n">
         <v>67825.83831525895</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264607.0082422529</v>
+        <v>264607.0082422528</v>
       </c>
       <c r="C6" t="n">
-        <v>345376.4397738005</v>
+        <v>345376.4397738004</v>
       </c>
       <c r="D6" t="n">
-        <v>345376.4397738007</v>
+        <v>345376.4397738006</v>
       </c>
       <c r="E6" t="n">
-        <v>-221612.3945514343</v>
+        <v>-221669.0920836965</v>
       </c>
       <c r="F6" t="n">
-        <v>510376.415142848</v>
+        <v>510319.7176105845</v>
       </c>
       <c r="G6" t="n">
-        <v>510376.4151428472</v>
+        <v>510319.7176105851</v>
       </c>
       <c r="H6" t="n">
-        <v>510376.4151428467</v>
+        <v>510319.717610585</v>
       </c>
       <c r="I6" t="n">
-        <v>510376.4151428473</v>
+        <v>510319.7176105853</v>
       </c>
       <c r="J6" t="n">
-        <v>379573.8027440566</v>
+        <v>379517.1052117949</v>
       </c>
       <c r="K6" t="n">
-        <v>510376.4151428467</v>
+        <v>510319.7176105849</v>
       </c>
       <c r="L6" t="n">
-        <v>510376.4151428473</v>
+        <v>510319.7176105844</v>
       </c>
       <c r="M6" t="n">
-        <v>344164.7986146829</v>
+        <v>344108.1010824207</v>
       </c>
       <c r="N6" t="n">
-        <v>510376.4151428472</v>
+        <v>510319.7176105849</v>
       </c>
       <c r="O6" t="n">
-        <v>475852.6586082353</v>
+        <v>472049.4832209852</v>
       </c>
       <c r="P6" t="n">
-        <v>475852.6586082354</v>
+        <v>472049.4832209853</v>
       </c>
     </row>
   </sheetData>
@@ -26700,7 +26700,7 @@
         <v>84.67833724960489</v>
       </c>
       <c r="G2" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="H2" t="n">
         <v>84.67833724960489</v>
@@ -26709,19 +26709,19 @@
         <v>84.67833724960489</v>
       </c>
       <c r="J2" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="K2" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="L2" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="M2" t="n">
         <v>84.67833724960489</v>
       </c>
       <c r="N2" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>578.9168595374556</v>
+        <v>578.9168595374551</v>
       </c>
       <c r="F3" t="n">
         <v>578.9168595374553</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>907.9843877852381</v>
+        <v>907.9843877852375</v>
       </c>
       <c r="F4" t="n">
-        <v>907.9843877852377</v>
+        <v>907.9843877852376</v>
       </c>
       <c r="G4" t="n">
-        <v>907.9843877852377</v>
+        <v>907.9843877852376</v>
       </c>
       <c r="H4" t="n">
         <v>907.9843877852376</v>
       </c>
       <c r="I4" t="n">
-        <v>907.9843877852376</v>
+        <v>907.9843877852375</v>
       </c>
       <c r="J4" t="n">
         <v>907.9843877852376</v>
@@ -26819,13 +26819,13 @@
         <v>907.9843877852376</v>
       </c>
       <c r="L4" t="n">
+        <v>907.9843877852375</v>
+      </c>
+      <c r="M4" t="n">
+        <v>907.984387785238</v>
+      </c>
+      <c r="N4" t="n">
         <v>907.9843877852376</v>
-      </c>
-      <c r="M4" t="n">
-        <v>907.9843877852373</v>
-      </c>
-      <c r="N4" t="n">
-        <v>907.9843877852378</v>
       </c>
       <c r="O4" t="n">
         <v>907.9843877852375</v>
@@ -26925,13 +26925,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>578.9168595374556</v>
+        <v>578.9168595374551</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.581550411799043e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>666.9700989075791</v>
+        <v>666.9700989075784</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>4.112952961207012e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776593</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27162,13 +27162,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>666.9700989075791</v>
+        <v>666.9700989075784</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.112952961207012e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>67.13709796256933</v>
+        <v>82.0823630295678</v>
       </c>
     </row>
     <row r="4">
@@ -27548,22 +27548,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>147.3903175997337</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27627,16 +27627,16 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>344.2880590747468</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>202.7685873234803</v>
       </c>
     </row>
     <row r="6">
@@ -27697,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>14.38541268519593</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27754,13 +27754,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>35.02343950375584</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.63594515755861</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,16 +27897,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27934,16 +27934,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,22 +27985,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>141.8066124595895</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>60.50207587874957</v>
       </c>
     </row>
     <row r="10">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>36.78129424836629</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28137,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.676610693231282</v>
+        <v>3.676610693231396</v>
       </c>
       <c r="S11" t="n">
         <v>84.67833724960489</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="C17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="D17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="E17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="F17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="G17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="H17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="I17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>3.676610693231396</v>
       </c>
       <c r="S17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="T17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="U17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="V17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="W17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="X17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="C19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="D19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="E19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="F19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="G19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="H19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="I19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="J19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="K19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="L19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="M19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="N19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="O19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="P19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="R19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="S19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="T19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="U19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="V19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="W19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="X19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
     </row>
     <row r="20">
@@ -28860,7 +28860,7 @@
         <v>84.67833724960489</v>
       </c>
       <c r="V20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960454</v>
       </c>
       <c r="W20" t="n">
         <v>84.67833724960489</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="C26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="D26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="E26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="F26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="G26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="H26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="I26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>3.676610693231396</v>
       </c>
       <c r="S26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="T26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="U26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="V26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="W26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="X26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="Y26" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="C28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="D28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="E28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="F28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="G28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="H28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="I28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="J28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="K28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="L28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="M28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="N28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="O28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="P28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="R28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="S28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="T28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="U28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="V28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="W28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="X28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="Y28" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960489</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="C29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="D29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="E29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="F29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="G29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="H29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="I29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>3.676610693231396</v>
       </c>
       <c r="S29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="T29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="U29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="V29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="W29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="X29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="Y29" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="C31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="D31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="E31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="F31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="G31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="H31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="I31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="J31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="K31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="L31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="M31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="N31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="O31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="P31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="R31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="S31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="T31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="U31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="V31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="W31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="X31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="Y31" t="n">
-        <v>84.67833724960491</v>
+        <v>84.67833724960488</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="C32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="D32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="E32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="F32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="G32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="H32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="I32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>3.676610693231396</v>
       </c>
       <c r="S32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="T32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="U32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="V32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="W32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="X32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="Y32" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="C34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="D34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="E34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="F34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="G34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="H34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="I34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="J34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="K34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="L34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="M34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="N34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="O34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="P34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="R34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="S34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="T34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="U34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="V34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="W34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="X34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="Y34" t="n">
-        <v>84.67833724960492</v>
+        <v>84.67833724960489</v>
       </c>
     </row>
     <row r="35">
@@ -30033,7 +30033,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.676610693231396</v>
+        <v>3.676610693229145</v>
       </c>
       <c r="S35" t="n">
         <v>84.67833724960489</v>
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="C38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="D38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="E38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="F38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="G38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="H38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="I38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30258,7 +30258,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>3.676610693231396</v>
       </c>
       <c r="S38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="T38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="U38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="V38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="W38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="X38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="Y38" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="C40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="D40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="E40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="F40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="G40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="H40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="I40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="J40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="K40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="L40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="M40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="N40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="O40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="P40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="R40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="S40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="T40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="U40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="V40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="W40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="X40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
       <c r="Y40" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960489</v>
       </c>
     </row>
     <row r="41">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.327303957939518</v>
+        <v>2.327303957939516</v>
       </c>
       <c r="H11" t="n">
-        <v>23.8345016592481</v>
+        <v>23.83450165924808</v>
       </c>
       <c r="I11" t="n">
-        <v>89.72338583846336</v>
+        <v>89.72338583846329</v>
       </c>
       <c r="J11" t="n">
-        <v>197.5270143001694</v>
+        <v>197.5270143001692</v>
       </c>
       <c r="K11" t="n">
-        <v>296.0417908397492</v>
+        <v>296.041790839749</v>
       </c>
       <c r="L11" t="n">
-        <v>367.2660193425409</v>
+        <v>367.2660193425406</v>
       </c>
       <c r="M11" t="n">
-        <v>408.6542111045477</v>
+        <v>408.6542111045474</v>
       </c>
       <c r="N11" t="n">
-        <v>415.2666634750434</v>
+        <v>415.2666634750431</v>
       </c>
       <c r="O11" t="n">
-        <v>392.1245347432823</v>
+        <v>392.124534743282</v>
       </c>
       <c r="P11" t="n">
-        <v>334.6692182816504</v>
+        <v>334.6692182816502</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.3226452879413</v>
+        <v>251.3226452879411</v>
       </c>
       <c r="R11" t="n">
-        <v>146.1925072479184</v>
+        <v>146.1925072479183</v>
       </c>
       <c r="S11" t="n">
-        <v>53.03343894154683</v>
+        <v>53.03343894154678</v>
       </c>
       <c r="T11" t="n">
-        <v>10.18777307588025</v>
+        <v>10.18777307588024</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1861843166351614</v>
+        <v>0.1861843166351613</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.245217395986225</v>
+        <v>1.245217395986224</v>
       </c>
       <c r="H12" t="n">
-        <v>12.0261785349196</v>
+        <v>12.02617853491959</v>
       </c>
       <c r="I12" t="n">
-        <v>42.87261648461347</v>
+        <v>42.87261648461343</v>
       </c>
       <c r="J12" t="n">
-        <v>117.6457365216635</v>
+        <v>117.6457365216634</v>
       </c>
       <c r="K12" t="n">
-        <v>201.0753020527406</v>
+        <v>201.0753020527405</v>
       </c>
       <c r="L12" t="n">
-        <v>270.3705578434127</v>
+        <v>270.3705578434124</v>
       </c>
       <c r="M12" t="n">
-        <v>315.5096884479133</v>
+        <v>315.509688447913</v>
       </c>
       <c r="N12" t="n">
-        <v>323.8602910727508</v>
+        <v>323.8602910727505</v>
       </c>
       <c r="O12" t="n">
-        <v>296.2688950880033</v>
+        <v>296.2688950880031</v>
       </c>
       <c r="P12" t="n">
-        <v>237.7819078352995</v>
+        <v>237.7819078352993</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.9509083016803</v>
+        <v>158.9509083016802</v>
       </c>
       <c r="R12" t="n">
-        <v>77.31270814728514</v>
+        <v>77.31270814728508</v>
       </c>
       <c r="S12" t="n">
-        <v>23.12936698246342</v>
+        <v>23.12936698246341</v>
       </c>
       <c r="T12" t="n">
-        <v>5.019099942593599</v>
+        <v>5.019099942593595</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08192219710435696</v>
+        <v>0.0819221971043569</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.043948435231477</v>
+        <v>1.043948435231476</v>
       </c>
       <c r="H13" t="n">
-        <v>9.281650633239867</v>
+        <v>9.28165063323986</v>
       </c>
       <c r="I13" t="n">
-        <v>31.39437657950662</v>
+        <v>31.39437657950659</v>
       </c>
       <c r="J13" t="n">
-        <v>73.80715437086543</v>
+        <v>73.80715437086538</v>
       </c>
       <c r="K13" t="n">
-        <v>121.2878272932571</v>
+        <v>121.287827293257</v>
       </c>
       <c r="L13" t="n">
-        <v>155.2066609979598</v>
+        <v>155.2066609979597</v>
       </c>
       <c r="M13" t="n">
-        <v>163.6436624426942</v>
+        <v>163.6436624426941</v>
       </c>
       <c r="N13" t="n">
-        <v>159.752581911377</v>
+        <v>159.7525819113769</v>
       </c>
       <c r="O13" t="n">
-        <v>147.5573660998092</v>
+        <v>147.5573660998091</v>
       </c>
       <c r="P13" t="n">
-        <v>126.260818021087</v>
+        <v>126.2608180210869</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.41644579015579</v>
+        <v>87.41644579015572</v>
       </c>
       <c r="R13" t="n">
-        <v>46.93971782413531</v>
+        <v>46.93971782413528</v>
       </c>
       <c r="S13" t="n">
-        <v>18.19317409398856</v>
+        <v>18.19317409398854</v>
       </c>
       <c r="T13" t="n">
-        <v>4.460506950534493</v>
+        <v>4.460506950534489</v>
       </c>
       <c r="U13" t="n">
-        <v>0.056942641921717</v>
+        <v>0.05694264192171696</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>185.5777249455568</v>
+        <v>185.5777249455567</v>
       </c>
       <c r="K11" t="n">
-        <v>400.0973523659334</v>
+        <v>400.0973523659332</v>
       </c>
       <c r="L11" t="n">
-        <v>549.1608189230041</v>
+        <v>549.1608189230037</v>
       </c>
       <c r="M11" t="n">
-        <v>627.8215113701075</v>
+        <v>627.8215113701071</v>
       </c>
       <c r="N11" t="n">
-        <v>623.2005242904366</v>
+        <v>623.2005242904363</v>
       </c>
       <c r="O11" t="n">
-        <v>542.8265045843409</v>
+        <v>542.8265045843406</v>
       </c>
       <c r="P11" t="n">
-        <v>425.2349306978635</v>
+        <v>425.2349306978633</v>
       </c>
       <c r="Q11" t="n">
-        <v>241.3319460733965</v>
+        <v>241.3319460733963</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>327.6991000909602</v>
+        <v>63.23386307838146</v>
       </c>
       <c r="L12" t="n">
-        <v>502.6565233669976</v>
+        <v>358.0137721233115</v>
       </c>
       <c r="M12" t="n">
-        <v>639.0807182758949</v>
+        <v>639.0807182758946</v>
       </c>
       <c r="N12" t="n">
-        <v>656.6152843534346</v>
+        <v>671.8609533329707</v>
       </c>
       <c r="O12" t="n">
-        <v>153.6726506435589</v>
+        <v>547.5349699202882</v>
       </c>
       <c r="P12" t="n">
-        <v>103.8075004209692</v>
+        <v>103.807500420969</v>
       </c>
       <c r="Q12" t="n">
-        <v>229.0464219515079</v>
+        <v>229.0464219515077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.12631150379755</v>
+        <v>65.1263115037975</v>
       </c>
       <c r="K13" t="n">
-        <v>183.6966727169791</v>
+        <v>183.696672716979</v>
       </c>
       <c r="L13" t="n">
-        <v>267.4750235078808</v>
+        <v>267.4750235078807</v>
       </c>
       <c r="M13" t="n">
-        <v>287.9058766541397</v>
+        <v>287.9058766541395</v>
       </c>
       <c r="N13" t="n">
-        <v>288.5630915402105</v>
+        <v>288.5630915402103</v>
       </c>
       <c r="O13" t="n">
-        <v>256.8208312634538</v>
+        <v>256.8208312634537</v>
       </c>
       <c r="P13" t="n">
         <v>208.2177145355853</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.9327397880663</v>
+        <v>85.93273978806623</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>327.6991000909601</v>
       </c>
       <c r="L15" t="n">
-        <v>137.5289956189429</v>
+        <v>131.8161780635383</v>
       </c>
       <c r="M15" t="n">
         <v>639.0807182758947</v>
       </c>
       <c r="N15" t="n">
-        <v>192.5185789894173</v>
+        <v>671.8609533329708</v>
       </c>
       <c r="O15" t="n">
-        <v>547.5349699202882</v>
+        <v>153.6726506435587</v>
       </c>
       <c r="P15" t="n">
         <v>422.2702690609062</v>
       </c>
       <c r="Q15" t="n">
-        <v>229.0464219515078</v>
+        <v>149.2791844400885</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>116.8991451954056</v>
       </c>
       <c r="K18" t="n">
-        <v>327.6991000909601</v>
+        <v>281.0343409828433</v>
       </c>
       <c r="L18" t="n">
-        <v>131.8161780635382</v>
+        <v>502.6565233669974</v>
       </c>
       <c r="M18" t="n">
-        <v>375.5284492235955</v>
+        <v>639.0807182758946</v>
       </c>
       <c r="N18" t="n">
-        <v>671.8609533329707</v>
+        <v>192.5185789894172</v>
       </c>
       <c r="O18" t="n">
         <v>547.5349699202882</v>
       </c>
       <c r="P18" t="n">
-        <v>422.2702690609062</v>
+        <v>103.807500420969</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.96913421565864</v>
+        <v>229.0464219515077</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>65.12631150379748</v>
+        <v>65.1263115037975</v>
       </c>
       <c r="K19" t="n">
         <v>183.696672716979</v>
@@ -36059,10 +36059,10 @@
         <v>256.8208312634537</v>
       </c>
       <c r="P19" t="n">
-        <v>208.2177145355852</v>
+        <v>208.2177145355853</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.93273978806621</v>
+        <v>85.93273978806623</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>542.8265045843406</v>
       </c>
       <c r="P20" t="n">
-        <v>425.2349306978633</v>
+        <v>425.2349306978642</v>
       </c>
       <c r="Q20" t="n">
         <v>241.3319460733963</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>116.8991451954056</v>
       </c>
       <c r="K21" t="n">
-        <v>327.6991000909601</v>
+        <v>281.0343409828433</v>
       </c>
       <c r="L21" t="n">
         <v>502.6565233669974</v>
@@ -36214,13 +36214,13 @@
         <v>192.5185789894172</v>
       </c>
       <c r="O21" t="n">
-        <v>509.3838751034892</v>
+        <v>547.5349699202882</v>
       </c>
       <c r="P21" t="n">
-        <v>422.2702690609062</v>
+        <v>103.807500420969</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.96913421565864</v>
+        <v>229.0464219515077</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>327.6991000909601</v>
       </c>
       <c r="L24" t="n">
-        <v>131.8161780635382</v>
+        <v>502.6565233669974</v>
       </c>
       <c r="M24" t="n">
-        <v>600.8130753230892</v>
+        <v>639.0807182758946</v>
       </c>
       <c r="N24" t="n">
-        <v>671.8609533329707</v>
+        <v>192.5185789894172</v>
       </c>
       <c r="O24" t="n">
         <v>547.5349699202882</v>
       </c>
       <c r="P24" t="n">
-        <v>103.807500420969</v>
+        <v>174.0418865082584</v>
       </c>
       <c r="Q24" t="n">
         <v>229.0464219515077</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>116.8991451954056</v>
       </c>
       <c r="K27" t="n">
-        <v>63.23386307838146</v>
+        <v>327.6991000909601</v>
       </c>
       <c r="L27" t="n">
         <v>502.6565233669974</v>
       </c>
       <c r="M27" t="n">
-        <v>639.0807182758946</v>
+        <v>273.9531905278411</v>
       </c>
       <c r="N27" t="n">
-        <v>418.8327211851966</v>
+        <v>192.5185789894172</v>
       </c>
       <c r="O27" t="n">
         <v>547.5349699202882</v>
@@ -36694,7 +36694,7 @@
         <v>422.2702690609062</v>
       </c>
       <c r="Q27" t="n">
-        <v>18.96913421565864</v>
+        <v>229.0464219515077</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.12631150379751</v>
+        <v>65.1263115037975</v>
       </c>
       <c r="K28" t="n">
         <v>183.696672716979</v>
       </c>
       <c r="L28" t="n">
-        <v>267.4750235078808</v>
+        <v>267.4750235078807</v>
       </c>
       <c r="M28" t="n">
         <v>287.9058766541395</v>
       </c>
       <c r="N28" t="n">
-        <v>288.5630915402104</v>
+        <v>288.5630915402103</v>
       </c>
       <c r="O28" t="n">
         <v>256.8208312634537</v>
@@ -36773,7 +36773,7 @@
         <v>208.2177145355853</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.93273978806624</v>
+        <v>85.93273978806623</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>116.8991451954056</v>
       </c>
       <c r="K30" t="n">
-        <v>327.6991000909601</v>
+        <v>281.0343409828433</v>
       </c>
       <c r="L30" t="n">
-        <v>131.8161780635382</v>
+        <v>502.6565233669974</v>
       </c>
       <c r="M30" t="n">
         <v>639.0807182758946</v>
       </c>
       <c r="N30" t="n">
-        <v>671.8609533329707</v>
+        <v>192.5185789894172</v>
       </c>
       <c r="O30" t="n">
         <v>547.5349699202882</v>
@@ -36931,7 +36931,7 @@
         <v>103.807500420969</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.87963380329673</v>
+        <v>229.0464219515077</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.12631150379751</v>
+        <v>65.12631150379748</v>
       </c>
       <c r="K31" t="n">
         <v>183.696672716979</v>
       </c>
       <c r="L31" t="n">
-        <v>267.4750235078808</v>
+        <v>267.4750235078807</v>
       </c>
       <c r="M31" t="n">
         <v>287.9058766541395</v>
       </c>
       <c r="N31" t="n">
-        <v>288.5630915402104</v>
+        <v>288.5630915402103</v>
       </c>
       <c r="O31" t="n">
         <v>256.8208312634537</v>
       </c>
       <c r="P31" t="n">
-        <v>208.2177145355853</v>
+        <v>208.2177145355852</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.93273978806624</v>
+        <v>85.93273978806621</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>400.0973523659332</v>
       </c>
       <c r="L32" t="n">
-        <v>549.1608189230043</v>
+        <v>549.1608189230037</v>
       </c>
       <c r="M32" t="n">
         <v>627.8215113701071</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>116.8991451954056</v>
       </c>
       <c r="K33" t="n">
-        <v>79.47071753831223</v>
+        <v>327.6991000909601</v>
       </c>
       <c r="L33" t="n">
-        <v>502.6565233669974</v>
+        <v>131.8161780635382</v>
       </c>
       <c r="M33" t="n">
         <v>639.0807182758946</v>
       </c>
       <c r="N33" t="n">
-        <v>192.5185789894172</v>
+        <v>198.231396544823</v>
       </c>
       <c r="O33" t="n">
         <v>547.5349699202882</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.12631150379752</v>
+        <v>65.1263115037975</v>
       </c>
       <c r="K34" t="n">
         <v>183.696672716979</v>
       </c>
       <c r="L34" t="n">
-        <v>267.4750235078808</v>
+        <v>267.4750235078807</v>
       </c>
       <c r="M34" t="n">
         <v>287.9058766541395</v>
       </c>
       <c r="N34" t="n">
-        <v>288.5630915402104</v>
+        <v>288.5630915402103</v>
       </c>
       <c r="O34" t="n">
         <v>256.8208312634537</v>
@@ -37247,7 +37247,7 @@
         <v>208.2177145355853</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.93273978806626</v>
+        <v>85.93273978806623</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>185.5777249455567</v>
+        <v>185.577724945559</v>
       </c>
       <c r="K35" t="n">
-        <v>400.0973523659329</v>
+        <v>400.0973523659332</v>
       </c>
       <c r="L35" t="n">
         <v>549.1608189230037</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>116.8991451954056</v>
       </c>
       <c r="K36" t="n">
-        <v>327.6991000909601</v>
+        <v>281.0343409828433</v>
       </c>
       <c r="L36" t="n">
         <v>502.6565233669974</v>
       </c>
       <c r="M36" t="n">
-        <v>173.3756545258947</v>
+        <v>639.0807182758946</v>
       </c>
       <c r="N36" t="n">
-        <v>409.9952601867692</v>
+        <v>192.5185789894172</v>
       </c>
       <c r="O36" t="n">
         <v>547.5349699202882</v>
       </c>
       <c r="P36" t="n">
-        <v>422.2702690609062</v>
+        <v>103.807500420969</v>
       </c>
       <c r="Q36" t="n">
         <v>229.0464219515077</v>
@@ -37554,7 +37554,7 @@
         <v>627.8215113701071</v>
       </c>
       <c r="N38" t="n">
-        <v>623.2005242904378</v>
+        <v>623.2005242904363</v>
       </c>
       <c r="O38" t="n">
         <v>542.8265045843406</v>
@@ -37563,7 +37563,7 @@
         <v>425.2349306978633</v>
       </c>
       <c r="Q38" t="n">
-        <v>241.3319460733963</v>
+        <v>241.331946073397</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>116.8991451954056</v>
       </c>
       <c r="K39" t="n">
-        <v>327.6991000909601</v>
+        <v>281.0343409828433</v>
       </c>
       <c r="L39" t="n">
-        <v>379.0253734833747</v>
+        <v>502.6565233669974</v>
       </c>
       <c r="M39" t="n">
         <v>639.0807182758946</v>
       </c>
       <c r="N39" t="n">
-        <v>671.8609533329707</v>
+        <v>192.5185789894172</v>
       </c>
       <c r="O39" t="n">
-        <v>153.6726506435587</v>
+        <v>547.5349699202882</v>
       </c>
       <c r="P39" t="n">
-        <v>422.2702690609062</v>
+        <v>103.807500420969</v>
       </c>
       <c r="Q39" t="n">
-        <v>18.96913421565864</v>
+        <v>229.0464219515077</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.12631150379748</v>
+        <v>65.1263115037975</v>
       </c>
       <c r="K40" t="n">
         <v>183.696672716979</v>
@@ -37718,10 +37718,10 @@
         <v>256.8208312634537</v>
       </c>
       <c r="P40" t="n">
-        <v>208.2177145355852</v>
+        <v>208.2177145355853</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.93273978806621</v>
+        <v>85.93273978806623</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>425.2349306978633</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.3319460733966</v>
+        <v>241.3319460733963</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>116.8991451954056</v>
       </c>
       <c r="K42" t="n">
-        <v>63.23386307838146</v>
+        <v>319.7746070528123</v>
       </c>
       <c r="L42" t="n">
-        <v>502.6565233669974</v>
+        <v>131.8161780635382</v>
       </c>
       <c r="M42" t="n">
-        <v>639.0807182758946</v>
+        <v>173.3756545258947</v>
       </c>
       <c r="N42" t="n">
-        <v>620.3963446297281</v>
+        <v>671.8609533329707</v>
       </c>
       <c r="O42" t="n">
         <v>547.5349699202882</v>
       </c>
       <c r="P42" t="n">
-        <v>103.807500420969</v>
+        <v>422.2702690609062</v>
       </c>
       <c r="Q42" t="n">
-        <v>18.96913421565864</v>
+        <v>229.0464219515077</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>116.8991451954056</v>
       </c>
       <c r="K45" t="n">
-        <v>63.23386307838146</v>
+        <v>281.0343409828433</v>
       </c>
       <c r="L45" t="n">
         <v>502.6565233669974</v>
@@ -38113,10 +38113,10 @@
         <v>547.5349699202882</v>
       </c>
       <c r="P45" t="n">
-        <v>422.2702690609062</v>
+        <v>103.807500420969</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.3841312160325</v>
+        <v>229.0464219515077</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3114582.293749675</v>
+        <v>3116734.246148372</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>817332.6097121678</v>
+        <v>817332.6097121669</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>87.7061602166668</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -712,7 +712,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>145.4287699906872</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>58.39471844666272</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>183.4693513325733</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>85.7724214674472</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>200.160833108852</v>
+      </c>
+      <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>83.51289199636496</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>70.69951467076297</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>145.1806198985548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.0555044138761</v>
+        <v>298.0555044138757</v>
       </c>
       <c r="C11" t="n">
-        <v>280.5945545214026</v>
+        <v>280.5945545214029</v>
       </c>
       <c r="D11" t="n">
-        <v>270.004704371078</v>
+        <v>270.0047043710781</v>
       </c>
       <c r="E11" t="n">
         <v>297.2520328226569</v>
       </c>
       <c r="F11" t="n">
-        <v>322.1977084921065</v>
+        <v>322.1977084921066</v>
       </c>
       <c r="G11" t="n">
-        <v>328.2970963075906</v>
+        <v>328.2970963075907</v>
       </c>
       <c r="H11" t="n">
         <v>230.9619632069142</v>
       </c>
       <c r="I11" t="n">
-        <v>36.07416648233773</v>
+        <v>36.07416648233772</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>128.2297392386462</v>
       </c>
       <c r="U11" t="n">
-        <v>166.4811313415964</v>
+        <v>166.4811313415965</v>
       </c>
       <c r="V11" t="n">
         <v>243.07392122053</v>
       </c>
       <c r="W11" t="n">
-        <v>264.5626314678081</v>
+        <v>264.5626314678082</v>
       </c>
       <c r="X11" t="n">
-        <v>285.0527634288641</v>
+        <v>285.0527634288642</v>
       </c>
       <c r="Y11" t="n">
         <v>301.5596014064487</v>
@@ -1469,7 +1469,7 @@
         <v>100.2092657015769</v>
       </c>
       <c r="I12" t="n">
-        <v>46.52401636680165</v>
+        <v>46.52401636680164</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.84512600535805</v>
+        <v>22.84512600535804</v>
       </c>
       <c r="S12" t="n">
         <v>148.5538041213744</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.1536429323324</v>
+        <v>95.15364293233242</v>
       </c>
       <c r="C13" t="n">
-        <v>82.56848384902294</v>
+        <v>82.56848384902295</v>
       </c>
       <c r="D13" t="n">
-        <v>31.19687406196919</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>31.19687406196908</v>
       </c>
       <c r="F13" t="n">
-        <v>60.74271077332635</v>
+        <v>60.74271077332637</v>
       </c>
       <c r="G13" t="n">
-        <v>82.26869367362239</v>
+        <v>82.26869367362241</v>
       </c>
       <c r="H13" t="n">
-        <v>68.26718462459482</v>
+        <v>68.26718462459483</v>
       </c>
       <c r="I13" t="n">
-        <v>39.3777610981468</v>
+        <v>39.37776109814681</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.67533630342931</v>
+        <v>45.67533630342932</v>
       </c>
       <c r="S13" t="n">
         <v>121.1450866933788</v>
@@ -1593,7 +1593,7 @@
         <v>201.8446610869861</v>
       </c>
       <c r="X13" t="n">
-        <v>141.0313181394322</v>
+        <v>141.0313181394323</v>
       </c>
       <c r="Y13" t="n">
         <v>133.9063161024899</v>
@@ -1612,22 +1612,22 @@
         <v>280.5945545214026</v>
       </c>
       <c r="D14" t="n">
-        <v>270.004704371078</v>
+        <v>270.0047043710781</v>
       </c>
       <c r="E14" t="n">
         <v>297.2520328226569</v>
       </c>
       <c r="F14" t="n">
-        <v>322.1977084921065</v>
+        <v>322.1977084921066</v>
       </c>
       <c r="G14" t="n">
-        <v>328.2970963075906</v>
+        <v>328.2970963075907</v>
       </c>
       <c r="H14" t="n">
         <v>230.9619632069142</v>
       </c>
       <c r="I14" t="n">
-        <v>36.07416648233807</v>
+        <v>36.07416648233774</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.30829339509366</v>
+        <v>71.30829339509408</v>
       </c>
       <c r="T14" t="n">
         <v>128.2297392386462</v>
@@ -1669,10 +1669,10 @@
         <v>243.07392122053</v>
       </c>
       <c r="W14" t="n">
-        <v>264.5626314678081</v>
+        <v>264.5626314678082</v>
       </c>
       <c r="X14" t="n">
-        <v>285.0527634288641</v>
+        <v>285.0527634288642</v>
       </c>
       <c r="Y14" t="n">
         <v>301.5596014064487</v>
@@ -1706,7 +1706,7 @@
         <v>100.2092657015769</v>
       </c>
       <c r="I15" t="n">
-        <v>46.52401636680164</v>
+        <v>46.52401636680165</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.84512600535804</v>
+        <v>22.84512600535805</v>
       </c>
       <c r="S15" t="n">
         <v>148.5538041213744</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.1536429323324</v>
+        <v>95.15364293233242</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>82.56848384902295</v>
       </c>
       <c r="D16" t="n">
-        <v>52.00973251402826</v>
+        <v>63.93713576860748</v>
       </c>
       <c r="E16" t="n">
-        <v>61.75562539696428</v>
+        <v>61.75562539696429</v>
       </c>
       <c r="F16" t="n">
-        <v>60.74271077332635</v>
+        <v>60.74271077332637</v>
       </c>
       <c r="G16" t="n">
-        <v>82.26869367362239</v>
+        <v>82.26869367362241</v>
       </c>
       <c r="H16" t="n">
-        <v>68.26718462459482</v>
+        <v>68.26718462459483</v>
       </c>
       <c r="I16" t="n">
-        <v>39.37776109814679</v>
+        <v>39.37776109814681</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>45.6753363034293</v>
+        <v>45.67533630342933</v>
       </c>
       <c r="S16" t="n">
         <v>121.1450866933788</v>
@@ -1821,7 +1821,7 @@
         <v>138.8067452281421</v>
       </c>
       <c r="U16" t="n">
-        <v>201.5837494649643</v>
+        <v>107.0878623613613</v>
       </c>
       <c r="V16" t="n">
         <v>167.4593060742231</v>
@@ -1830,7 +1830,7 @@
         <v>201.8446610869861</v>
       </c>
       <c r="X16" t="n">
-        <v>141.0313181394322</v>
+        <v>141.0313181394323</v>
       </c>
       <c r="Y16" t="n">
         <v>133.9063161024899</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>298.0555044138757</v>
+        <v>298.0555044138756</v>
       </c>
       <c r="C17" t="n">
         <v>280.5945545214026</v>
@@ -1852,7 +1852,7 @@
         <v>270.004704371078</v>
       </c>
       <c r="E17" t="n">
-        <v>297.2520328226569</v>
+        <v>297.2520328226568</v>
       </c>
       <c r="F17" t="n">
         <v>322.1977084921065</v>
@@ -1861,10 +1861,10 @@
         <v>328.2970963075906</v>
       </c>
       <c r="H17" t="n">
-        <v>230.9619632069142</v>
+        <v>230.9619632069141</v>
       </c>
       <c r="I17" t="n">
-        <v>36.0741664823379</v>
+        <v>36.07416648233767</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.30829339509366</v>
+        <v>71.30829339509408</v>
       </c>
       <c r="T17" t="n">
         <v>128.2297392386462</v>
@@ -1903,16 +1903,16 @@
         <v>166.4811313415964</v>
       </c>
       <c r="V17" t="n">
-        <v>243.07392122053</v>
+        <v>243.0739212205299</v>
       </c>
       <c r="W17" t="n">
-        <v>264.5626314678081</v>
+        <v>264.562631467808</v>
       </c>
       <c r="X17" t="n">
         <v>285.0527634288641</v>
       </c>
       <c r="Y17" t="n">
-        <v>301.5596014064487</v>
+        <v>301.5596014064486</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.1536429323324</v>
+        <v>95.15364293233235</v>
       </c>
       <c r="C19" t="n">
-        <v>82.56848384902294</v>
+        <v>82.56848384902288</v>
       </c>
       <c r="D19" t="n">
-        <v>63.93713576860746</v>
+        <v>63.9371357686074</v>
       </c>
       <c r="E19" t="n">
-        <v>61.75562539696428</v>
+        <v>6.637499391510111</v>
       </c>
       <c r="F19" t="n">
-        <v>48.51551734334614</v>
+        <v>60.74271077332629</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>82.26869367362234</v>
       </c>
       <c r="H19" t="n">
-        <v>68.26718462459482</v>
+        <v>68.26718462459476</v>
       </c>
       <c r="I19" t="n">
-        <v>39.3777610981468</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>45.67533630342931</v>
+        <v>45.67533630342925</v>
       </c>
       <c r="S19" t="n">
-        <v>121.1450866933788</v>
+        <v>121.1450866933787</v>
       </c>
       <c r="T19" t="n">
-        <v>138.8067452281421</v>
+        <v>138.806745228142</v>
       </c>
       <c r="U19" t="n">
-        <v>201.5837494649643</v>
+        <v>201.5837494649642</v>
       </c>
       <c r="V19" t="n">
-        <v>167.4593060742231</v>
+        <v>167.459306074223</v>
       </c>
       <c r="W19" t="n">
-        <v>201.8446610869861</v>
+        <v>201.844661086986</v>
       </c>
       <c r="X19" t="n">
         <v>141.0313181394322</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.9063161024899</v>
+        <v>133.9063161024898</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>328.2970963075906</v>
       </c>
       <c r="H20" t="n">
-        <v>230.9619632069142</v>
+        <v>230.9619632069145</v>
       </c>
       <c r="I20" t="n">
-        <v>36.07416648233773</v>
+        <v>36.07416648233772</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>71.30829339509367</v>
+        <v>71.30829339509364</v>
       </c>
       <c r="T20" t="n">
         <v>128.2297392386462</v>
@@ -2140,7 +2140,7 @@
         <v>166.4811313415964</v>
       </c>
       <c r="V20" t="n">
-        <v>243.0739212205304</v>
+        <v>243.07392122053</v>
       </c>
       <c r="W20" t="n">
         <v>264.5626314678081</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.1536429323324</v>
+        <v>95.15364293233239</v>
       </c>
       <c r="C22" t="n">
-        <v>49.82822214238455</v>
+        <v>82.56848384902293</v>
       </c>
       <c r="D22" t="n">
-        <v>63.93713576860746</v>
+        <v>63.93713576860745</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>61.75562539696426</v>
       </c>
       <c r="F22" t="n">
-        <v>60.74271077332635</v>
+        <v>60.74271077332634</v>
       </c>
       <c r="G22" t="n">
-        <v>82.26869367362239</v>
+        <v>82.26869367362238</v>
       </c>
       <c r="H22" t="n">
-        <v>68.26718462459482</v>
+        <v>68.2671846245948</v>
       </c>
       <c r="I22" t="n">
-        <v>39.3777610981468</v>
+        <v>39.37776109814678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>45.67533630342931</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>121.1450866933788</v>
+        <v>72.3245358932063</v>
       </c>
       <c r="T22" t="n">
         <v>138.8067452281421</v>
@@ -2335,10 +2335,10 @@
         <v>328.2970963075906</v>
       </c>
       <c r="H23" t="n">
-        <v>230.9619632069142</v>
+        <v>230.9619632069141</v>
       </c>
       <c r="I23" t="n">
-        <v>36.07416648233773</v>
+        <v>36.07416648233772</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>71.30829339509367</v>
+        <v>71.30829339509364</v>
       </c>
       <c r="T23" t="n">
         <v>128.2297392386462</v>
       </c>
       <c r="U23" t="n">
-        <v>166.4811313415964</v>
+        <v>166.481131341596</v>
       </c>
       <c r="V23" t="n">
         <v>243.07392122053</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.1536429323324</v>
+        <v>95.15364293233239</v>
       </c>
       <c r="C25" t="n">
-        <v>82.56848384902294</v>
+        <v>82.56848384902293</v>
       </c>
       <c r="D25" t="n">
-        <v>63.93713576860746</v>
+        <v>63.93713576860745</v>
       </c>
       <c r="E25" t="n">
-        <v>61.75562539696428</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>60.74271077332635</v>
+        <v>28.00244906668869</v>
       </c>
       <c r="G25" t="n">
-        <v>56.03999119461464</v>
+        <v>82.26869367362238</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>68.2671846245948</v>
       </c>
       <c r="I25" t="n">
-        <v>39.3777610981468</v>
+        <v>39.37776109814678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>45.67533630342931</v>
+        <v>45.6753363034293</v>
       </c>
       <c r="S25" t="n">
         <v>121.1450866933788</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>298.0555044138757</v>
+        <v>298.0555044138756</v>
       </c>
       <c r="C26" t="n">
         <v>280.5945545214026</v>
@@ -2563,7 +2563,7 @@
         <v>270.004704371078</v>
       </c>
       <c r="E26" t="n">
-        <v>297.2520328226569</v>
+        <v>297.2520328226568</v>
       </c>
       <c r="F26" t="n">
         <v>322.1977084921065</v>
@@ -2575,7 +2575,7 @@
         <v>230.9619632069141</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07416648233773</v>
+        <v>36.07416648233769</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.30829339509366</v>
+        <v>71.30829339509361</v>
       </c>
       <c r="T26" t="n">
-        <v>128.2297392386462</v>
+        <v>128.2297392386469</v>
       </c>
       <c r="U26" t="n">
         <v>166.4811313415964</v>
@@ -2617,7 +2617,7 @@
         <v>243.07392122053</v>
       </c>
       <c r="W26" t="n">
-        <v>264.5626314678081</v>
+        <v>264.562631467808</v>
       </c>
       <c r="X26" t="n">
         <v>285.0527634288641</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.1536429323324</v>
+        <v>95.15364293233236</v>
       </c>
       <c r="C28" t="n">
-        <v>52.00973251402776</v>
+        <v>82.5684838490229</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>63.93713576860742</v>
       </c>
       <c r="E28" t="n">
-        <v>61.75562539696428</v>
+        <v>61.75562539696423</v>
       </c>
       <c r="F28" t="n">
-        <v>60.74271077332635</v>
+        <v>5.624584767871812</v>
       </c>
       <c r="G28" t="n">
-        <v>82.26869367362239</v>
+        <v>82.26869367362235</v>
       </c>
       <c r="H28" t="n">
-        <v>68.26718462459482</v>
+        <v>68.26718462459478</v>
       </c>
       <c r="I28" t="n">
-        <v>39.3777610981468</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>45.67533630342931</v>
+        <v>45.67533630342927</v>
       </c>
       <c r="S28" t="n">
         <v>121.1450866933788</v>
@@ -2769,7 +2769,7 @@
         <v>138.8067452281421</v>
       </c>
       <c r="U28" t="n">
-        <v>201.5837494649643</v>
+        <v>201.5837494649642</v>
       </c>
       <c r="V28" t="n">
         <v>167.4593060742231</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>298.0555044138757</v>
+        <v>298.0555044138756</v>
       </c>
       <c r="C29" t="n">
         <v>280.5945545214026</v>
       </c>
       <c r="D29" t="n">
-        <v>270.0047043710781</v>
+        <v>270.004704371078</v>
       </c>
       <c r="E29" t="n">
-        <v>297.2520328226569</v>
+        <v>297.2520328226568</v>
       </c>
       <c r="F29" t="n">
-        <v>322.1977084921066</v>
+        <v>322.1977084921065</v>
       </c>
       <c r="G29" t="n">
-        <v>328.2970963075907</v>
+        <v>328.2970963075906</v>
       </c>
       <c r="H29" t="n">
-        <v>230.9619632069142</v>
+        <v>230.9619632069141</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07416648233774</v>
+        <v>36.07416648233767</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.30829339509319</v>
+        <v>71.30829339509361</v>
       </c>
       <c r="T29" t="n">
-        <v>128.2297392386462</v>
+        <v>128.2297392386461</v>
       </c>
       <c r="U29" t="n">
         <v>166.4811313415973</v>
       </c>
       <c r="V29" t="n">
-        <v>243.07392122053</v>
+        <v>243.0739212205299</v>
       </c>
       <c r="W29" t="n">
-        <v>264.5626314678082</v>
+        <v>264.562631467808</v>
       </c>
       <c r="X29" t="n">
-        <v>285.0527634288642</v>
+        <v>285.0527634288641</v>
       </c>
       <c r="Y29" t="n">
-        <v>301.5596014064487</v>
+        <v>301.5596014064486</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.15364293233242</v>
+        <v>95.15364293233235</v>
       </c>
       <c r="C31" t="n">
-        <v>82.56848384902295</v>
+        <v>82.56848384902288</v>
       </c>
       <c r="D31" t="n">
-        <v>63.93713576860748</v>
+        <v>63.9371357686074</v>
       </c>
       <c r="E31" t="n">
-        <v>61.75562539696429</v>
+        <v>61.75562539696422</v>
       </c>
       <c r="F31" t="n">
-        <v>60.74271077332637</v>
+        <v>60.74271077332629</v>
       </c>
       <c r="G31" t="n">
-        <v>82.26869367362241</v>
+        <v>82.26869367362234</v>
       </c>
       <c r="H31" t="n">
-        <v>68.26718462459483</v>
+        <v>68.26718462459476</v>
       </c>
       <c r="I31" t="n">
-        <v>39.37776109814681</v>
+        <v>39.37776109814674</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>45.67533630342933</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>121.1450866933788</v>
+        <v>121.1450866933787</v>
       </c>
       <c r="T31" t="n">
-        <v>138.8067452281421</v>
+        <v>138.806745228142</v>
       </c>
       <c r="U31" t="n">
-        <v>201.5837494649643</v>
+        <v>201.5837494649642</v>
       </c>
       <c r="V31" t="n">
-        <v>167.4593060742231</v>
+        <v>167.459306074223</v>
       </c>
       <c r="W31" t="n">
-        <v>201.8446610869861</v>
+        <v>201.844661086986</v>
       </c>
       <c r="X31" t="n">
-        <v>141.0313181394323</v>
+        <v>92.21076733926094</v>
       </c>
       <c r="Y31" t="n">
-        <v>39.41042899888683</v>
+        <v>133.9063161024898</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>280.5945545214026</v>
       </c>
       <c r="D32" t="n">
-        <v>270.004704371078</v>
+        <v>270.0047043710781</v>
       </c>
       <c r="E32" t="n">
         <v>297.2520328226569</v>
       </c>
       <c r="F32" t="n">
-        <v>322.1977084921065</v>
+        <v>322.1977084921066</v>
       </c>
       <c r="G32" t="n">
-        <v>328.2970963075909</v>
+        <v>328.2970963075907</v>
       </c>
       <c r="H32" t="n">
-        <v>230.9619632069142</v>
+        <v>230.9619632069143</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07416648233773</v>
+        <v>36.07416648233774</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>71.30829339509367</v>
+        <v>71.30829339509363</v>
       </c>
       <c r="T32" t="n">
         <v>128.2297392386462</v>
       </c>
       <c r="U32" t="n">
-        <v>166.4811313415964</v>
+        <v>166.481131341596</v>
       </c>
       <c r="V32" t="n">
         <v>243.07392122053</v>
       </c>
       <c r="W32" t="n">
-        <v>264.5626314678081</v>
+        <v>264.5626314678082</v>
       </c>
       <c r="X32" t="n">
-        <v>285.0527634288641</v>
+        <v>285.0527634288642</v>
       </c>
       <c r="Y32" t="n">
         <v>301.5596014064487</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.1536429323324</v>
+        <v>95.15364293233242</v>
       </c>
       <c r="C34" t="n">
-        <v>82.56848384902294</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.93713576860746</v>
+        <v>63.93713576860748</v>
       </c>
       <c r="E34" t="n">
-        <v>61.75562539696428</v>
+        <v>61.75562539696429</v>
       </c>
       <c r="F34" t="n">
-        <v>60.74271077332635</v>
+        <v>60.74271077332637</v>
       </c>
       <c r="G34" t="n">
-        <v>82.26869367362239</v>
+        <v>82.26869367362241</v>
       </c>
       <c r="H34" t="n">
-        <v>68.26718462459482</v>
+        <v>68.26718462459483</v>
       </c>
       <c r="I34" t="n">
-        <v>39.3777610981468</v>
+        <v>39.37776109814681</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.67533630342931</v>
+        <v>45.67533630342933</v>
       </c>
       <c r="S34" t="n">
         <v>121.1450866933788</v>
@@ -3249,13 +3249,13 @@
         <v>167.4593060742231</v>
       </c>
       <c r="W34" t="n">
-        <v>201.8446610869861</v>
+        <v>189.917257832406</v>
       </c>
       <c r="X34" t="n">
-        <v>141.0313181394322</v>
+        <v>141.0313181394323</v>
       </c>
       <c r="Y34" t="n">
-        <v>39.41042899888739</v>
+        <v>133.9063161024899</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>328.2970963075906</v>
       </c>
       <c r="H35" t="n">
-        <v>230.9619632069142</v>
+        <v>230.9619632069145</v>
       </c>
       <c r="I35" t="n">
-        <v>36.07416648233773</v>
+        <v>36.0741664823377</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>71.30829339509367</v>
+        <v>71.30829339509364</v>
       </c>
       <c r="T35" t="n">
         <v>128.2297392386462</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.1536429323324</v>
+        <v>95.15364293233237</v>
       </c>
       <c r="C37" t="n">
-        <v>82.56848384902294</v>
+        <v>82.56848384902291</v>
       </c>
       <c r="D37" t="n">
-        <v>63.93713576860746</v>
+        <v>63.93713576860743</v>
       </c>
       <c r="E37" t="n">
-        <v>61.75562539696428</v>
+        <v>61.75562539696425</v>
       </c>
       <c r="F37" t="n">
-        <v>60.74271077332635</v>
+        <v>60.74271077332632</v>
       </c>
       <c r="G37" t="n">
-        <v>82.26869367362239</v>
+        <v>56.03999119461572</v>
       </c>
       <c r="H37" t="n">
-        <v>68.26718462459482</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>39.3777610981468</v>
+        <v>39.37776109814677</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>45.67533630342931</v>
+        <v>45.67533630342928</v>
       </c>
       <c r="S37" t="n">
         <v>121.1450866933788</v>
@@ -3492,7 +3492,7 @@
         <v>141.0313181394322</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.41042899888728</v>
+        <v>133.9063161024899</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>230.9619632069142</v>
       </c>
       <c r="I38" t="n">
-        <v>36.07416648233773</v>
+        <v>36.07416648233772</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>71.30829339509366</v>
+        <v>71.30829339509408</v>
       </c>
       <c r="T38" t="n">
         <v>128.2297392386462</v>
       </c>
       <c r="U38" t="n">
-        <v>166.4811313415969</v>
+        <v>166.481131341596</v>
       </c>
       <c r="V38" t="n">
         <v>243.07392122053</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.1536429323324</v>
+        <v>95.15364293233239</v>
       </c>
       <c r="C40" t="n">
-        <v>82.56848384902294</v>
+        <v>82.56848384902293</v>
       </c>
       <c r="D40" t="n">
-        <v>63.93713576860746</v>
+        <v>63.93713576860745</v>
       </c>
       <c r="E40" t="n">
-        <v>61.75562539696428</v>
+        <v>61.75562539696426</v>
       </c>
       <c r="F40" t="n">
-        <v>60.74271077332635</v>
+        <v>5.624584767871165</v>
       </c>
       <c r="G40" t="n">
-        <v>82.26869367362239</v>
+        <v>82.26869367362238</v>
       </c>
       <c r="H40" t="n">
-        <v>68.26718462459482</v>
+        <v>68.2671846245948</v>
       </c>
       <c r="I40" t="n">
-        <v>39.3777610981468</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>45.67533630342931</v>
+        <v>45.6753363034293</v>
       </c>
       <c r="S40" t="n">
         <v>121.1450866933788</v>
@@ -3729,7 +3729,7 @@
         <v>141.0313181394322</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.41042899888728</v>
+        <v>133.9063161024899</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>208.2499501119992</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>412.9754335571955</v>
       </c>
       <c r="H41" t="n">
-        <v>315.6403004565191</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>120.7525037319426</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>3.676610693231396</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.9080764882511</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>14.76038615400981</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>100.2092657015769</v>
       </c>
       <c r="I42" t="n">
-        <v>46.52401636680165</v>
+        <v>46.52401636680164</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.84512600535805</v>
+        <v>22.84512600535804</v>
       </c>
       <c r="S42" t="n">
         <v>148.5538041213744</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>205.8234239429837</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.7608382294219</v>
+        <v>223.485082477747</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2620867145692</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>204.360091316681</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>110.0354489019696</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,7 +3994,7 @@
         <v>412.9754335571955</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.6403004565191</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>3.676610693231396</v>
+        <v>3.676610693231368</v>
       </c>
       <c r="S44" t="n">
-        <v>155.9866306446986</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>212.9080764882511</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>231.7380368602598</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>100.2092657015769</v>
       </c>
       <c r="I45" t="n">
-        <v>46.52401636680165</v>
+        <v>46.52401636680164</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.84512600535805</v>
+        <v>22.84512600535804</v>
       </c>
       <c r="S45" t="n">
         <v>148.5538041213744</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.485082477747</v>
       </c>
       <c r="U46" t="n">
         <v>286.2620867145692</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>151.2125100311892</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>39.6210627508837</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4360,22 +4360,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>348.0024326625565</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>348.0024326625565</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W2" t="n">
-        <v>348.0024326625565</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>817.1594080452955</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>588.9357897816847</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>353.783681549942</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4476,16 +4476,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>768.6429630387997</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C5" t="n">
-        <v>768.6429630387997</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D5" t="n">
-        <v>768.6429630387997</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E5" t="n">
-        <v>525.1941863946996</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F5" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y5" t="n">
-        <v>768.6429630387997</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>649.1947276839472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>474.7416984028202</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>325.807288741569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>877.4183459475582</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>877.4183459475582</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>877.4183459475582</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>649.1947276839472</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>649.1947276839472</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>649.1947276839472</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>649.1947276839472</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>649.1947276839472</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
         <v>41.77557929797318</v>
@@ -4764,13 +4764,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>115.7075889192809</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.1018663125844</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="9">
@@ -4892,10 +4892,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4919,16 +4919,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>892.6435043280474</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="Y9" t="n">
-        <v>817.4100647040152</v>
+        <v>649.1947276839472</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
         <v>19.28114311021272</v>
@@ -5023,13 +5023,13 @@
         <v>1572.424277975025</v>
       </c>
       <c r="D11" t="n">
-        <v>1299.692253357774</v>
+        <v>1299.692253357775</v>
       </c>
       <c r="E11" t="n">
-        <v>999.4376747490302</v>
+        <v>999.4376747490303</v>
       </c>
       <c r="F11" t="n">
-        <v>673.9854439489226</v>
+        <v>673.9854439489227</v>
       </c>
       <c r="G11" t="n">
         <v>342.3722153553967</v>
@@ -5038,13 +5038,13 @@
         <v>109.0773030251803</v>
       </c>
       <c r="I11" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J11" t="n">
-        <v>256.3606987189201</v>
+        <v>256.3606987189203</v>
       </c>
       <c r="K11" t="n">
-        <v>652.457077561194</v>
+        <v>652.4570775611944</v>
       </c>
       <c r="L11" t="n">
         <v>1196.126288294968</v>
@@ -5053,13 +5053,13 @@
         <v>1817.669584551374</v>
       </c>
       <c r="N11" t="n">
-        <v>2434.638103598905</v>
+        <v>2434.638103598906</v>
       </c>
       <c r="O11" t="n">
         <v>2972.036343137403</v>
       </c>
       <c r="P11" t="n">
-        <v>3393.018924528287</v>
+        <v>3393.018924528288</v>
       </c>
       <c r="Q11" t="n">
         <v>3631.93755114095</v>
@@ -5074,13 +5074,13 @@
         <v>3430.383982824041</v>
       </c>
       <c r="U11" t="n">
-        <v>3262.221223893135</v>
+        <v>3262.221223893136</v>
       </c>
       <c r="V11" t="n">
         <v>3016.692010539065</v>
       </c>
       <c r="W11" t="n">
-        <v>2749.45702925845</v>
+        <v>2749.457029258451</v>
       </c>
       <c r="X11" t="n">
         <v>2461.524944986871</v>
@@ -5117,25 +5117,25 @@
         <v>119.6327069488813</v>
       </c>
       <c r="I12" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J12" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="K12" t="n">
-        <v>135.2402754704166</v>
+        <v>135.2402754704167</v>
       </c>
       <c r="L12" t="n">
-        <v>489.673909872495</v>
+        <v>632.8702336037442</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.363820965631</v>
+        <v>1265.56014469688</v>
       </c>
       <c r="N12" t="n">
-        <v>1787.506164765271</v>
+        <v>1472.228023811734</v>
       </c>
       <c r="O12" t="n">
-        <v>2329.565784986357</v>
+        <v>2014.287644032819</v>
       </c>
       <c r="P12" t="n">
         <v>2432.335210403116</v>
@@ -5181,10 +5181,10 @@
         <v>357.3389775194448</v>
       </c>
       <c r="D13" t="n">
-        <v>325.8269835174557</v>
+        <v>357.3389775194448</v>
       </c>
       <c r="E13" t="n">
-        <v>325.8269835174557</v>
+        <v>325.8269835174558</v>
       </c>
       <c r="F13" t="n">
         <v>264.4707100090453</v>
@@ -5193,10 +5193,10 @@
         <v>181.3710194296287</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4142672835733</v>
+        <v>112.4142672835734</v>
       </c>
       <c r="I13" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J13" t="n">
         <v>137.1137994115785</v>
@@ -5205,10 +5205,10 @@
         <v>318.9735054013877</v>
       </c>
       <c r="L13" t="n">
-        <v>583.7737786741895</v>
+        <v>583.7737786741898</v>
       </c>
       <c r="M13" t="n">
-        <v>868.8005965617876</v>
+        <v>868.8005965617879</v>
       </c>
       <c r="N13" t="n">
         <v>1154.478057186596</v>
@@ -5217,7 +5217,7 @@
         <v>1408.730680137415</v>
       </c>
       <c r="P13" t="n">
-        <v>1614.866217527644</v>
+        <v>1614.866217527645</v>
       </c>
       <c r="Q13" t="n">
         <v>1699.93962991783</v>
@@ -5226,10 +5226,10 @@
         <v>1653.802926581033</v>
       </c>
       <c r="S13" t="n">
-        <v>1531.434152143276</v>
+        <v>1531.434152143277</v>
       </c>
       <c r="T13" t="n">
-        <v>1391.225318579496</v>
+        <v>1391.225318579497</v>
       </c>
       <c r="U13" t="n">
         <v>1187.605369624987</v>
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1855.853120925937</v>
+        <v>1855.853120925936</v>
       </c>
       <c r="C14" t="n">
         <v>1572.424277975025</v>
       </c>
       <c r="D14" t="n">
-        <v>1299.692253357775</v>
+        <v>1299.692253357774</v>
       </c>
       <c r="E14" t="n">
-        <v>999.4376747490305</v>
+        <v>999.4376747490296</v>
       </c>
       <c r="F14" t="n">
-        <v>673.9854439489229</v>
+        <v>673.9854439489222</v>
       </c>
       <c r="G14" t="n">
-        <v>342.372215355397</v>
+        <v>342.3722153553967</v>
       </c>
       <c r="H14" t="n">
-        <v>109.0773030251807</v>
+        <v>109.0773030251804</v>
       </c>
       <c r="I14" t="n">
         <v>72.63875102281901</v>
       </c>
       <c r="J14" t="n">
-        <v>256.3606987189203</v>
+        <v>256.36069871892</v>
       </c>
       <c r="K14" t="n">
         <v>652.4570775611942</v>
@@ -5311,19 +5311,19 @@
         <v>3430.383982824041</v>
       </c>
       <c r="U14" t="n">
-        <v>3262.221223893136</v>
+        <v>3262.221223893135</v>
       </c>
       <c r="V14" t="n">
         <v>3016.692010539065</v>
       </c>
       <c r="W14" t="n">
-        <v>2749.457029258451</v>
+        <v>2749.45702925845</v>
       </c>
       <c r="X14" t="n">
-        <v>2461.524944986871</v>
+        <v>2461.52494498687</v>
       </c>
       <c r="Y14" t="n">
-        <v>2156.919287000559</v>
+        <v>2156.919287000558</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>72.63875102281901</v>
       </c>
       <c r="J15" t="n">
-        <v>188.3689047662705</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="K15" t="n">
-        <v>512.791013856321</v>
+        <v>135.2402754704167</v>
       </c>
       <c r="L15" t="n">
-        <v>643.2890301392239</v>
+        <v>632.8702336037441</v>
       </c>
       <c r="M15" t="n">
-        <v>1275.97894123236</v>
+        <v>1265.56014469688</v>
       </c>
       <c r="N15" t="n">
-        <v>1941.121285032001</v>
+        <v>1472.228023811734</v>
       </c>
       <c r="O15" t="n">
-        <v>2093.257209169124</v>
+        <v>2014.287644032819</v>
       </c>
       <c r="P15" t="n">
-        <v>2511.304775539421</v>
+        <v>2432.335210403116</v>
       </c>
       <c r="Q15" t="n">
         <v>2659.091168135109</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>440.7414864578523</v>
+        <v>536.1918774715919</v>
       </c>
       <c r="C16" t="n">
-        <v>440.7414864578523</v>
+        <v>452.7893685331849</v>
       </c>
       <c r="D16" t="n">
         <v>388.206403110349</v>
       </c>
       <c r="E16" t="n">
-        <v>325.8269835174557</v>
+        <v>325.8269835174558</v>
       </c>
       <c r="F16" t="n">
         <v>264.4707100090453</v>
@@ -5430,22 +5430,22 @@
         <v>181.3710194296287</v>
       </c>
       <c r="H16" t="n">
-        <v>112.4142672835733</v>
+        <v>112.4142672835734</v>
       </c>
       <c r="I16" t="n">
         <v>72.63875102281901</v>
       </c>
       <c r="J16" t="n">
-        <v>137.1137994115786</v>
+        <v>137.1137994115785</v>
       </c>
       <c r="K16" t="n">
-        <v>318.9735054013878</v>
+        <v>318.9735054013877</v>
       </c>
       <c r="L16" t="n">
-        <v>583.7737786741898</v>
+        <v>583.7737786741895</v>
       </c>
       <c r="M16" t="n">
-        <v>868.8005965617879</v>
+        <v>868.8005965617876</v>
       </c>
       <c r="N16" t="n">
         <v>1154.478057186596</v>
@@ -5454,34 +5454,34 @@
         <v>1408.730680137415</v>
       </c>
       <c r="P16" t="n">
-        <v>1614.866217527645</v>
+        <v>1614.866217527644</v>
       </c>
       <c r="Q16" t="n">
-        <v>1699.939629917831</v>
+        <v>1699.93962991783</v>
       </c>
       <c r="R16" t="n">
         <v>1653.802926581033</v>
       </c>
       <c r="S16" t="n">
-        <v>1531.434152143277</v>
+        <v>1531.434152143276</v>
       </c>
       <c r="T16" t="n">
-        <v>1391.225318579497</v>
+        <v>1391.225318579496</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.605369624987</v>
+        <v>1283.055760638727</v>
       </c>
       <c r="V16" t="n">
-        <v>1018.4545554086</v>
+        <v>1113.90494642234</v>
       </c>
       <c r="W16" t="n">
-        <v>814.5710593611398</v>
+        <v>910.0214503748794</v>
       </c>
       <c r="X16" t="n">
-        <v>672.1151824526223</v>
+        <v>767.5655734663619</v>
       </c>
       <c r="Y16" t="n">
-        <v>536.8562772985921</v>
+        <v>632.3066683123317</v>
       </c>
     </row>
     <row r="17">
@@ -5500,16 +5500,16 @@
         <v>1299.692253357774</v>
       </c>
       <c r="E17" t="n">
-        <v>999.4376747490298</v>
+        <v>999.4376747490301</v>
       </c>
       <c r="F17" t="n">
-        <v>673.9854439489222</v>
+        <v>673.9854439489225</v>
       </c>
       <c r="G17" t="n">
-        <v>342.3722153553969</v>
+        <v>342.3722153553966</v>
       </c>
       <c r="H17" t="n">
-        <v>109.0773030251805</v>
+        <v>109.0773030251803</v>
       </c>
       <c r="I17" t="n">
         <v>72.63875102281901</v>
@@ -5548,7 +5548,7 @@
         <v>3430.383982824041</v>
       </c>
       <c r="U17" t="n">
-        <v>3262.221223893136</v>
+        <v>3262.221223893135</v>
       </c>
       <c r="V17" t="n">
         <v>3016.692010539065</v>
@@ -5597,19 +5597,19 @@
         <v>188.3689047662705</v>
       </c>
       <c r="K18" t="n">
-        <v>466.5929023392854</v>
+        <v>512.791013856321</v>
       </c>
       <c r="L18" t="n">
-        <v>964.2228604726129</v>
+        <v>1010.420971989648</v>
       </c>
       <c r="M18" t="n">
-        <v>1596.912771565748</v>
+        <v>1182.062869970284</v>
       </c>
       <c r="N18" t="n">
-        <v>1787.506164765271</v>
+        <v>1472.228023811734</v>
       </c>
       <c r="O18" t="n">
-        <v>2329.565784986357</v>
+        <v>2014.287644032819</v>
       </c>
       <c r="P18" t="n">
         <v>2432.335210403116</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>440.7414864578518</v>
+        <v>440.7414864578532</v>
       </c>
       <c r="C19" t="n">
-        <v>357.3389775194448</v>
+        <v>357.3389775194462</v>
       </c>
       <c r="D19" t="n">
-        <v>292.756012096609</v>
+        <v>292.7560120966104</v>
       </c>
       <c r="E19" t="n">
-        <v>230.3765925037158</v>
+        <v>286.0514672567012</v>
       </c>
       <c r="F19" t="n">
-        <v>181.3710194296287</v>
+        <v>224.6951937482908</v>
       </c>
       <c r="G19" t="n">
-        <v>181.3710194296287</v>
+        <v>141.5955031688743</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4142672835734</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="I19" t="n">
         <v>72.63875102281901</v>
       </c>
       <c r="J19" t="n">
-        <v>137.1137994115785</v>
+        <v>137.1137994115786</v>
       </c>
       <c r="K19" t="n">
-        <v>318.9735054013877</v>
+        <v>318.9735054013878</v>
       </c>
       <c r="L19" t="n">
-        <v>583.7737786741895</v>
+        <v>583.7737786741898</v>
       </c>
       <c r="M19" t="n">
-        <v>868.8005965617876</v>
+        <v>868.800596561788</v>
       </c>
       <c r="N19" t="n">
         <v>1154.478057186596</v>
@@ -5691,34 +5691,34 @@
         <v>1408.730680137415</v>
       </c>
       <c r="P19" t="n">
-        <v>1614.866217527644</v>
+        <v>1614.866217527645</v>
       </c>
       <c r="Q19" t="n">
-        <v>1699.93962991783</v>
+        <v>1699.939629917831</v>
       </c>
       <c r="R19" t="n">
         <v>1653.802926581033</v>
       </c>
       <c r="S19" t="n">
-        <v>1531.434152143276</v>
+        <v>1531.434152143277</v>
       </c>
       <c r="T19" t="n">
-        <v>1391.225318579496</v>
+        <v>1391.225318579497</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.605369624987</v>
+        <v>1187.605369624988</v>
       </c>
       <c r="V19" t="n">
-        <v>1018.4545554086</v>
+        <v>1018.454555408601</v>
       </c>
       <c r="W19" t="n">
-        <v>814.5710593611393</v>
+        <v>814.5710593611404</v>
       </c>
       <c r="X19" t="n">
-        <v>672.1151824526219</v>
+        <v>672.115182452623</v>
       </c>
       <c r="Y19" t="n">
-        <v>536.8562772985916</v>
+        <v>536.8562772985929</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1572.424277975025</v>
       </c>
       <c r="D20" t="n">
-        <v>1299.692253357774</v>
+        <v>1299.692253357775</v>
       </c>
       <c r="E20" t="n">
-        <v>999.4376747490302</v>
+        <v>999.4376747490305</v>
       </c>
       <c r="F20" t="n">
-        <v>673.9854439489226</v>
+        <v>673.9854439489229</v>
       </c>
       <c r="G20" t="n">
-        <v>342.3722153553967</v>
+        <v>342.372215355397</v>
       </c>
       <c r="H20" t="n">
-        <v>109.0773030251804</v>
+        <v>109.0773030251803</v>
       </c>
       <c r="I20" t="n">
         <v>72.63875102281901</v>
       </c>
       <c r="J20" t="n">
-        <v>256.3606987189202</v>
+        <v>256.36069871892</v>
       </c>
       <c r="K20" t="n">
-        <v>652.457077561194</v>
+        <v>652.4570775611942</v>
       </c>
       <c r="L20" t="n">
         <v>1196.126288294968</v>
@@ -5791,7 +5791,7 @@
         <v>3016.692010539065</v>
       </c>
       <c r="W20" t="n">
-        <v>2749.45702925845</v>
+        <v>2749.457029258451</v>
       </c>
       <c r="X20" t="n">
         <v>2461.524944986871</v>
@@ -5834,19 +5834,19 @@
         <v>188.3689047662705</v>
       </c>
       <c r="K21" t="n">
-        <v>466.5929023392854</v>
+        <v>512.791013856321</v>
       </c>
       <c r="L21" t="n">
-        <v>964.2228604726129</v>
+        <v>643.2890301392239</v>
       </c>
       <c r="M21" t="n">
-        <v>1596.912771565748</v>
+        <v>814.9309281198596</v>
       </c>
       <c r="N21" t="n">
-        <v>1787.506164765271</v>
+        <v>1472.228023811734</v>
       </c>
       <c r="O21" t="n">
-        <v>2329.565784986357</v>
+        <v>2014.287644032819</v>
       </c>
       <c r="P21" t="n">
         <v>2432.335210403116</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.7414864578518</v>
+        <v>536.1918774715916</v>
       </c>
       <c r="C22" t="n">
-        <v>390.4099489402917</v>
+        <v>452.7893685331846</v>
       </c>
       <c r="D22" t="n">
-        <v>325.8269835174558</v>
+        <v>388.2064031103488</v>
       </c>
       <c r="E22" t="n">
-        <v>325.8269835174558</v>
+        <v>325.8269835174556</v>
       </c>
       <c r="F22" t="n">
-        <v>264.4707100090453</v>
+        <v>264.4707100090452</v>
       </c>
       <c r="G22" t="n">
         <v>181.3710194296287</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4142672835734</v>
+        <v>112.4142672835733</v>
       </c>
       <c r="I22" t="n">
         <v>72.63875102281901</v>
       </c>
       <c r="J22" t="n">
-        <v>137.1137994115785</v>
+        <v>137.1137994115786</v>
       </c>
       <c r="K22" t="n">
-        <v>318.9735054013877</v>
+        <v>318.9735054013878</v>
       </c>
       <c r="L22" t="n">
-        <v>583.7737786741895</v>
+        <v>583.7737786741898</v>
       </c>
       <c r="M22" t="n">
-        <v>868.8005965617876</v>
+        <v>868.8005965617879</v>
       </c>
       <c r="N22" t="n">
         <v>1154.478057186596</v>
@@ -5928,34 +5928,34 @@
         <v>1408.730680137415</v>
       </c>
       <c r="P22" t="n">
-        <v>1614.866217527644</v>
+        <v>1614.866217527645</v>
       </c>
       <c r="Q22" t="n">
-        <v>1699.93962991783</v>
+        <v>1699.939629917831</v>
       </c>
       <c r="R22" t="n">
-        <v>1653.802926581033</v>
+        <v>1699.939629917831</v>
       </c>
       <c r="S22" t="n">
-        <v>1531.434152143276</v>
+        <v>1626.884543157016</v>
       </c>
       <c r="T22" t="n">
-        <v>1391.225318579496</v>
+        <v>1486.675709593236</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.605369624987</v>
+        <v>1283.055760638727</v>
       </c>
       <c r="V22" t="n">
-        <v>1018.4545554086</v>
+        <v>1113.90494642234</v>
       </c>
       <c r="W22" t="n">
-        <v>814.5710593611393</v>
+        <v>910.0214503748791</v>
       </c>
       <c r="X22" t="n">
-        <v>672.1151824526219</v>
+        <v>767.5655734663617</v>
       </c>
       <c r="Y22" t="n">
-        <v>536.8562772985916</v>
+        <v>632.3066683123315</v>
       </c>
     </row>
     <row r="23">
@@ -5974,13 +5974,13 @@
         <v>1299.692253357774</v>
       </c>
       <c r="E23" t="n">
-        <v>999.4376747490302</v>
+        <v>999.4376747490301</v>
       </c>
       <c r="F23" t="n">
-        <v>673.9854439489226</v>
+        <v>673.9854439489225</v>
       </c>
       <c r="G23" t="n">
-        <v>342.3722153553967</v>
+        <v>342.3722153553966</v>
       </c>
       <c r="H23" t="n">
         <v>109.0773030251803</v>
@@ -5989,16 +5989,16 @@
         <v>72.63875102281899</v>
       </c>
       <c r="J23" t="n">
-        <v>256.3606987189198</v>
+        <v>256.36069871892</v>
       </c>
       <c r="K23" t="n">
-        <v>652.4570775611937</v>
+        <v>652.457077561194</v>
       </c>
       <c r="L23" t="n">
-        <v>1196.126288294967</v>
+        <v>1196.126288294968</v>
       </c>
       <c r="M23" t="n">
-        <v>1817.669584551373</v>
+        <v>1817.669584551374</v>
       </c>
       <c r="N23" t="n">
         <v>2434.638103598906</v>
@@ -6022,13 +6022,13 @@
         <v>3430.383982824041</v>
       </c>
       <c r="U23" t="n">
-        <v>3262.221223893135</v>
+        <v>3262.221223893136</v>
       </c>
       <c r="V23" t="n">
         <v>3016.692010539065</v>
       </c>
       <c r="W23" t="n">
-        <v>2749.45702925845</v>
+        <v>2749.457029258451</v>
       </c>
       <c r="X23" t="n">
         <v>2461.524944986871</v>
@@ -6068,22 +6068,22 @@
         <v>72.63875102281899</v>
       </c>
       <c r="J24" t="n">
-        <v>72.63875102281899</v>
+        <v>188.3689047662705</v>
       </c>
       <c r="K24" t="n">
-        <v>397.0608601128695</v>
+        <v>512.791013856321</v>
       </c>
       <c r="L24" t="n">
-        <v>894.6908182461968</v>
+        <v>1010.420971989648</v>
       </c>
       <c r="M24" t="n">
-        <v>1527.380729339332</v>
+        <v>1281.634630612211</v>
       </c>
       <c r="N24" t="n">
-        <v>1717.974122538855</v>
+        <v>1472.228023811734</v>
       </c>
       <c r="O24" t="n">
-        <v>2260.033742759941</v>
+        <v>2014.287644032819</v>
       </c>
       <c r="P24" t="n">
         <v>2432.335210403116</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>440.7414864578518</v>
+        <v>440.7414864578523</v>
       </c>
       <c r="C25" t="n">
-        <v>357.3389775194448</v>
+        <v>357.3389775194453</v>
       </c>
       <c r="D25" t="n">
-        <v>292.756012096609</v>
+        <v>292.7560120966095</v>
       </c>
       <c r="E25" t="n">
-        <v>230.3765925037158</v>
+        <v>292.7560120966095</v>
       </c>
       <c r="F25" t="n">
-        <v>169.0203189953053</v>
+        <v>264.4707100090452</v>
       </c>
       <c r="G25" t="n">
-        <v>112.4142672835733</v>
+        <v>181.3710194296287</v>
       </c>
       <c r="H25" t="n">
         <v>112.4142672835733</v>
@@ -6153,10 +6153,10 @@
         <v>318.9735054013877</v>
       </c>
       <c r="L25" t="n">
-        <v>583.7737786741895</v>
+        <v>583.7737786741898</v>
       </c>
       <c r="M25" t="n">
-        <v>868.8005965617876</v>
+        <v>868.8005965617879</v>
       </c>
       <c r="N25" t="n">
         <v>1154.478057186596</v>
@@ -6165,19 +6165,19 @@
         <v>1408.730680137415</v>
       </c>
       <c r="P25" t="n">
-        <v>1614.866217527644</v>
+        <v>1614.866217527645</v>
       </c>
       <c r="Q25" t="n">
-        <v>1699.93962991783</v>
+        <v>1699.939629917831</v>
       </c>
       <c r="R25" t="n">
         <v>1653.802926581033</v>
       </c>
       <c r="S25" t="n">
-        <v>1531.434152143276</v>
+        <v>1531.434152143277</v>
       </c>
       <c r="T25" t="n">
-        <v>1391.225318579496</v>
+        <v>1391.225318579497</v>
       </c>
       <c r="U25" t="n">
         <v>1187.605369624987</v>
@@ -6186,13 +6186,13 @@
         <v>1018.4545554086</v>
       </c>
       <c r="W25" t="n">
-        <v>814.5710593611393</v>
+        <v>814.5710593611398</v>
       </c>
       <c r="X25" t="n">
-        <v>672.1151824526219</v>
+        <v>672.1151824526223</v>
       </c>
       <c r="Y25" t="n">
-        <v>536.8562772985916</v>
+        <v>536.8562772985921</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>342.3722153553966</v>
       </c>
       <c r="H26" t="n">
-        <v>109.0773030251804</v>
+        <v>109.0773030251803</v>
       </c>
       <c r="I26" t="n">
         <v>72.63875102281901</v>
@@ -6259,7 +6259,7 @@
         <v>3430.383982824041</v>
       </c>
       <c r="U26" t="n">
-        <v>3262.221223893136</v>
+        <v>3262.221223893135</v>
       </c>
       <c r="V26" t="n">
         <v>3016.692010539065</v>
@@ -6311,10 +6311,10 @@
         <v>512.791013856321</v>
       </c>
       <c r="L27" t="n">
-        <v>1010.420971989648</v>
+        <v>643.2890301392239</v>
       </c>
       <c r="M27" t="n">
-        <v>1281.634630612211</v>
+        <v>814.9309281198596</v>
       </c>
       <c r="N27" t="n">
         <v>1472.228023811734</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>440.7414864578518</v>
+        <v>440.7414864578529</v>
       </c>
       <c r="C28" t="n">
-        <v>388.206403110349</v>
+        <v>357.3389775194459</v>
       </c>
       <c r="D28" t="n">
-        <v>388.206403110349</v>
+        <v>292.7560120966101</v>
       </c>
       <c r="E28" t="n">
-        <v>325.8269835174558</v>
+        <v>230.3765925037169</v>
       </c>
       <c r="F28" t="n">
-        <v>264.4707100090453</v>
+        <v>224.6951937482909</v>
       </c>
       <c r="G28" t="n">
-        <v>181.3710194296287</v>
+        <v>141.5955031688744</v>
       </c>
       <c r="H28" t="n">
-        <v>112.4142672835734</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="I28" t="n">
         <v>72.63875102281901</v>
       </c>
       <c r="J28" t="n">
-        <v>137.1137994115785</v>
+        <v>137.1137994115786</v>
       </c>
       <c r="K28" t="n">
-        <v>318.9735054013877</v>
+        <v>318.9735054013878</v>
       </c>
       <c r="L28" t="n">
-        <v>583.7737786741895</v>
+        <v>583.7737786741898</v>
       </c>
       <c r="M28" t="n">
-        <v>868.8005965617876</v>
+        <v>868.8005965617879</v>
       </c>
       <c r="N28" t="n">
         <v>1154.478057186596</v>
@@ -6402,34 +6402,34 @@
         <v>1408.730680137415</v>
       </c>
       <c r="P28" t="n">
-        <v>1614.866217527644</v>
+        <v>1614.866217527645</v>
       </c>
       <c r="Q28" t="n">
-        <v>1699.93962991783</v>
+        <v>1699.939629917831</v>
       </c>
       <c r="R28" t="n">
         <v>1653.802926581033</v>
       </c>
       <c r="S28" t="n">
-        <v>1531.434152143276</v>
+        <v>1531.434152143277</v>
       </c>
       <c r="T28" t="n">
-        <v>1391.225318579496</v>
+        <v>1391.225318579497</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.605369624987</v>
+        <v>1187.605369624988</v>
       </c>
       <c r="V28" t="n">
-        <v>1018.4545554086</v>
+        <v>1018.454555408601</v>
       </c>
       <c r="W28" t="n">
-        <v>814.5710593611393</v>
+        <v>814.5710593611402</v>
       </c>
       <c r="X28" t="n">
-        <v>672.1151824526219</v>
+        <v>672.1151824526228</v>
       </c>
       <c r="Y28" t="n">
-        <v>536.8562772985916</v>
+        <v>536.8562772985927</v>
       </c>
     </row>
     <row r="29">
@@ -6448,31 +6448,31 @@
         <v>1299.692253357774</v>
       </c>
       <c r="E29" t="n">
-        <v>999.4376747490294</v>
+        <v>999.4376747490301</v>
       </c>
       <c r="F29" t="n">
-        <v>673.9854439489218</v>
+        <v>673.9854439489225</v>
       </c>
       <c r="G29" t="n">
         <v>342.3722153553966</v>
       </c>
       <c r="H29" t="n">
-        <v>109.0773030251804</v>
+        <v>109.0773030251803</v>
       </c>
       <c r="I29" t="n">
-        <v>72.63875102281901</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="J29" t="n">
-        <v>256.3606987189202</v>
+        <v>256.3606987189198</v>
       </c>
       <c r="K29" t="n">
-        <v>652.457077561194</v>
+        <v>652.4570775611937</v>
       </c>
       <c r="L29" t="n">
-        <v>1196.126288294968</v>
+        <v>1196.126288294967</v>
       </c>
       <c r="M29" t="n">
-        <v>1817.669584551374</v>
+        <v>1817.669584551373</v>
       </c>
       <c r="N29" t="n">
         <v>2434.638103598906</v>
@@ -6493,19 +6493,19 @@
         <v>3559.908971953987</v>
       </c>
       <c r="T29" t="n">
-        <v>3430.383982824042</v>
+        <v>3430.383982824041</v>
       </c>
       <c r="U29" t="n">
         <v>3262.221223893135</v>
       </c>
       <c r="V29" t="n">
-        <v>3016.692010539065</v>
+        <v>3016.692010539064</v>
       </c>
       <c r="W29" t="n">
         <v>2749.45702925845</v>
       </c>
       <c r="X29" t="n">
-        <v>2461.524944986871</v>
+        <v>2461.52494498687</v>
       </c>
       <c r="Y29" t="n">
         <v>2156.919287000559</v>
@@ -6539,25 +6539,25 @@
         <v>119.6327069488813</v>
       </c>
       <c r="I30" t="n">
-        <v>72.63875102281901</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="J30" t="n">
         <v>188.3689047662705</v>
       </c>
       <c r="K30" t="n">
-        <v>466.5929023392854</v>
+        <v>512.791013856321</v>
       </c>
       <c r="L30" t="n">
-        <v>964.2228604726129</v>
+        <v>1010.420971989648</v>
       </c>
       <c r="M30" t="n">
-        <v>1596.912771565748</v>
+        <v>1643.110883082784</v>
       </c>
       <c r="N30" t="n">
-        <v>1787.506164765271</v>
+        <v>1862.151719895696</v>
       </c>
       <c r="O30" t="n">
-        <v>2329.565784986357</v>
+        <v>2014.287644032819</v>
       </c>
       <c r="P30" t="n">
         <v>2432.335210403116</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>536.1918774715919</v>
+        <v>536.1918774715914</v>
       </c>
       <c r="C31" t="n">
-        <v>452.7893685331849</v>
+        <v>452.7893685331844</v>
       </c>
       <c r="D31" t="n">
-        <v>388.206403110349</v>
+        <v>388.2064031103487</v>
       </c>
       <c r="E31" t="n">
-        <v>325.8269835174558</v>
+        <v>325.8269835174555</v>
       </c>
       <c r="F31" t="n">
-        <v>264.4707100090453</v>
+        <v>264.4707100090451</v>
       </c>
       <c r="G31" t="n">
-        <v>181.3710194296287</v>
+        <v>181.3710194296286</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4142672835734</v>
+        <v>112.4142672835733</v>
       </c>
       <c r="I31" t="n">
-        <v>72.63875102281901</v>
+        <v>72.63875102281899</v>
       </c>
       <c r="J31" t="n">
-        <v>137.1137994115785</v>
+        <v>137.1137994115786</v>
       </c>
       <c r="K31" t="n">
-        <v>318.9735054013877</v>
+        <v>318.9735054013878</v>
       </c>
       <c r="L31" t="n">
-        <v>583.7737786741895</v>
+        <v>583.7737786741898</v>
       </c>
       <c r="M31" t="n">
-        <v>868.8005965617876</v>
+        <v>868.800596561788</v>
       </c>
       <c r="N31" t="n">
         <v>1154.478057186596</v>
@@ -6639,34 +6639,34 @@
         <v>1408.730680137415</v>
       </c>
       <c r="P31" t="n">
-        <v>1614.866217527644</v>
+        <v>1614.866217527645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1699.93962991783</v>
+        <v>1699.939629917831</v>
       </c>
       <c r="R31" t="n">
-        <v>1653.802926581033</v>
+        <v>1699.939629917831</v>
       </c>
       <c r="S31" t="n">
-        <v>1531.434152143276</v>
+        <v>1577.570855480074</v>
       </c>
       <c r="T31" t="n">
-        <v>1391.225318579496</v>
+        <v>1437.362021916295</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.605369624987</v>
+        <v>1233.742072961785</v>
       </c>
       <c r="V31" t="n">
-        <v>1018.4545554086</v>
+        <v>1064.591258745399</v>
       </c>
       <c r="W31" t="n">
-        <v>814.5710593611389</v>
+        <v>860.7077626979379</v>
       </c>
       <c r="X31" t="n">
-        <v>672.1151824526214</v>
+        <v>767.5655734663612</v>
       </c>
       <c r="Y31" t="n">
-        <v>632.3066683123317</v>
+        <v>632.3066683123311</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>999.4376747490305</v>
       </c>
       <c r="F32" t="n">
-        <v>673.9854439489229</v>
+        <v>673.9854439489228</v>
       </c>
       <c r="G32" t="n">
-        <v>342.3722153553967</v>
+        <v>342.3722153553969</v>
       </c>
       <c r="H32" t="n">
-        <v>109.0773030251803</v>
+        <v>109.0773030251804</v>
       </c>
       <c r="I32" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J32" t="n">
         <v>256.36069871892</v>
       </c>
       <c r="K32" t="n">
-        <v>652.457077561194</v>
+        <v>652.4570775611942</v>
       </c>
       <c r="L32" t="n">
         <v>1196.126288294968</v>
@@ -6718,7 +6718,7 @@
         <v>2972.036343137403</v>
       </c>
       <c r="P32" t="n">
-        <v>3393.018924528287</v>
+        <v>3393.018924528288</v>
       </c>
       <c r="Q32" t="n">
         <v>3631.93755114095</v>
@@ -6733,13 +6733,13 @@
         <v>3430.383982824041</v>
       </c>
       <c r="U32" t="n">
-        <v>3262.221223893135</v>
+        <v>3262.221223893136</v>
       </c>
       <c r="V32" t="n">
         <v>3016.692010539065</v>
       </c>
       <c r="W32" t="n">
-        <v>2749.45702925845</v>
+        <v>2749.457029258451</v>
       </c>
       <c r="X32" t="n">
         <v>2461.524944986871</v>
@@ -6776,7 +6776,7 @@
         <v>119.6327069488813</v>
       </c>
       <c r="I33" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J33" t="n">
         <v>188.3689047662705</v>
@@ -6785,10 +6785,10 @@
         <v>512.791013856321</v>
       </c>
       <c r="L33" t="n">
-        <v>643.2890301392239</v>
+        <v>1010.420971989648</v>
       </c>
       <c r="M33" t="n">
-        <v>1275.978941232359</v>
+        <v>1281.634630612211</v>
       </c>
       <c r="N33" t="n">
         <v>1472.228023811734</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>536.1918774715917</v>
+        <v>452.7893685331849</v>
       </c>
       <c r="C34" t="n">
-        <v>452.7893685331848</v>
+        <v>452.7893685331849</v>
       </c>
       <c r="D34" t="n">
         <v>388.206403110349</v>
       </c>
       <c r="E34" t="n">
-        <v>325.8269835174557</v>
+        <v>325.8269835174558</v>
       </c>
       <c r="F34" t="n">
         <v>264.4707100090453</v>
@@ -6852,10 +6852,10 @@
         <v>181.3710194296287</v>
       </c>
       <c r="H34" t="n">
-        <v>112.4142672835733</v>
+        <v>112.4142672835734</v>
       </c>
       <c r="I34" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J34" t="n">
         <v>137.1137994115785</v>
@@ -6897,13 +6897,13 @@
         <v>1018.4545554086</v>
       </c>
       <c r="W34" t="n">
-        <v>814.5710593611393</v>
+        <v>826.6189414364724</v>
       </c>
       <c r="X34" t="n">
-        <v>672.1151824526219</v>
+        <v>684.1630645279549</v>
       </c>
       <c r="Y34" t="n">
-        <v>632.3066683123316</v>
+        <v>548.9041593739247</v>
       </c>
     </row>
     <row r="35">
@@ -6922,43 +6922,43 @@
         <v>1299.692253357775</v>
       </c>
       <c r="E35" t="n">
-        <v>999.4376747490303</v>
+        <v>999.4376747490305</v>
       </c>
       <c r="F35" t="n">
-        <v>673.9854439489227</v>
+        <v>673.9854439489229</v>
       </c>
       <c r="G35" t="n">
-        <v>342.3722153553967</v>
+        <v>342.372215355397</v>
       </c>
       <c r="H35" t="n">
-        <v>109.0773030251804</v>
+        <v>109.0773030251803</v>
       </c>
       <c r="I35" t="n">
-        <v>72.63875102281905</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J35" t="n">
-        <v>256.3606987189225</v>
+        <v>256.3606987189202</v>
       </c>
       <c r="K35" t="n">
-        <v>652.4570775611963</v>
+        <v>652.457077561194</v>
       </c>
       <c r="L35" t="n">
-        <v>1196.12628829497</v>
+        <v>1196.126288294968</v>
       </c>
       <c r="M35" t="n">
-        <v>1817.669584551376</v>
+        <v>1817.669584551374</v>
       </c>
       <c r="N35" t="n">
-        <v>2434.638103598908</v>
+        <v>2434.638103598906</v>
       </c>
       <c r="O35" t="n">
-        <v>2972.036343137405</v>
+        <v>2972.036343137403</v>
       </c>
       <c r="P35" t="n">
-        <v>3393.01892452829</v>
+        <v>3393.018924528288</v>
       </c>
       <c r="Q35" t="n">
-        <v>3631.937551140952</v>
+        <v>3631.93755114095</v>
       </c>
       <c r="R35" t="n">
         <v>3631.93755114095</v>
@@ -6970,13 +6970,13 @@
         <v>3430.383982824041</v>
       </c>
       <c r="U35" t="n">
-        <v>3262.221223893135</v>
+        <v>3262.221223893136</v>
       </c>
       <c r="V35" t="n">
         <v>3016.692010539065</v>
       </c>
       <c r="W35" t="n">
-        <v>2749.45702925845</v>
+        <v>2749.457029258451</v>
       </c>
       <c r="X35" t="n">
         <v>2461.524944986871</v>
@@ -7001,10 +7001,10 @@
         <v>664.0992305019986</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8617754965431</v>
+        <v>504.861775496543</v>
       </c>
       <c r="F36" t="n">
-        <v>358.3272175234281</v>
+        <v>358.327217523428</v>
       </c>
       <c r="G36" t="n">
         <v>220.8541874555246</v>
@@ -7013,25 +7013,25 @@
         <v>119.6327069488813</v>
       </c>
       <c r="I36" t="n">
-        <v>72.63875102281905</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J36" t="n">
-        <v>188.3689047662706</v>
+        <v>188.3689047662705</v>
       </c>
       <c r="K36" t="n">
-        <v>466.5929023392854</v>
+        <v>512.791013856321</v>
       </c>
       <c r="L36" t="n">
-        <v>964.2228604726129</v>
+        <v>1010.420971989648</v>
       </c>
       <c r="M36" t="n">
-        <v>1596.912771565748</v>
+        <v>1643.110883082784</v>
       </c>
       <c r="N36" t="n">
-        <v>1787.506164765271</v>
+        <v>1862.151719895696</v>
       </c>
       <c r="O36" t="n">
-        <v>2329.565784986357</v>
+        <v>2014.287644032819</v>
       </c>
       <c r="P36" t="n">
         <v>2432.335210403116</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>536.1918774715919</v>
+        <v>440.7414864578528</v>
       </c>
       <c r="C37" t="n">
-        <v>452.7893685331849</v>
+        <v>357.3389775194458</v>
       </c>
       <c r="D37" t="n">
-        <v>388.206403110349</v>
+        <v>292.75601209661</v>
       </c>
       <c r="E37" t="n">
-        <v>325.8269835174558</v>
+        <v>230.3765925037168</v>
       </c>
       <c r="F37" t="n">
-        <v>264.4707100090453</v>
+        <v>169.0203189953064</v>
       </c>
       <c r="G37" t="n">
-        <v>181.3710194296288</v>
+        <v>112.4142672835733</v>
       </c>
       <c r="H37" t="n">
-        <v>112.4142672835734</v>
+        <v>112.4142672835733</v>
       </c>
       <c r="I37" t="n">
-        <v>72.63875102281905</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="J37" t="n">
         <v>137.1137994115786</v>
       </c>
       <c r="K37" t="n">
-        <v>318.9735054013877</v>
+        <v>318.9735054013878</v>
       </c>
       <c r="L37" t="n">
-        <v>583.7737786741897</v>
+        <v>583.7737786741898</v>
       </c>
       <c r="M37" t="n">
         <v>868.8005965617879</v>
@@ -7116,31 +7116,31 @@
         <v>1614.866217527645</v>
       </c>
       <c r="Q37" t="n">
-        <v>1699.93962991783</v>
+        <v>1699.939629917831</v>
       </c>
       <c r="R37" t="n">
         <v>1653.802926581033</v>
       </c>
       <c r="S37" t="n">
-        <v>1531.434152143276</v>
+        <v>1531.434152143277</v>
       </c>
       <c r="T37" t="n">
-        <v>1391.225318579496</v>
+        <v>1391.225318579497</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.605369624987</v>
+        <v>1187.605369624988</v>
       </c>
       <c r="V37" t="n">
-        <v>1018.4545554086</v>
+        <v>1018.454555408601</v>
       </c>
       <c r="W37" t="n">
-        <v>814.5710593611393</v>
+        <v>814.5710593611402</v>
       </c>
       <c r="X37" t="n">
-        <v>672.1151824526219</v>
+        <v>672.1151824526228</v>
       </c>
       <c r="Y37" t="n">
-        <v>632.3066683123317</v>
+        <v>536.8562772985925</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1855.853120925936</v>
+        <v>1855.853120925937</v>
       </c>
       <c r="C38" t="n">
-        <v>1572.424277975024</v>
+        <v>1572.424277975025</v>
       </c>
       <c r="D38" t="n">
-        <v>1299.692253357773</v>
+        <v>1299.692253357774</v>
       </c>
       <c r="E38" t="n">
-        <v>999.4376747490294</v>
+        <v>999.4376747490301</v>
       </c>
       <c r="F38" t="n">
-        <v>673.9854439489218</v>
+        <v>673.9854439489225</v>
       </c>
       <c r="G38" t="n">
-        <v>342.3722153553963</v>
+        <v>342.3722153553966</v>
       </c>
       <c r="H38" t="n">
-        <v>109.0773030251804</v>
+        <v>109.0773030251803</v>
       </c>
       <c r="I38" t="n">
         <v>72.63875102281901</v>
       </c>
       <c r="J38" t="n">
-        <v>256.3606987189202</v>
+        <v>256.36069871892</v>
       </c>
       <c r="K38" t="n">
-        <v>652.457077561194</v>
+        <v>652.4570775611942</v>
       </c>
       <c r="L38" t="n">
         <v>1196.126288294968</v>
@@ -7192,7 +7192,7 @@
         <v>2972.036343137403</v>
       </c>
       <c r="P38" t="n">
-        <v>3393.018924528287</v>
+        <v>3393.018924528288</v>
       </c>
       <c r="Q38" t="n">
         <v>3631.93755114095</v>
@@ -7207,19 +7207,19 @@
         <v>3430.383982824041</v>
       </c>
       <c r="U38" t="n">
-        <v>3262.221223893135</v>
+        <v>3262.221223893136</v>
       </c>
       <c r="V38" t="n">
-        <v>3016.692010539064</v>
+        <v>3016.692010539065</v>
       </c>
       <c r="W38" t="n">
-        <v>2749.457029258449</v>
+        <v>2749.45702925845</v>
       </c>
       <c r="X38" t="n">
-        <v>2461.52494498687</v>
+        <v>2461.524944986871</v>
       </c>
       <c r="Y38" t="n">
-        <v>2156.919287000558</v>
+        <v>2156.919287000559</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>188.3689047662705</v>
       </c>
       <c r="K39" t="n">
-        <v>466.5929023392854</v>
+        <v>512.791013856321</v>
       </c>
       <c r="L39" t="n">
-        <v>964.2228604726129</v>
+        <v>1010.420971989648</v>
       </c>
       <c r="M39" t="n">
-        <v>1596.912771565748</v>
+        <v>1643.110883082784</v>
       </c>
       <c r="N39" t="n">
-        <v>1787.506164765271</v>
+        <v>1862.151719895696</v>
       </c>
       <c r="O39" t="n">
-        <v>2329.565784986357</v>
+        <v>2014.287644032819</v>
       </c>
       <c r="P39" t="n">
         <v>2432.335210403116</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>536.1918774715919</v>
+        <v>440.7414864578523</v>
       </c>
       <c r="C40" t="n">
-        <v>452.7893685331849</v>
+        <v>357.3389775194453</v>
       </c>
       <c r="D40" t="n">
-        <v>388.206403110349</v>
+        <v>292.7560120966095</v>
       </c>
       <c r="E40" t="n">
-        <v>325.8269835174558</v>
+        <v>230.3765925037163</v>
       </c>
       <c r="F40" t="n">
-        <v>264.4707100090453</v>
+        <v>224.6951937482909</v>
       </c>
       <c r="G40" t="n">
-        <v>181.3710194296287</v>
+        <v>141.5955031688744</v>
       </c>
       <c r="H40" t="n">
-        <v>112.4142672835734</v>
+        <v>72.63875102281901</v>
       </c>
       <c r="I40" t="n">
         <v>72.63875102281901</v>
       </c>
       <c r="J40" t="n">
-        <v>137.1137994115785</v>
+        <v>137.1137994115786</v>
       </c>
       <c r="K40" t="n">
-        <v>318.9735054013877</v>
+        <v>318.9735054013878</v>
       </c>
       <c r="L40" t="n">
-        <v>583.7737786741895</v>
+        <v>583.7737786741898</v>
       </c>
       <c r="M40" t="n">
-        <v>868.8005965617876</v>
+        <v>868.8005965617879</v>
       </c>
       <c r="N40" t="n">
         <v>1154.478057186596</v>
@@ -7350,19 +7350,19 @@
         <v>1408.730680137415</v>
       </c>
       <c r="P40" t="n">
-        <v>1614.866217527644</v>
+        <v>1614.866217527645</v>
       </c>
       <c r="Q40" t="n">
-        <v>1699.93962991783</v>
+        <v>1699.939629917831</v>
       </c>
       <c r="R40" t="n">
         <v>1653.802926581033</v>
       </c>
       <c r="S40" t="n">
-        <v>1531.434152143276</v>
+        <v>1531.434152143277</v>
       </c>
       <c r="T40" t="n">
-        <v>1391.225318579496</v>
+        <v>1391.225318579497</v>
       </c>
       <c r="U40" t="n">
         <v>1187.605369624987</v>
@@ -7371,13 +7371,13 @@
         <v>1018.4545554086</v>
       </c>
       <c r="W40" t="n">
-        <v>814.5710593611393</v>
+        <v>814.5710593611398</v>
       </c>
       <c r="X40" t="n">
-        <v>672.1151824526219</v>
+        <v>672.1151824526223</v>
       </c>
       <c r="Y40" t="n">
-        <v>632.3066683123317</v>
+        <v>536.8562772985921</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1910.191554275396</v>
+        <v>2135.76025253272</v>
       </c>
       <c r="C41" t="n">
-        <v>1699.83806931378</v>
+        <v>1766.797735592308</v>
       </c>
       <c r="D41" t="n">
-        <v>1341.57237070703</v>
+        <v>1408.532036985558</v>
       </c>
       <c r="E41" t="n">
-        <v>1341.57237070703</v>
+        <v>1022.743784387314</v>
       </c>
       <c r="F41" t="n">
-        <v>930.5864659174224</v>
+        <v>611.7578795977061</v>
       </c>
       <c r="G41" t="n">
-        <v>513.4395633343966</v>
+        <v>194.6109770146803</v>
       </c>
       <c r="H41" t="n">
         <v>194.6109770146803</v>
       </c>
       <c r="I41" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="J41" t="n">
-        <v>256.3606987189201</v>
+        <v>256.3606987189202</v>
       </c>
       <c r="K41" t="n">
-        <v>652.457077561194</v>
+        <v>652.4570775611941</v>
       </c>
       <c r="L41" t="n">
         <v>1196.126288294968</v>
@@ -7429,34 +7429,34 @@
         <v>2972.036343137403</v>
       </c>
       <c r="P41" t="n">
-        <v>3393.018924528287</v>
+        <v>3393.018924528288</v>
       </c>
       <c r="Q41" t="n">
-        <v>3631.93755114095</v>
+        <v>3631.937551140951</v>
       </c>
       <c r="R41" t="n">
-        <v>3628.223802965969</v>
+        <v>3631.937551140951</v>
       </c>
       <c r="S41" t="n">
-        <v>3628.223802965969</v>
+        <v>3631.937551140951</v>
       </c>
       <c r="T41" t="n">
-        <v>3413.165139846523</v>
+        <v>3631.937551140951</v>
       </c>
       <c r="U41" t="n">
-        <v>3413.165139846523</v>
+        <v>3631.937551140951</v>
       </c>
       <c r="V41" t="n">
-        <v>3413.165139846523</v>
+        <v>3300.87466379738</v>
       </c>
       <c r="W41" t="n">
-        <v>3060.396484576409</v>
+        <v>3285.965182833734</v>
       </c>
       <c r="X41" t="n">
-        <v>2686.930726315329</v>
+        <v>2912.499424572654</v>
       </c>
       <c r="Y41" t="n">
-        <v>2296.791394339517</v>
+        <v>2522.360092596842</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>119.6327069488813</v>
       </c>
       <c r="I42" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="J42" t="n">
-        <v>188.3689047662705</v>
+        <v>188.3689047662706</v>
       </c>
       <c r="K42" t="n">
-        <v>504.9457657485547</v>
+        <v>512.791013856321</v>
       </c>
       <c r="L42" t="n">
-        <v>635.4437820314575</v>
+        <v>1010.420971989648</v>
       </c>
       <c r="M42" t="n">
-        <v>807.0856800120932</v>
+        <v>1643.110883082784</v>
       </c>
       <c r="N42" t="n">
-        <v>1472.228023811734</v>
+        <v>1862.151719895696</v>
       </c>
       <c r="O42" t="n">
         <v>2014.287644032819</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="C43" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="D43" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="E43" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="F43" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="G43" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="H43" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="I43" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="J43" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="K43" t="n">
         <v>170.6669031355194</v>
       </c>
       <c r="L43" t="n">
-        <v>351.6356225312124</v>
+        <v>351.6356225312126</v>
       </c>
       <c r="M43" t="n">
-        <v>552.8308865417017</v>
+        <v>552.8308865417018</v>
       </c>
       <c r="N43" t="n">
-        <v>754.6767932894011</v>
+        <v>754.6767932894013</v>
       </c>
       <c r="O43" t="n">
-        <v>925.0978623631113</v>
+        <v>925.0978623631116</v>
       </c>
       <c r="P43" t="n">
         <v>1047.401845876232</v>
@@ -7596,25 +7596,25 @@
         <v>1048.643704389309</v>
       </c>
       <c r="S43" t="n">
-        <v>840.7412559620523</v>
+        <v>1048.643704389309</v>
       </c>
       <c r="T43" t="n">
-        <v>616.7404092656665</v>
+        <v>822.9011968360293</v>
       </c>
       <c r="U43" t="n">
-        <v>616.7404092656665</v>
+        <v>533.74757389202</v>
       </c>
       <c r="V43" t="n">
-        <v>362.0559210597796</v>
+        <v>279.0630856861331</v>
       </c>
       <c r="W43" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="X43" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1286.559810993697</v>
+        <v>2085.497832336622</v>
       </c>
       <c r="C44" t="n">
-        <v>1286.559810993697</v>
+        <v>1716.535315396211</v>
       </c>
       <c r="D44" t="n">
-        <v>1286.559810993697</v>
+        <v>1605.388397313413</v>
       </c>
       <c r="E44" t="n">
-        <v>900.7715583954523</v>
+        <v>1219.600144715169</v>
       </c>
       <c r="F44" t="n">
-        <v>489.7856536058448</v>
+        <v>808.614239925561</v>
       </c>
       <c r="G44" t="n">
-        <v>72.63875102281899</v>
+        <v>391.4673373425352</v>
       </c>
       <c r="H44" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="I44" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="J44" t="n">
-        <v>256.3606987189201</v>
+        <v>256.36069871892</v>
       </c>
       <c r="K44" t="n">
-        <v>652.457077561194</v>
+        <v>652.4570775611937</v>
       </c>
       <c r="L44" t="n">
-        <v>1196.126288294968</v>
+        <v>1196.126288294967</v>
       </c>
       <c r="M44" t="n">
         <v>1817.669584551374</v>
@@ -7666,34 +7666,34 @@
         <v>2972.036343137403</v>
       </c>
       <c r="P44" t="n">
-        <v>3393.018924528287</v>
+        <v>3393.018924528288</v>
       </c>
       <c r="Q44" t="n">
-        <v>3631.93755114095</v>
+        <v>3631.937551140951</v>
       </c>
       <c r="R44" t="n">
-        <v>3628.223802965969</v>
+        <v>3628.22380296597</v>
       </c>
       <c r="S44" t="n">
-        <v>3470.661549789505</v>
+        <v>3628.22380296597</v>
       </c>
       <c r="T44" t="n">
-        <v>3255.60288667006</v>
+        <v>3413.165139846524</v>
       </c>
       <c r="U44" t="n">
-        <v>3001.906453749654</v>
+        <v>3159.468706926119</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.843566406083</v>
+        <v>2828.405819582548</v>
       </c>
       <c r="W44" t="n">
-        <v>2436.76474129471</v>
+        <v>2475.637164312434</v>
       </c>
       <c r="X44" t="n">
-        <v>2063.29898303363</v>
+        <v>2475.637164312434</v>
       </c>
       <c r="Y44" t="n">
-        <v>1673.159651057818</v>
+        <v>2085.497832336622</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>119.6327069488813</v>
       </c>
       <c r="I45" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="J45" t="n">
-        <v>188.3689047662705</v>
+        <v>188.3689047662706</v>
       </c>
       <c r="K45" t="n">
-        <v>466.5929023392854</v>
+        <v>512.791013856321</v>
       </c>
       <c r="L45" t="n">
-        <v>964.2228604726129</v>
+        <v>1010.420971989648</v>
       </c>
       <c r="M45" t="n">
-        <v>1596.912771565748</v>
+        <v>1643.110883082784</v>
       </c>
       <c r="N45" t="n">
-        <v>1787.506164765271</v>
+        <v>1862.151719895696</v>
       </c>
       <c r="O45" t="n">
-        <v>2329.565784986357</v>
+        <v>2014.287644032819</v>
       </c>
       <c r="P45" t="n">
         <v>2432.335210403116</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="C46" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="D46" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="E46" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="F46" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="G46" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="H46" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="I46" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="J46" t="n">
-        <v>72.63875102281899</v>
+        <v>72.63875102281902</v>
       </c>
       <c r="K46" t="n">
         <v>170.6669031355194</v>
       </c>
       <c r="L46" t="n">
-        <v>351.6356225312124</v>
+        <v>351.6356225312126</v>
       </c>
       <c r="M46" t="n">
-        <v>552.8308865417017</v>
+        <v>552.8308865417018</v>
       </c>
       <c r="N46" t="n">
-        <v>754.6767932894011</v>
+        <v>754.6767932894013</v>
       </c>
       <c r="O46" t="n">
-        <v>925.0978623631113</v>
+        <v>925.0978623631116</v>
       </c>
       <c r="P46" t="n">
         <v>1047.401845876232</v>
@@ -7830,28 +7830,28 @@
         <v>1048.643704389309</v>
       </c>
       <c r="R46" t="n">
-        <v>916.9733270630114</v>
+        <v>916.9733270630119</v>
       </c>
       <c r="S46" t="n">
-        <v>916.9733270630114</v>
+        <v>916.9733270630119</v>
       </c>
       <c r="T46" t="n">
-        <v>916.9733270630114</v>
+        <v>691.2308195097321</v>
       </c>
       <c r="U46" t="n">
-        <v>627.8197041190022</v>
+        <v>402.0771965657228</v>
       </c>
       <c r="V46" t="n">
-        <v>627.8197041190022</v>
+        <v>402.0771965657228</v>
       </c>
       <c r="W46" t="n">
-        <v>475.0797949965888</v>
+        <v>112.6600265287622</v>
       </c>
       <c r="X46" t="n">
-        <v>475.0797949965888</v>
+        <v>112.6600265287622</v>
       </c>
       <c r="Y46" t="n">
-        <v>254.2872158530587</v>
+        <v>72.63875102281902</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8768,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>9.191890145003271</v>
+        <v>9.191890145003242</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>226.1975940597732</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>16.2368544599305</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>9.191890145003271</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>16.23685445993078</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3100502244299</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>217.8004779044619</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>100.5775360019463</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9418,7 +9418,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714836</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>217.8004779044619</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>471.4178813054057</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>9.191890145003271</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>100.5775360019464</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>70.23438608728932</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9959,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>100.5775360019464</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>471.4178813054057</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>217.8004779044619</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>28.73479152867591</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10433,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>100.5775360019464</v>
       </c>
       <c r="N33" t="n">
-        <v>5.71281755540582</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720761</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504509</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>217.8004779044619</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,13 +10676,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>28.73479152867591</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599054</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>217.8004779044619</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>28.73479152867591</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119844</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>256.5407439744308</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>28.73479152867563</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714827</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>217.8004779044619</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,13 +11387,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>28.73479152867563</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.74026170663828</v>
+        <v>63.93713576860748</v>
       </c>
       <c r="E13" t="n">
-        <v>61.75562539696428</v>
+        <v>30.55875133499521</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>82.56848384902294</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11.9274032545792</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>94.495887103603</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>55.11812600545411</v>
       </c>
       <c r="F19" t="n">
-        <v>12.22719342998021</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>82.26869367362239</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>39.37776109814674</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>32.74026170663839</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>61.75562539696428</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>45.6753363034293</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>48.8205508001725</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>61.75562539696426</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>32.74026170663765</v>
       </c>
       <c r="G25" t="n">
-        <v>26.22870247900775</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>68.26718462459482</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>30.55875133499518</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>63.93713576860746</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>55.1181260054545</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>39.37776109814676</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>45.67533630342925</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>48.82055080017125</v>
       </c>
       <c r="Y31" t="n">
-        <v>94.49588710360308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>82.56848384902295</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>11.92740325458016</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.49588710360248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>26.22870247900664</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>68.26718462459479</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.4958871036026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>55.11812600545517</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>39.37776109814678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>94.4958871036026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>157.0229416590084</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>315.6403004565191</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3.676610693231368</v>
       </c>
       <c r="S41" t="n">
         <v>155.9866306446986</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.9080764882511</v>
       </c>
       <c r="U41" t="n">
         <v>251.1594685912013</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>334.4805825634032</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>124.0560983477517</v>
       </c>
       <c r="J43" t="n">
-        <v>19.5520257458074</v>
+        <v>19.55202574580738</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>130.3536735530342</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.8234239429837</v>
       </c>
       <c r="T43" t="n">
-        <v>1.724244248325078</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2620867145692</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.16290701991002</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>244.6475927187134</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>315.6403004565191</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>120.7525037319426</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>155.9866306446986</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>117.5029318571532</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26046,7 +26046,7 @@
         <v>124.0560983477517</v>
       </c>
       <c r="J46" t="n">
-        <v>19.5520257458074</v>
+        <v>19.55202574580738</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>205.8234239429837</v>
       </c>
       <c r="T46" t="n">
-        <v>223.485082477747</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>135.3104883054018</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>178.9635906012111</v>
       </c>
     </row>
   </sheetData>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>626291.3991620211</v>
+        <v>626291.399162021</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>626291.399162021</v>
+        <v>626291.3991620211</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846414</v>
       </c>
       <c r="E2" t="n">
-        <v>695957.7882877276</v>
+        <v>695957.7882877277</v>
       </c>
       <c r="F2" t="n">
-        <v>695957.7882877279</v>
+        <v>695957.7882877282</v>
       </c>
       <c r="G2" t="n">
         <v>695957.7882877283</v>
       </c>
       <c r="H2" t="n">
-        <v>695957.7882877282</v>
+        <v>695957.7882877275</v>
       </c>
       <c r="I2" t="n">
-        <v>695957.7882877286</v>
+        <v>695957.7882877284</v>
       </c>
       <c r="J2" t="n">
+        <v>695957.7882877277</v>
+      </c>
+      <c r="K2" t="n">
+        <v>695957.7882877277</v>
+      </c>
+      <c r="L2" t="n">
         <v>695957.7882877283</v>
       </c>
-      <c r="K2" t="n">
-        <v>695957.7882877281</v>
-      </c>
-      <c r="L2" t="n">
-        <v>695957.7882877276</v>
-      </c>
       <c r="M2" t="n">
-        <v>695957.7882877281</v>
+        <v>695957.7882877284</v>
       </c>
       <c r="N2" t="n">
-        <v>695957.7882877281</v>
+        <v>695957.7882877284</v>
       </c>
       <c r="O2" t="n">
-        <v>568577.5412181395</v>
+        <v>568577.5412181397</v>
       </c>
       <c r="P2" t="n">
-        <v>568577.5412181396</v>
+        <v>568577.5412181397</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>731988.809694281</v>
+        <v>731988.8096942811</v>
       </c>
       <c r="F3" t="n">
-        <v>1.1784679601628e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>166211.6165281643</v>
+        <v>166211.616528164</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>110636.711695385</v>
       </c>
       <c r="G4" t="n">
-        <v>110636.711695385</v>
+        <v>110636.7116953851</v>
       </c>
       <c r="H4" t="n">
-        <v>110636.711695385</v>
+        <v>110636.7116953851</v>
       </c>
       <c r="I4" t="n">
         <v>110636.711695385</v>
@@ -26444,13 +26444,13 @@
         <v>110636.7116953851</v>
       </c>
       <c r="K4" t="n">
+        <v>110636.7116953851</v>
+      </c>
+      <c r="L4" t="n">
         <v>110636.711695385</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>110636.7116953851</v>
-      </c>
-      <c r="M4" t="n">
-        <v>110636.711695385</v>
       </c>
       <c r="N4" t="n">
         <v>110636.7116953851</v>
@@ -26502,16 +26502,16 @@
         <v>74944.66144949599</v>
       </c>
       <c r="M5" t="n">
-        <v>74944.66144949602</v>
+        <v>74944.66144949599</v>
       </c>
       <c r="N5" t="n">
         <v>74944.66144949599</v>
       </c>
       <c r="O5" t="n">
-        <v>67825.83831525895</v>
+        <v>67825.83831525897</v>
       </c>
       <c r="P5" t="n">
-        <v>67825.83831525895</v>
+        <v>67825.83831525897</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>264607.0082422528</v>
       </c>
       <c r="C6" t="n">
-        <v>345376.4397738004</v>
+        <v>345376.4397738005</v>
       </c>
       <c r="D6" t="n">
-        <v>345376.4397738006</v>
+        <v>345376.4397738011</v>
       </c>
       <c r="E6" t="n">
-        <v>-221669.0920836965</v>
+        <v>-221618.0643046606</v>
       </c>
       <c r="F6" t="n">
-        <v>510319.7176105845</v>
+        <v>510370.7453896209</v>
       </c>
       <c r="G6" t="n">
-        <v>510319.7176105851</v>
+        <v>510370.7453896209</v>
       </c>
       <c r="H6" t="n">
-        <v>510319.717610585</v>
+        <v>510370.7453896202</v>
       </c>
       <c r="I6" t="n">
-        <v>510319.7176105853</v>
+        <v>510370.7453896212</v>
       </c>
       <c r="J6" t="n">
-        <v>379517.1052117949</v>
+        <v>379568.1329908302</v>
       </c>
       <c r="K6" t="n">
-        <v>510319.7176105849</v>
+        <v>510370.7453896204</v>
       </c>
       <c r="L6" t="n">
-        <v>510319.7176105844</v>
+        <v>510370.7453896211</v>
       </c>
       <c r="M6" t="n">
-        <v>344108.1010824207</v>
+        <v>344159.1288614571</v>
       </c>
       <c r="N6" t="n">
-        <v>510319.7176105849</v>
+        <v>510370.7453896212</v>
       </c>
       <c r="O6" t="n">
-        <v>472049.4832209852</v>
+        <v>475472.3410695104</v>
       </c>
       <c r="P6" t="n">
-        <v>472049.4832209853</v>
+        <v>475472.3410695104</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="F2" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="G2" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="H2" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="I2" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="J2" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="K2" t="n">
+        <v>84.67833724960495</v>
+      </c>
+      <c r="L2" t="n">
         <v>84.67833724960488</v>
       </c>
-      <c r="L2" t="n">
-        <v>84.67833724960489</v>
-      </c>
       <c r="M2" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="N2" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>578.9168595374553</v>
+      </c>
+      <c r="F3" t="n">
         <v>578.9168595374551</v>
-      </c>
-      <c r="F3" t="n">
-        <v>578.9168595374553</v>
       </c>
       <c r="G3" t="n">
         <v>578.9168595374551</v>
@@ -26776,10 +26776,10 @@
         <v>578.9168595374551</v>
       </c>
       <c r="O3" t="n">
-        <v>578.9168595374551</v>
+        <v>578.9168595374553</v>
       </c>
       <c r="P3" t="n">
-        <v>578.9168595374551</v>
+        <v>578.9168595374553</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>907.9843877852375</v>
+        <v>907.9843877852376</v>
       </c>
       <c r="F4" t="n">
         <v>907.9843877852376</v>
@@ -26816,22 +26816,22 @@
         <v>907.9843877852376</v>
       </c>
       <c r="K4" t="n">
+        <v>907.9843877852375</v>
+      </c>
+      <c r="L4" t="n">
         <v>907.9843877852376</v>
       </c>
-      <c r="L4" t="n">
-        <v>907.9843877852375</v>
-      </c>
       <c r="M4" t="n">
-        <v>907.984387785238</v>
+        <v>907.9843877852376</v>
       </c>
       <c r="N4" t="n">
         <v>907.9843877852376</v>
       </c>
       <c r="O4" t="n">
-        <v>907.9843877852375</v>
+        <v>907.9843877852377</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9843877852375</v>
+        <v>907.9843877852377</v>
       </c>
     </row>
   </sheetData>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>578.9168595374551</v>
+        <v>578.9168595374553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>666.9700989075784</v>
+        <v>666.9700989075785</v>
       </c>
       <c r="F4" t="n">
-        <v>4.112952961207012e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>666.9700989075789</v>
+        <v>666.9700989075775</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>666.9700989075784</v>
+        <v>666.9700989075785</v>
       </c>
       <c r="N4" t="n">
-        <v>4.112952961207012e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>319.1698855250446</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>301.5209461972391</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27472,10 +27472,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>54.73595870413436</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>82.0823630295678</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27557,10 +27557,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>348.4813272950487</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>202.7685873234803</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27697,16 +27697,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14.38541268519593</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27754,16 +27754,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.05078607424915</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>178.3269633122123</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>165.1120586621556</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>331.7898455187701</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>162.1010724786623</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>60.50207587874957</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C10" t="n">
-        <v>36.78129424836629</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="C11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="D11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="E11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="F11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="G11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="H11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="I11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.676610693231396</v>
+        <v>3.676610693231368</v>
       </c>
       <c r="S11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="T11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="U11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="V11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="W11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="X11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="C13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="D13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="E13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="G13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="H13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="I13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="J13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="K13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="L13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="M13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="N13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="O13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="P13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="R13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="S13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="T13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="U13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="V13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="W13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="X13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="C14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="D14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="E14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="F14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="G14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="H14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="I14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.676610693231368</v>
+        <v>3.676610693231396</v>
       </c>
       <c r="S14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="T14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="U14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="V14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="W14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="X14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="C16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="D16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="E16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="G16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="H16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="I16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="J16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="K16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="L16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="M16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="N16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="O16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="P16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="R16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="S16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="T16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="U16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="V16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="W16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="X16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="C17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="D17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="E17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="F17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="G17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="H17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="I17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>3.676610693231396</v>
       </c>
       <c r="S17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="T17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="U17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="V17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="W17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="X17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="C19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="D19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="E19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="F19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="G19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="H19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="I19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="J19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="K19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="L19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="M19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="N19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="O19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="P19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="R19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="S19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="T19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="U19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="V19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="W19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="X19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960495</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="C20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="D20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="E20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="F20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="G20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="H20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="I20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>3.676610693231396</v>
       </c>
       <c r="S20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="T20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="U20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="V20" t="n">
-        <v>84.67833724960454</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="W20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="X20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="C22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="D22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="E22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="F22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="G22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="H22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="I22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="J22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="K22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="L22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="M22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="N22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="O22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="P22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="R22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="S22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="T22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="U22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="V22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="W22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="X22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="C23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="D23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="E23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="F23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="G23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="H23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="I23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>3.676610693231396</v>
       </c>
       <c r="S23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="T23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="U23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="V23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="W23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="X23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="C25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="D25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="E25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="F25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="G25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="H25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="I25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="J25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="K25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="L25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="M25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="N25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="O25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="P25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="R25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="S25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="T25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="U25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="V25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="W25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="X25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="C26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="D26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="E26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="F26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="G26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="H26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="I26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>3.676610693231396</v>
       </c>
       <c r="S26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="T26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="U26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="V26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="W26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="X26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="Y26" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="C28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="D28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="E28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="F28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="G28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="H28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="I28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="J28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="K28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="L28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="M28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="N28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="O28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="P28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="R28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="S28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="T28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="U28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="V28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="W28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="X28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
       <c r="Y28" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960494</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="C29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="D29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="E29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="F29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="G29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="H29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="I29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>3.676610693231396</v>
       </c>
       <c r="S29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="T29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="U29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="V29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="W29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="X29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="Y29" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="C31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="D31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="E31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="F31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="G31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="H31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="I31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="J31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="K31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="L31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="M31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="N31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="O31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="P31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="R31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="S31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="T31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="U31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="V31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="W31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="X31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
       <c r="Y31" t="n">
-        <v>84.67833724960488</v>
+        <v>84.67833724960495</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="C32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="D32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="E32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="F32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="G32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="H32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="I32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>3.676610693231396</v>
       </c>
       <c r="S32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="T32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="U32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="V32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="W32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="X32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="Y32" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="C34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="D34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="E34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="F34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="G34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="H34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="I34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="J34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="K34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="L34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="M34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="N34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="O34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="P34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="R34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="S34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="T34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="U34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="V34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="W34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="X34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
       <c r="Y34" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960488</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="C35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="D35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="E35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="F35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="G35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="H35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960454</v>
       </c>
       <c r="I35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30033,28 +30033,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.676610693229145</v>
+        <v>3.676610693231396</v>
       </c>
       <c r="S35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="T35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="U35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="V35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="W35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="X35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="Y35" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="C37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="D37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="E37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="F37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="G37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="H37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="I37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="J37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="K37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="L37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="M37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="N37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="O37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="P37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="R37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="S37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="T37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="U37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="V37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="W37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="X37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
       <c r="Y37" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960492</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="C38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="D38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="E38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="F38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="G38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="H38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="I38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>3.676610693231396</v>
       </c>
       <c r="S38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="T38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="U38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="V38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="W38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="X38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="Y38" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="C40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="D40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="E40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="F40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="G40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="H40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="I40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="J40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="K40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="L40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="M40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="N40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="O40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="P40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="R40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="S40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="T40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="U40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="V40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="W40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="X40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
       <c r="Y40" t="n">
-        <v>84.67833724960489</v>
+        <v>84.67833724960491</v>
       </c>
     </row>
     <row r="41">
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.327303957939516</v>
+        <v>2.327303957939517</v>
       </c>
       <c r="H11" t="n">
         <v>23.83450165924808</v>
       </c>
       <c r="I11" t="n">
-        <v>89.72338583846329</v>
+        <v>89.72338583846332</v>
       </c>
       <c r="J11" t="n">
         <v>197.5270143001692</v>
       </c>
       <c r="K11" t="n">
-        <v>296.041790839749</v>
+        <v>296.0417908397491</v>
       </c>
       <c r="L11" t="n">
         <v>367.2660193425406</v>
       </c>
       <c r="M11" t="n">
-        <v>408.6542111045474</v>
+        <v>408.6542111045475</v>
       </c>
       <c r="N11" t="n">
-        <v>415.2666634750431</v>
+        <v>415.2666634750432</v>
       </c>
       <c r="O11" t="n">
-        <v>392.124534743282</v>
+        <v>392.1245347432821</v>
       </c>
       <c r="P11" t="n">
         <v>334.6692182816502</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.3226452879411</v>
+        <v>251.3226452879412</v>
       </c>
       <c r="R11" t="n">
         <v>146.1925072479183</v>
       </c>
       <c r="S11" t="n">
-        <v>53.03343894154678</v>
+        <v>53.03343894154679</v>
       </c>
       <c r="T11" t="n">
         <v>10.18777307588024</v>
@@ -31837,22 +31837,22 @@
         <v>12.02617853491959</v>
       </c>
       <c r="I12" t="n">
-        <v>42.87261648461343</v>
+        <v>42.87261648461344</v>
       </c>
       <c r="J12" t="n">
-        <v>117.6457365216634</v>
+        <v>117.6457365216635</v>
       </c>
       <c r="K12" t="n">
         <v>201.0753020527405</v>
       </c>
       <c r="L12" t="n">
-        <v>270.3705578434124</v>
+        <v>270.3705578434125</v>
       </c>
       <c r="M12" t="n">
         <v>315.509688447913</v>
       </c>
       <c r="N12" t="n">
-        <v>323.8602910727505</v>
+        <v>323.8602910727506</v>
       </c>
       <c r="O12" t="n">
         <v>296.2688950880031</v>
@@ -31864,16 +31864,16 @@
         <v>158.9509083016802</v>
       </c>
       <c r="R12" t="n">
-        <v>77.31270814728508</v>
+        <v>77.31270814728509</v>
       </c>
       <c r="S12" t="n">
         <v>23.12936698246341</v>
       </c>
       <c r="T12" t="n">
-        <v>5.019099942593595</v>
+        <v>5.019099942593596</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0819221971043569</v>
+        <v>0.08192219710435691</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.043948435231476</v>
+        <v>1.043948435231477</v>
       </c>
       <c r="H13" t="n">
-        <v>9.28165063323986</v>
+        <v>9.281650633239861</v>
       </c>
       <c r="I13" t="n">
         <v>31.39437657950659</v>
       </c>
       <c r="J13" t="n">
-        <v>73.80715437086538</v>
+        <v>73.80715437086539</v>
       </c>
       <c r="K13" t="n">
         <v>121.287827293257</v>
@@ -31940,19 +31940,19 @@
         <v>126.2608180210869</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.41644579015572</v>
+        <v>87.41644579015573</v>
       </c>
       <c r="R13" t="n">
-        <v>46.93971782413528</v>
+        <v>46.93971782413529</v>
       </c>
       <c r="S13" t="n">
-        <v>18.19317409398854</v>
+        <v>18.19317409398855</v>
       </c>
       <c r="T13" t="n">
-        <v>4.460506950534489</v>
+        <v>4.46050695053449</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05694264192171696</v>
+        <v>0.05694264192171697</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.327303957939517</v>
+        <v>2.327303957939516</v>
       </c>
       <c r="H14" t="n">
         <v>23.83450165924808</v>
       </c>
       <c r="I14" t="n">
-        <v>89.72338583846332</v>
+        <v>89.72338583846329</v>
       </c>
       <c r="J14" t="n">
         <v>197.5270143001692</v>
       </c>
       <c r="K14" t="n">
-        <v>296.0417908397491</v>
+        <v>296.041790839749</v>
       </c>
       <c r="L14" t="n">
         <v>367.2660193425406</v>
       </c>
       <c r="M14" t="n">
-        <v>408.6542111045475</v>
+        <v>408.6542111045474</v>
       </c>
       <c r="N14" t="n">
-        <v>415.2666634750432</v>
+        <v>415.2666634750431</v>
       </c>
       <c r="O14" t="n">
-        <v>392.1245347432821</v>
+        <v>392.124534743282</v>
       </c>
       <c r="P14" t="n">
         <v>334.6692182816502</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.3226452879412</v>
+        <v>251.3226452879411</v>
       </c>
       <c r="R14" t="n">
         <v>146.1925072479183</v>
       </c>
       <c r="S14" t="n">
-        <v>53.03343894154679</v>
+        <v>53.03343894154678</v>
       </c>
       <c r="T14" t="n">
         <v>10.18777307588024</v>
@@ -32074,22 +32074,22 @@
         <v>12.02617853491959</v>
       </c>
       <c r="I15" t="n">
-        <v>42.87261648461344</v>
+        <v>42.87261648461343</v>
       </c>
       <c r="J15" t="n">
-        <v>117.6457365216635</v>
+        <v>117.6457365216634</v>
       </c>
       <c r="K15" t="n">
         <v>201.0753020527405</v>
       </c>
       <c r="L15" t="n">
-        <v>270.3705578434125</v>
+        <v>270.3705578434124</v>
       </c>
       <c r="M15" t="n">
         <v>315.509688447913</v>
       </c>
       <c r="N15" t="n">
-        <v>323.8602910727506</v>
+        <v>323.8602910727505</v>
       </c>
       <c r="O15" t="n">
         <v>296.2688950880031</v>
@@ -32101,16 +32101,16 @@
         <v>158.9509083016802</v>
       </c>
       <c r="R15" t="n">
-        <v>77.31270814728509</v>
+        <v>77.31270814728508</v>
       </c>
       <c r="S15" t="n">
         <v>23.12936698246341</v>
       </c>
       <c r="T15" t="n">
-        <v>5.019099942593596</v>
+        <v>5.019099942593595</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08192219710435691</v>
+        <v>0.0819221971043569</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.043948435231477</v>
+        <v>1.043948435231476</v>
       </c>
       <c r="H16" t="n">
-        <v>9.281650633239861</v>
+        <v>9.28165063323986</v>
       </c>
       <c r="I16" t="n">
         <v>31.39437657950659</v>
       </c>
       <c r="J16" t="n">
-        <v>73.80715437086539</v>
+        <v>73.80715437086538</v>
       </c>
       <c r="K16" t="n">
         <v>121.287827293257</v>
@@ -32177,19 +32177,19 @@
         <v>126.2608180210869</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.41644579015573</v>
+        <v>87.41644579015572</v>
       </c>
       <c r="R16" t="n">
-        <v>46.93971782413529</v>
+        <v>46.93971782413528</v>
       </c>
       <c r="S16" t="n">
-        <v>18.19317409398855</v>
+        <v>18.19317409398854</v>
       </c>
       <c r="T16" t="n">
-        <v>4.46050695053449</v>
+        <v>4.460506950534489</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05694264192171697</v>
+        <v>0.05694264192171696</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.327303957939516</v>
+        <v>2.327303957939517</v>
       </c>
       <c r="H41" t="n">
         <v>23.83450165924808</v>
       </c>
       <c r="I41" t="n">
-        <v>89.72338583846329</v>
+        <v>89.72338583846332</v>
       </c>
       <c r="J41" t="n">
         <v>197.5270143001692</v>
       </c>
       <c r="K41" t="n">
-        <v>296.041790839749</v>
+        <v>296.0417908397491</v>
       </c>
       <c r="L41" t="n">
         <v>367.2660193425406</v>
       </c>
       <c r="M41" t="n">
-        <v>408.6542111045474</v>
+        <v>408.6542111045475</v>
       </c>
       <c r="N41" t="n">
-        <v>415.2666634750431</v>
+        <v>415.2666634750432</v>
       </c>
       <c r="O41" t="n">
-        <v>392.124534743282</v>
+        <v>392.1245347432821</v>
       </c>
       <c r="P41" t="n">
         <v>334.6692182816502</v>
       </c>
       <c r="Q41" t="n">
-        <v>251.3226452879411</v>
+        <v>251.3226452879412</v>
       </c>
       <c r="R41" t="n">
         <v>146.1925072479183</v>
       </c>
       <c r="S41" t="n">
-        <v>53.03343894154678</v>
+        <v>53.03343894154679</v>
       </c>
       <c r="T41" t="n">
         <v>10.18777307588024</v>
@@ -34207,22 +34207,22 @@
         <v>12.02617853491959</v>
       </c>
       <c r="I42" t="n">
-        <v>42.87261648461343</v>
+        <v>42.87261648461344</v>
       </c>
       <c r="J42" t="n">
-        <v>117.6457365216634</v>
+        <v>117.6457365216635</v>
       </c>
       <c r="K42" t="n">
         <v>201.0753020527405</v>
       </c>
       <c r="L42" t="n">
-        <v>270.3705578434124</v>
+        <v>270.3705578434125</v>
       </c>
       <c r="M42" t="n">
         <v>315.509688447913</v>
       </c>
       <c r="N42" t="n">
-        <v>323.8602910727505</v>
+        <v>323.8602910727506</v>
       </c>
       <c r="O42" t="n">
         <v>296.2688950880031</v>
@@ -34234,16 +34234,16 @@
         <v>158.9509083016802</v>
       </c>
       <c r="R42" t="n">
-        <v>77.31270814728508</v>
+        <v>77.31270814728509</v>
       </c>
       <c r="S42" t="n">
         <v>23.12936698246341</v>
       </c>
       <c r="T42" t="n">
-        <v>5.019099942593595</v>
+        <v>5.019099942593596</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0819221971043569</v>
+        <v>0.08192219710435691</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.043948435231476</v>
+        <v>1.043948435231477</v>
       </c>
       <c r="H43" t="n">
-        <v>9.28165063323986</v>
+        <v>9.281650633239861</v>
       </c>
       <c r="I43" t="n">
         <v>31.39437657950659</v>
       </c>
       <c r="J43" t="n">
-        <v>73.80715437086538</v>
+        <v>73.80715437086539</v>
       </c>
       <c r="K43" t="n">
         <v>121.287827293257</v>
@@ -34310,19 +34310,19 @@
         <v>126.2608180210869</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.41644579015572</v>
+        <v>87.41644579015573</v>
       </c>
       <c r="R43" t="n">
-        <v>46.93971782413528</v>
+        <v>46.93971782413529</v>
       </c>
       <c r="S43" t="n">
-        <v>18.19317409398854</v>
+        <v>18.19317409398855</v>
       </c>
       <c r="T43" t="n">
-        <v>4.460506950534489</v>
+        <v>4.46050695053449</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05694264192171696</v>
+        <v>0.05694264192171697</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.327303957939516</v>
+        <v>2.327303957939517</v>
       </c>
       <c r="H44" t="n">
         <v>23.83450165924808</v>
       </c>
       <c r="I44" t="n">
-        <v>89.72338583846329</v>
+        <v>89.72338583846332</v>
       </c>
       <c r="J44" t="n">
         <v>197.5270143001692</v>
       </c>
       <c r="K44" t="n">
-        <v>296.041790839749</v>
+        <v>296.0417908397491</v>
       </c>
       <c r="L44" t="n">
         <v>367.2660193425406</v>
       </c>
       <c r="M44" t="n">
-        <v>408.6542111045474</v>
+        <v>408.6542111045475</v>
       </c>
       <c r="N44" t="n">
-        <v>415.2666634750431</v>
+        <v>415.2666634750432</v>
       </c>
       <c r="O44" t="n">
-        <v>392.124534743282</v>
+        <v>392.1245347432821</v>
       </c>
       <c r="P44" t="n">
         <v>334.6692182816502</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.3226452879411</v>
+        <v>251.3226452879412</v>
       </c>
       <c r="R44" t="n">
         <v>146.1925072479183</v>
       </c>
       <c r="S44" t="n">
-        <v>53.03343894154678</v>
+        <v>53.03343894154679</v>
       </c>
       <c r="T44" t="n">
         <v>10.18777307588024</v>
@@ -34444,22 +34444,22 @@
         <v>12.02617853491959</v>
       </c>
       <c r="I45" t="n">
-        <v>42.87261648461343</v>
+        <v>42.87261648461344</v>
       </c>
       <c r="J45" t="n">
-        <v>117.6457365216634</v>
+        <v>117.6457365216635</v>
       </c>
       <c r="K45" t="n">
         <v>201.0753020527405</v>
       </c>
       <c r="L45" t="n">
-        <v>270.3705578434124</v>
+        <v>270.3705578434125</v>
       </c>
       <c r="M45" t="n">
         <v>315.509688447913</v>
       </c>
       <c r="N45" t="n">
-        <v>323.8602910727505</v>
+        <v>323.8602910727506</v>
       </c>
       <c r="O45" t="n">
         <v>296.2688950880031</v>
@@ -34471,16 +34471,16 @@
         <v>158.9509083016802</v>
       </c>
       <c r="R45" t="n">
-        <v>77.31270814728508</v>
+        <v>77.31270814728509</v>
       </c>
       <c r="S45" t="n">
         <v>23.12936698246341</v>
       </c>
       <c r="T45" t="n">
-        <v>5.019099942593595</v>
+        <v>5.019099942593596</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0819221971043569</v>
+        <v>0.08192219710435691</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.043948435231476</v>
+        <v>1.043948435231477</v>
       </c>
       <c r="H46" t="n">
-        <v>9.28165063323986</v>
+        <v>9.281650633239861</v>
       </c>
       <c r="I46" t="n">
         <v>31.39437657950659</v>
       </c>
       <c r="J46" t="n">
-        <v>73.80715437086538</v>
+        <v>73.80715437086539</v>
       </c>
       <c r="K46" t="n">
         <v>121.287827293257</v>
@@ -34547,19 +34547,19 @@
         <v>126.2608180210869</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.41644579015572</v>
+        <v>87.41644579015573</v>
       </c>
       <c r="R46" t="n">
-        <v>46.93971782413528</v>
+        <v>46.93971782413529</v>
       </c>
       <c r="S46" t="n">
-        <v>18.19317409398854</v>
+        <v>18.19317409398855</v>
       </c>
       <c r="T46" t="n">
-        <v>4.460506950534489</v>
+        <v>4.46050695053449</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05694264192171696</v>
+        <v>0.05694264192171697</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>185.5777249455567</v>
       </c>
       <c r="K11" t="n">
-        <v>400.0973523659332</v>
+        <v>400.0973523659333</v>
       </c>
       <c r="L11" t="n">
-        <v>549.1608189230037</v>
+        <v>549.1608189230038</v>
       </c>
       <c r="M11" t="n">
-        <v>627.8215113701071</v>
+        <v>627.8215113701073</v>
       </c>
       <c r="N11" t="n">
-        <v>623.2005242904363</v>
+        <v>623.2005242904364</v>
       </c>
       <c r="O11" t="n">
-        <v>542.8265045843406</v>
+        <v>542.8265045843407</v>
       </c>
       <c r="P11" t="n">
         <v>425.2349306978633</v>
       </c>
       <c r="Q11" t="n">
-        <v>241.3319460733963</v>
+        <v>241.3319460733964</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>63.23386307838146</v>
+        <v>63.23386307838149</v>
       </c>
       <c r="L12" t="n">
-        <v>358.0137721233115</v>
+        <v>502.6565233669975</v>
       </c>
       <c r="M12" t="n">
-        <v>639.0807182758946</v>
+        <v>639.0807182758947</v>
       </c>
       <c r="N12" t="n">
-        <v>671.8609533329707</v>
+        <v>208.7554334493477</v>
       </c>
       <c r="O12" t="n">
         <v>547.5349699202882</v>
       </c>
       <c r="P12" t="n">
-        <v>103.807500420969</v>
+        <v>422.2702690609062</v>
       </c>
       <c r="Q12" t="n">
-        <v>229.0464219515077</v>
+        <v>229.0464219515078</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,13 +35573,13 @@
         <v>183.696672716979</v>
       </c>
       <c r="L13" t="n">
-        <v>267.4750235078807</v>
+        <v>267.4750235078808</v>
       </c>
       <c r="M13" t="n">
         <v>287.9058766541395</v>
       </c>
       <c r="N13" t="n">
-        <v>288.5630915402103</v>
+        <v>288.5630915402104</v>
       </c>
       <c r="O13" t="n">
         <v>256.8208312634537</v>
@@ -35649,25 +35649,25 @@
         <v>185.5777249455567</v>
       </c>
       <c r="K14" t="n">
-        <v>400.0973523659333</v>
+        <v>400.0973523659332</v>
       </c>
       <c r="L14" t="n">
-        <v>549.1608189230038</v>
+        <v>549.1608189230037</v>
       </c>
       <c r="M14" t="n">
-        <v>627.8215113701073</v>
+        <v>627.8215113701071</v>
       </c>
       <c r="N14" t="n">
-        <v>623.2005242904364</v>
+        <v>623.2005242904363</v>
       </c>
       <c r="O14" t="n">
-        <v>542.8265045843407</v>
+        <v>542.8265045843406</v>
       </c>
       <c r="P14" t="n">
         <v>425.2349306978633</v>
       </c>
       <c r="Q14" t="n">
-        <v>241.3319460733964</v>
+        <v>241.3319460733963</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>116.8991451954056</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>327.6991000909601</v>
+        <v>63.23386307838146</v>
       </c>
       <c r="L15" t="n">
-        <v>131.8161780635383</v>
+        <v>502.6565233669974</v>
       </c>
       <c r="M15" t="n">
-        <v>639.0807182758947</v>
+        <v>639.0807182758946</v>
       </c>
       <c r="N15" t="n">
-        <v>671.8609533329708</v>
+        <v>208.755433449348</v>
       </c>
       <c r="O15" t="n">
-        <v>153.6726506435587</v>
+        <v>547.5349699202882</v>
       </c>
       <c r="P15" t="n">
         <v>422.2702690609062</v>
       </c>
       <c r="Q15" t="n">
-        <v>149.2791844400885</v>
+        <v>229.0464219515077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.12631150379751</v>
+        <v>65.12631150379748</v>
       </c>
       <c r="K16" t="n">
         <v>183.696672716979</v>
       </c>
       <c r="L16" t="n">
-        <v>267.4750235078808</v>
+        <v>267.4750235078807</v>
       </c>
       <c r="M16" t="n">
         <v>287.9058766541395</v>
       </c>
       <c r="N16" t="n">
-        <v>288.5630915402104</v>
+        <v>288.5630915402103</v>
       </c>
       <c r="O16" t="n">
         <v>256.8208312634537</v>
       </c>
       <c r="P16" t="n">
-        <v>208.2177145355853</v>
+        <v>208.2177145355852</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.93273978806624</v>
+        <v>85.93273978806621</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>116.8991451954056</v>
       </c>
       <c r="K18" t="n">
-        <v>281.0343409828433</v>
+        <v>327.6991000909601</v>
       </c>
       <c r="L18" t="n">
         <v>502.6565233669974</v>
       </c>
       <c r="M18" t="n">
-        <v>639.0807182758946</v>
+        <v>173.3756545258947</v>
       </c>
       <c r="N18" t="n">
-        <v>192.5185789894172</v>
+        <v>293.0961149913635</v>
       </c>
       <c r="O18" t="n">
         <v>547.5349699202882</v>
       </c>
       <c r="P18" t="n">
-        <v>103.807500420969</v>
+        <v>422.2702690609062</v>
       </c>
       <c r="Q18" t="n">
         <v>229.0464219515077</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>65.1263115037975</v>
+        <v>65.12631150379755</v>
       </c>
       <c r="K19" t="n">
         <v>183.696672716979</v>
       </c>
       <c r="L19" t="n">
-        <v>267.4750235078807</v>
+        <v>267.4750235078808</v>
       </c>
       <c r="M19" t="n">
-        <v>287.9058766541395</v>
+        <v>287.9058766541396</v>
       </c>
       <c r="N19" t="n">
-        <v>288.5630915402103</v>
+        <v>288.5630915402104</v>
       </c>
       <c r="O19" t="n">
         <v>256.8208312634537</v>
@@ -36062,7 +36062,7 @@
         <v>208.2177145355853</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.93273978806623</v>
+        <v>85.93273978806629</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>542.8265045843406</v>
       </c>
       <c r="P20" t="n">
-        <v>425.2349306978642</v>
+        <v>425.2349306978633</v>
       </c>
       <c r="Q20" t="n">
         <v>241.3319460733963</v>
@@ -36202,22 +36202,22 @@
         <v>116.8991451954056</v>
       </c>
       <c r="K21" t="n">
-        <v>281.0343409828433</v>
+        <v>327.6991000909601</v>
       </c>
       <c r="L21" t="n">
-        <v>502.6565233669974</v>
+        <v>131.8161780635382</v>
       </c>
       <c r="M21" t="n">
-        <v>639.0807182758946</v>
+        <v>173.3756545258947</v>
       </c>
       <c r="N21" t="n">
-        <v>192.5185789894172</v>
+        <v>663.9364602948228</v>
       </c>
       <c r="O21" t="n">
         <v>547.5349699202882</v>
       </c>
       <c r="P21" t="n">
-        <v>103.807500420969</v>
+        <v>422.2702690609062</v>
       </c>
       <c r="Q21" t="n">
         <v>229.0464219515077</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.1263115037975</v>
+        <v>65.12631150379751</v>
       </c>
       <c r="K22" t="n">
         <v>183.696672716979</v>
       </c>
       <c r="L22" t="n">
-        <v>267.4750235078807</v>
+        <v>267.4750235078808</v>
       </c>
       <c r="M22" t="n">
         <v>287.9058766541395</v>
       </c>
       <c r="N22" t="n">
-        <v>288.5630915402103</v>
+        <v>288.5630915402104</v>
       </c>
       <c r="O22" t="n">
         <v>256.8208312634537</v>
@@ -36299,7 +36299,7 @@
         <v>208.2177145355853</v>
       </c>
       <c r="Q22" t="n">
-        <v>85.93273978806623</v>
+        <v>85.93273978806624</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>116.8991451954056</v>
       </c>
       <c r="K24" t="n">
         <v>327.6991000909601</v>
@@ -36445,7 +36445,7 @@
         <v>502.6565233669974</v>
       </c>
       <c r="M24" t="n">
-        <v>639.0807182758946</v>
+        <v>273.9531905278411</v>
       </c>
       <c r="N24" t="n">
         <v>192.5185789894172</v>
@@ -36454,7 +36454,7 @@
         <v>547.5349699202882</v>
       </c>
       <c r="P24" t="n">
-        <v>174.0418865082584</v>
+        <v>422.2702690609062</v>
       </c>
       <c r="Q24" t="n">
         <v>229.0464219515077</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.1263115037975</v>
+        <v>65.12631150379751</v>
       </c>
       <c r="K25" t="n">
         <v>183.696672716979</v>
       </c>
       <c r="L25" t="n">
-        <v>267.4750235078807</v>
+        <v>267.4750235078808</v>
       </c>
       <c r="M25" t="n">
         <v>287.9058766541395</v>
       </c>
       <c r="N25" t="n">
-        <v>288.5630915402103</v>
+        <v>288.5630915402104</v>
       </c>
       <c r="O25" t="n">
         <v>256.8208312634537</v>
@@ -36536,7 +36536,7 @@
         <v>208.2177145355853</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.93273978806623</v>
+        <v>85.93273978806624</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>327.6991000909601</v>
       </c>
       <c r="L27" t="n">
-        <v>502.6565233669974</v>
+        <v>131.8161780635382</v>
       </c>
       <c r="M27" t="n">
-        <v>273.9531905278411</v>
+        <v>173.3756545258947</v>
       </c>
       <c r="N27" t="n">
-        <v>192.5185789894172</v>
+        <v>663.9364602948228</v>
       </c>
       <c r="O27" t="n">
         <v>547.5349699202882</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.1263115037975</v>
+        <v>65.12631150379754</v>
       </c>
       <c r="K28" t="n">
         <v>183.696672716979</v>
       </c>
       <c r="L28" t="n">
-        <v>267.4750235078807</v>
+        <v>267.4750235078808</v>
       </c>
       <c r="M28" t="n">
         <v>287.9058766541395</v>
       </c>
       <c r="N28" t="n">
-        <v>288.5630915402103</v>
+        <v>288.5630915402104</v>
       </c>
       <c r="O28" t="n">
         <v>256.8208312634537</v>
@@ -36773,7 +36773,7 @@
         <v>208.2177145355853</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.93273978806623</v>
+        <v>85.93273978806627</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>116.8991451954056</v>
       </c>
       <c r="K30" t="n">
-        <v>281.0343409828433</v>
+        <v>327.6991000909601</v>
       </c>
       <c r="L30" t="n">
         <v>502.6565233669974</v>
@@ -36922,13 +36922,13 @@
         <v>639.0807182758946</v>
       </c>
       <c r="N30" t="n">
-        <v>192.5185789894172</v>
+        <v>221.2533705180931</v>
       </c>
       <c r="O30" t="n">
-        <v>547.5349699202882</v>
+        <v>153.6726506435587</v>
       </c>
       <c r="P30" t="n">
-        <v>103.807500420969</v>
+        <v>422.2702690609062</v>
       </c>
       <c r="Q30" t="n">
         <v>229.0464219515077</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.12631150379748</v>
+        <v>65.12631150379755</v>
       </c>
       <c r="K31" t="n">
         <v>183.696672716979</v>
       </c>
       <c r="L31" t="n">
-        <v>267.4750235078807</v>
+        <v>267.4750235078808</v>
       </c>
       <c r="M31" t="n">
-        <v>287.9058766541395</v>
+        <v>287.9058766541396</v>
       </c>
       <c r="N31" t="n">
-        <v>288.5630915402103</v>
+        <v>288.5630915402104</v>
       </c>
       <c r="O31" t="n">
         <v>256.8208312634537</v>
       </c>
       <c r="P31" t="n">
-        <v>208.2177145355852</v>
+        <v>208.2177145355853</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.93273978806621</v>
+        <v>85.93273978806629</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>327.6991000909601</v>
       </c>
       <c r="L33" t="n">
-        <v>131.8161780635382</v>
+        <v>502.6565233669974</v>
       </c>
       <c r="M33" t="n">
-        <v>639.0807182758946</v>
+        <v>273.9531905278411</v>
       </c>
       <c r="N33" t="n">
-        <v>198.231396544823</v>
+        <v>192.5185789894172</v>
       </c>
       <c r="O33" t="n">
         <v>547.5349699202882</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.1263115037975</v>
+        <v>65.12631150379748</v>
       </c>
       <c r="K34" t="n">
         <v>183.696672716979</v>
@@ -37244,10 +37244,10 @@
         <v>256.8208312634537</v>
       </c>
       <c r="P34" t="n">
-        <v>208.2177145355853</v>
+        <v>208.2177145355852</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.93273978806623</v>
+        <v>85.93273978806621</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>185.577724945559</v>
+        <v>185.5777249455567</v>
       </c>
       <c r="K35" t="n">
         <v>400.0973523659332</v>
       </c>
       <c r="L35" t="n">
-        <v>549.1608189230037</v>
+        <v>549.1608189230043</v>
       </c>
       <c r="M35" t="n">
         <v>627.8215113701071</v>
@@ -37387,7 +37387,7 @@
         <v>116.8991451954056</v>
       </c>
       <c r="K36" t="n">
-        <v>281.0343409828433</v>
+        <v>327.6991000909601</v>
       </c>
       <c r="L36" t="n">
         <v>502.6565233669974</v>
@@ -37396,13 +37396,13 @@
         <v>639.0807182758946</v>
       </c>
       <c r="N36" t="n">
-        <v>192.5185789894172</v>
+        <v>221.2533705180931</v>
       </c>
       <c r="O36" t="n">
-        <v>547.5349699202882</v>
+        <v>153.6726506435587</v>
       </c>
       <c r="P36" t="n">
-        <v>103.807500420969</v>
+        <v>422.2702690609062</v>
       </c>
       <c r="Q36" t="n">
         <v>229.0464219515077</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.1263115037975</v>
+        <v>65.12631150379752</v>
       </c>
       <c r="K37" t="n">
         <v>183.696672716979</v>
       </c>
       <c r="L37" t="n">
-        <v>267.4750235078807</v>
+        <v>267.4750235078808</v>
       </c>
       <c r="M37" t="n">
         <v>287.9058766541395</v>
       </c>
       <c r="N37" t="n">
-        <v>288.5630915402103</v>
+        <v>288.5630915402104</v>
       </c>
       <c r="O37" t="n">
         <v>256.8208312634537</v>
@@ -37484,7 +37484,7 @@
         <v>208.2177145355853</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.93273978806623</v>
+        <v>85.93273978806626</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>425.2349306978633</v>
       </c>
       <c r="Q38" t="n">
-        <v>241.331946073397</v>
+        <v>241.3319460733963</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>116.8991451954056</v>
       </c>
       <c r="K39" t="n">
-        <v>281.0343409828433</v>
+        <v>327.6991000909601</v>
       </c>
       <c r="L39" t="n">
         <v>502.6565233669974</v>
@@ -37633,13 +37633,13 @@
         <v>639.0807182758946</v>
       </c>
       <c r="N39" t="n">
-        <v>192.5185789894172</v>
+        <v>221.2533705180931</v>
       </c>
       <c r="O39" t="n">
-        <v>547.5349699202882</v>
+        <v>153.6726506435587</v>
       </c>
       <c r="P39" t="n">
-        <v>103.807500420969</v>
+        <v>422.2702690609062</v>
       </c>
       <c r="Q39" t="n">
         <v>229.0464219515077</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.1263115037975</v>
+        <v>65.12631150379751</v>
       </c>
       <c r="K40" t="n">
         <v>183.696672716979</v>
       </c>
       <c r="L40" t="n">
-        <v>267.4750235078807</v>
+        <v>267.4750235078808</v>
       </c>
       <c r="M40" t="n">
         <v>287.9058766541395</v>
       </c>
       <c r="N40" t="n">
-        <v>288.5630915402103</v>
+        <v>288.5630915402104</v>
       </c>
       <c r="O40" t="n">
         <v>256.8208312634537</v>
@@ -37721,7 +37721,7 @@
         <v>208.2177145355853</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.93273978806623</v>
+        <v>85.93273978806624</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>185.5777249455567</v>
       </c>
       <c r="K41" t="n">
-        <v>400.0973523659332</v>
+        <v>400.0973523659333</v>
       </c>
       <c r="L41" t="n">
-        <v>549.1608189230037</v>
+        <v>549.1608189230038</v>
       </c>
       <c r="M41" t="n">
-        <v>627.8215113701071</v>
+        <v>627.8215113701073</v>
       </c>
       <c r="N41" t="n">
-        <v>623.2005242904363</v>
+        <v>623.2005242904366</v>
       </c>
       <c r="O41" t="n">
-        <v>542.8265045843406</v>
+        <v>542.8265045843407</v>
       </c>
       <c r="P41" t="n">
         <v>425.2349306978633</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.3319460733963</v>
+        <v>241.3319460733964</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>116.8991451954056</v>
       </c>
       <c r="K42" t="n">
-        <v>319.7746070528123</v>
+        <v>327.6991000909601</v>
       </c>
       <c r="L42" t="n">
-        <v>131.8161780635382</v>
+        <v>502.6565233669975</v>
       </c>
       <c r="M42" t="n">
-        <v>173.3756545258947</v>
+        <v>639.0807182758947</v>
       </c>
       <c r="N42" t="n">
-        <v>671.8609533329707</v>
+        <v>221.2533705180929</v>
       </c>
       <c r="O42" t="n">
-        <v>547.5349699202882</v>
+        <v>153.6726506435587</v>
       </c>
       <c r="P42" t="n">
         <v>422.2702690609062</v>
       </c>
       <c r="Q42" t="n">
-        <v>229.0464219515077</v>
+        <v>229.0464219515078</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>99.0183354673741</v>
+        <v>99.01833546737413</v>
       </c>
       <c r="L43" t="n">
         <v>182.7966862582759</v>
       </c>
       <c r="M43" t="n">
-        <v>203.2275394045346</v>
+        <v>203.2275394045347</v>
       </c>
       <c r="N43" t="n">
         <v>203.8847542906055</v>
@@ -37958,7 +37958,7 @@
         <v>123.5393772859804</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.254402538461335</v>
+        <v>1.254402538461349</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>185.5777249455567</v>
       </c>
       <c r="K44" t="n">
-        <v>400.0973523659332</v>
+        <v>400.0973523659333</v>
       </c>
       <c r="L44" t="n">
-        <v>549.1608189230037</v>
+        <v>549.1608189230038</v>
       </c>
       <c r="M44" t="n">
-        <v>627.8215113701071</v>
+        <v>627.8215113701073</v>
       </c>
       <c r="N44" t="n">
-        <v>623.2005242904363</v>
+        <v>623.2005242904364</v>
       </c>
       <c r="O44" t="n">
-        <v>542.8265045843406</v>
+        <v>542.8265045843407</v>
       </c>
       <c r="P44" t="n">
         <v>425.2349306978633</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.3319460733963</v>
+        <v>241.3319460733964</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>116.8991451954056</v>
       </c>
       <c r="K45" t="n">
-        <v>281.0343409828433</v>
+        <v>327.6991000909601</v>
       </c>
       <c r="L45" t="n">
-        <v>502.6565233669974</v>
+        <v>502.6565233669975</v>
       </c>
       <c r="M45" t="n">
-        <v>639.0807182758946</v>
+        <v>639.0807182758947</v>
       </c>
       <c r="N45" t="n">
-        <v>192.5185789894172</v>
+        <v>221.2533705180929</v>
       </c>
       <c r="O45" t="n">
-        <v>547.5349699202882</v>
+        <v>153.6726506435587</v>
       </c>
       <c r="P45" t="n">
-        <v>103.807500420969</v>
+        <v>422.2702690609062</v>
       </c>
       <c r="Q45" t="n">
-        <v>229.0464219515077</v>
+        <v>229.0464219515078</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>99.0183354673741</v>
+        <v>99.01833546737413</v>
       </c>
       <c r="L46" t="n">
         <v>182.7966862582759</v>
       </c>
       <c r="M46" t="n">
-        <v>203.2275394045346</v>
+        <v>203.2275394045347</v>
       </c>
       <c r="N46" t="n">
         <v>203.8847542906055</v>
@@ -38195,7 +38195,7 @@
         <v>123.5393772859804</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.254402538461335</v>
+        <v>1.254402538461349</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
